--- a/Data/SPATIAL/spatial_data.xlsx
+++ b/Data/SPATIAL/spatial_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/STraM_ntnu_development/Data/SPATIAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="564" documentId="13_ncr:40009_{4547961E-2D41-42F0-85A9-82B80CE2B2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{497E6CFF-99A3-41C7-A849-7FE98E259941}"/>
+  <xr:revisionPtr revIDLastSave="567" documentId="13_ncr:40009_{4547961E-2D41-42F0-85A9-82B80CE2B2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A117416F-FFEA-49A8-A333-9B015DED371F}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="6590" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="28800" windowHeight="23400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="zone_mapping" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -2598,7 +2598,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -2611,9 +2611,7 @@
     <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -2661,15 +2659,6 @@
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2723,6 +2712,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <fill>
@@ -2795,11 +2793,11 @@
     <tableColumn id="1" xr3:uid="{1C81FA9B-A218-428E-9D99-3B163735CDA7}" name="zone_nr"/>
     <tableColumn id="12" xr3:uid="{C7B62B9B-D78F-4C9E-B29E-294C62D5EDC3}" name="zone_name"/>
     <tableColumn id="3" xr3:uid="{196B5265-8D2C-4B69-AB32-943B448B9E5C}" name="centroid_name"/>
-    <tableColumn id="4" xr3:uid="{05F14AA4-9D3D-4304-9767-963D4BDC03AA}" name="latitude" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{7BA2B02B-7367-4F0D-8C7E-F38C69A86907}" name="longitude" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{05F14AA4-9D3D-4304-9767-963D4BDC03AA}" name="latitude" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{7BA2B02B-7367-4F0D-8C7E-F38C69A86907}" name="longitude" dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{41D34A41-744D-4204-8648-41EC03E8E56D}" name="lat_plot"/>
     <tableColumn id="7" xr3:uid="{333D505E-B9BC-40FF-B8D7-3392CF9071F7}" name="long_plot"/>
-    <tableColumn id="9" xr3:uid="{7A896904-1AA1-49E3-AA10-DC110DDB4EFD}" name="sea" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{7A896904-1AA1-49E3-AA10-DC110DDB4EFD}" name="sea" dataDxfId="3"/>
     <tableColumn id="10" xr3:uid="{A8120715-6082-4E77-B245-67D3427B7A05}" name="road"/>
     <tableColumn id="11" xr3:uid="{428630F6-0BF6-4EC4-867C-53820282B7A4}" name="rail"/>
     <tableColumn id="8" xr3:uid="{4FA6CB03-F999-472D-A1FB-E00E603EAE1E}" name="abroad"/>
@@ -2812,9 +2810,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8A981A2D-970E-4047-9B1F-E017E4E1890A}" name="Table_1" displayName="Table_1" ref="C1:F60">
   <tableColumns count="4">
     <tableColumn id="3" xr3:uid="{2E3594F6-1493-4F41-9417-02AD3B85C1D3}" name="DistanceKM"/>
-    <tableColumn id="5" xr3:uid="{39BBD5E6-5709-4703-8D2C-2AF51853FAD6}" name="Mode" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{ECF48864-B09B-4D8C-AE0F-6FAD0ADA3614}" name="Route" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{E0688743-3C82-41D5-9DEC-1C8A146BEE3D}" name="Existing" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{39BBD5E6-5709-4703-8D2C-2AF51853FAD6}" name="Mode" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{ECF48864-B09B-4D8C-AE0F-6FAD0ADA3614}" name="Route" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{E0688743-3C82-41D5-9DEC-1C8A146BEE3D}" name="Existing" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Sea-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3119,8 +3117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H555"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="N221" sqref="N221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8721,7 +8719,7 @@
         <v>610</v>
       </c>
       <c r="H215">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -8747,7 +8745,7 @@
         <v>610</v>
       </c>
       <c r="H216">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -8773,7 +8771,7 @@
         <v>610</v>
       </c>
       <c r="H217">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -8799,7 +8797,7 @@
         <v>610</v>
       </c>
       <c r="H218">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -8825,7 +8823,7 @@
         <v>610</v>
       </c>
       <c r="H219">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -8851,7 +8849,7 @@
         <v>610</v>
       </c>
       <c r="H220">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -8877,7 +8875,7 @@
         <v>610</v>
       </c>
       <c r="H221">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -8903,7 +8901,7 @@
         <v>610</v>
       </c>
       <c r="H222">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -8929,7 +8927,7 @@
         <v>610</v>
       </c>
       <c r="H223">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -8955,7 +8953,7 @@
         <v>610</v>
       </c>
       <c r="H224">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -8981,7 +8979,7 @@
         <v>610</v>
       </c>
       <c r="H225">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -9007,7 +9005,7 @@
         <v>610</v>
       </c>
       <c r="H226">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -9033,7 +9031,7 @@
         <v>610</v>
       </c>
       <c r="H227">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -9059,7 +9057,7 @@
         <v>610</v>
       </c>
       <c r="H228">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -9085,7 +9083,7 @@
         <v>610</v>
       </c>
       <c r="H229">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -9111,7 +9109,7 @@
         <v>610</v>
       </c>
       <c r="H230">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -9137,7 +9135,7 @@
         <v>610</v>
       </c>
       <c r="H231">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -9163,7 +9161,7 @@
         <v>610</v>
       </c>
       <c r="H232">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
@@ -9189,7 +9187,7 @@
         <v>610</v>
       </c>
       <c r="H233">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
@@ -17577,7 +17575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5741E99B-737E-4634-B318-C7C2DDFE7401}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -18280,8 +18278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A56265-210A-4263-A3EA-18E110BB8B83}">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18319,10 +18317,10 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
         <v>2</v>
       </c>
       <c r="C2" s="3">
@@ -18345,10 +18343,10 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="8">
         <v>3</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="8">
         <v>2</v>
       </c>
       <c r="C3" s="3">
@@ -18365,10 +18363,10 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="8">
         <v>23</v>
       </c>
       <c r="C4" s="3">
@@ -18385,10 +18383,10 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="8">
         <v>3</v>
       </c>
       <c r="C5" s="3">
@@ -18405,10 +18403,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="8">
         <v>25</v>
       </c>
       <c r="C6" s="3">
@@ -18425,10 +18423,10 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="8">
         <v>4</v>
       </c>
       <c r="C7" s="3">
@@ -18465,10 +18463,10 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="8">
         <v>6</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="8">
         <v>7</v>
       </c>
       <c r="C9" s="3">
@@ -18485,10 +18483,10 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="8">
         <v>7</v>
       </c>
       <c r="C10" s="3">
@@ -18505,10 +18503,10 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="8">
         <v>10</v>
       </c>
       <c r="C11" s="3">
@@ -18525,7 +18523,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="A12" s="8">
         <v>10</v>
       </c>
       <c r="B12" s="8">
@@ -18545,10 +18543,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="A13" s="8">
         <v>10</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="8">
         <v>12</v>
       </c>
       <c r="C13" s="3">
@@ -18563,15 +18561,15 @@
       <c r="F13" s="3">
         <v>1</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="13" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="8">
         <v>13</v>
       </c>
       <c r="C14" s="3">
@@ -18588,11 +18586,11 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+      <c r="A15" s="8">
         <v>22</v>
       </c>
-      <c r="B15" s="13">
-        <v>21</v>
+      <c r="B15" s="8">
+        <v>23</v>
       </c>
       <c r="C15" s="3">
         <v>550</v>
@@ -18621,10 +18619,10 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+      <c r="A16" s="8">
         <v>23</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="8">
         <v>24</v>
       </c>
       <c r="C16" s="3">
@@ -18650,10 +18648,10 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
+      <c r="A17" s="8">
         <v>23</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="8">
         <v>22</v>
       </c>
       <c r="C17">
@@ -18679,10 +18677,10 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
+      <c r="A18" s="6">
         <v>8</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="6">
         <v>22</v>
       </c>
       <c r="C18" s="5">
@@ -18708,10 +18706,10 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+      <c r="A19" s="6">
         <v>8</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="6">
         <v>7</v>
       </c>
       <c r="C19" s="5">
@@ -18737,10 +18735,10 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
-        <v>1</v>
-      </c>
-      <c r="B20" s="14">
+      <c r="A20" s="6">
+        <v>1</v>
+      </c>
+      <c r="B20" s="6">
         <v>8</v>
       </c>
       <c r="C20" s="5">
@@ -18766,10 +18764,10 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
-        <v>1</v>
-      </c>
-      <c r="B21" s="14">
+      <c r="A21" s="6">
+        <v>1</v>
+      </c>
+      <c r="B21" s="6">
         <v>5</v>
       </c>
       <c r="C21" s="5">
@@ -18795,10 +18793,10 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
-        <v>1</v>
-      </c>
-      <c r="B22" s="14">
+      <c r="A22" s="6">
+        <v>1</v>
+      </c>
+      <c r="B22" s="6">
         <v>22</v>
       </c>
       <c r="C22" s="5">
@@ -18824,10 +18822,10 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
-        <v>1</v>
-      </c>
-      <c r="B23" s="14">
+      <c r="A23" s="6">
+        <v>1</v>
+      </c>
+      <c r="B23" s="6">
         <v>23</v>
       </c>
       <c r="C23" s="5">
@@ -18853,10 +18851,10 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
-        <v>1</v>
-      </c>
-      <c r="B24" s="14">
+      <c r="A24" s="6">
+        <v>1</v>
+      </c>
+      <c r="B24" s="6">
         <v>2</v>
       </c>
       <c r="C24" s="5">
@@ -18882,10 +18880,10 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
+      <c r="A25" s="6">
         <v>2</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="6">
         <v>5</v>
       </c>
       <c r="C25" s="5">
@@ -18911,10 +18909,10 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
+      <c r="A26" s="6">
         <v>2</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="6">
         <v>3</v>
       </c>
       <c r="C26" s="5">
@@ -18940,10 +18938,10 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="14">
+      <c r="A27" s="6">
         <v>3</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="6">
         <v>4</v>
       </c>
       <c r="C27" s="5">
@@ -18969,10 +18967,10 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="14">
+      <c r="A28" s="6">
         <v>4</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="6">
         <v>5</v>
       </c>
       <c r="C28" s="5">
@@ -18998,10 +18996,10 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="14">
+      <c r="A29" s="6">
         <v>5</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="6">
         <v>6</v>
       </c>
       <c r="C29" s="5">
@@ -19027,10 +19025,10 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="14">
+      <c r="A30" s="6">
         <v>6</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="6">
         <v>7</v>
       </c>
       <c r="C30" s="5">
@@ -19056,10 +19054,10 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="14">
+      <c r="A31" s="6">
         <v>9</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="6">
         <v>7</v>
       </c>
       <c r="C31" s="5">
@@ -19085,10 +19083,10 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="14">
+      <c r="A32" s="6">
         <v>9</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="6">
         <v>8</v>
       </c>
       <c r="C32" s="5">
@@ -19114,10 +19112,10 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
+      <c r="A33" s="6">
         <v>9</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="6">
         <v>22</v>
       </c>
       <c r="C33" s="5">
@@ -19143,10 +19141,10 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="14">
+      <c r="A34" s="6">
         <v>9</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="6">
         <v>21</v>
       </c>
       <c r="C34" s="5">
@@ -19166,10 +19164,10 @@
       <c r="N34" s="10"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="14">
+      <c r="A35" s="6">
         <v>9</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B35" s="6">
         <v>10</v>
       </c>
       <c r="C35" s="5">
@@ -19189,10 +19187,10 @@
       <c r="N35" s="10"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="14">
+      <c r="A36" s="6">
         <v>10</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="6">
         <v>21</v>
       </c>
       <c r="C36" s="5">
@@ -19212,10 +19210,10 @@
       <c r="N36" s="10"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="14">
+      <c r="A37" s="6">
         <v>10</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="6">
         <v>11</v>
       </c>
       <c r="C37" s="5">
@@ -19232,10 +19230,10 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="14">
+      <c r="A38" s="6">
         <v>11</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="6">
         <v>21</v>
       </c>
       <c r="C38" s="5">
@@ -19252,10 +19250,10 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="14">
+      <c r="A39" s="6">
         <v>11</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="6">
         <v>12</v>
       </c>
       <c r="C39" s="5">
@@ -19272,10 +19270,10 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="14">
+      <c r="A40" s="6">
         <v>12</v>
       </c>
-      <c r="B40" s="14">
+      <c r="B40" s="6">
         <v>21</v>
       </c>
       <c r="C40" s="5">
@@ -19292,10 +19290,10 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="14">
+      <c r="A41" s="6">
         <v>12</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B41" s="6">
         <v>13</v>
       </c>
       <c r="C41" s="5">
@@ -19312,10 +19310,10 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="14">
+      <c r="A42" s="6">
         <v>22</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="6">
         <v>21</v>
       </c>
       <c r="C42" s="5">
@@ -19332,10 +19330,10 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="14">
+      <c r="A43" s="6">
         <v>22</v>
       </c>
-      <c r="B43" s="14">
+      <c r="B43" s="6">
         <v>23</v>
       </c>
       <c r="C43" s="6">

--- a/Data/SPATIAL/spatial_data.xlsx
+++ b/Data/SPATIAL/spatial_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/STraM_ntnu_development/Data/SPATIAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="567" documentId="13_ncr:40009_{4547961E-2D41-42F0-85A9-82B80CE2B2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A117416F-FFEA-49A8-A333-9B015DED371F}"/>
+  <xr:revisionPtr revIDLastSave="583" documentId="13_ncr:40009_{4547961E-2D41-42F0-85A9-82B80CE2B2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD886941-457D-4B5D-A900-3277D664E97F}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="28800" windowHeight="23400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="28800" windowHeight="22170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="zone_mapping" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2913" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2918" uniqueCount="673">
   <si>
     <t>NGM_zone_nr</t>
   </si>
@@ -1988,9 +1988,6 @@
     <t>longitude</t>
   </si>
   <si>
-    <t>Horgaland</t>
-  </si>
-  <si>
     <t>lat_plot</t>
   </si>
   <si>
@@ -2064,6 +2061,21 @@
   </si>
   <si>
     <t>IMPORTED FROM ZONES STRAM</t>
+  </si>
+  <si>
+    <t>previously 2</t>
+  </si>
+  <si>
+    <t>previously 7</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>previously 6</t>
+  </si>
+  <si>
+    <t>No rail connection!!!</t>
   </si>
 </sst>
 </file>
@@ -2767,12 +2779,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H555" totalsRowShown="0">
-  <autoFilter ref="A1:H555" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I555" totalsRowShown="0">
+  <autoFilter ref="A1:I555" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H555">
     <sortCondition ref="H1:H555"/>
   </sortState>
-  <tableColumns count="8">
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NGM_zone_nr"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="NGM_zone_name"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="NTP_zone_nr"/>
@@ -2781,6 +2793,7 @@
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="County_zone_name"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="STRAM_zone_name"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="STRAM_zone_nr"/>
+    <tableColumn id="9" xr3:uid="{3AB0F912-8959-4583-9752-182AB8B46C25}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3115,10 +3128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H555"/>
+  <dimension ref="A1:I555"/>
   <sheetViews>
-    <sheetView topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="N221" sqref="N221"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3132,7 +3145,7 @@
     <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3157,8 +3170,11 @@
       <c r="H1" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>211</v>
       </c>
@@ -3184,7 +3200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>213</v>
       </c>
@@ -3210,7 +3226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>214</v>
       </c>
@@ -3236,7 +3252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>215</v>
       </c>
@@ -3262,7 +3278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>216</v>
       </c>
@@ -3288,7 +3304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>217</v>
       </c>
@@ -3314,7 +3330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>219</v>
       </c>
@@ -3340,7 +3356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>220</v>
       </c>
@@ -3366,7 +3382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>221</v>
       </c>
@@ -3392,7 +3408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>226</v>
       </c>
@@ -3418,7 +3434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>227</v>
       </c>
@@ -3444,7 +3460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>228</v>
       </c>
@@ -3470,7 +3486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>229</v>
       </c>
@@ -3496,7 +3512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>230</v>
       </c>
@@ -3522,7 +3538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>231</v>
       </c>
@@ -5212,7 +5228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>815</v>
       </c>
@@ -5238,7 +5254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>817</v>
       </c>
@@ -5264,7 +5280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>819</v>
       </c>
@@ -5290,7 +5306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>840</v>
       </c>
@@ -5316,7 +5332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>701</v>
       </c>
@@ -5342,7 +5358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>702</v>
       </c>
@@ -5368,7 +5384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>704</v>
       </c>
@@ -5394,7 +5410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2101</v>
       </c>
@@ -5420,7 +5436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>706</v>
       </c>
@@ -5446,7 +5462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>709</v>
       </c>
@@ -5472,7 +5488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>711</v>
       </c>
@@ -5495,10 +5511,13 @@
         <v>604</v>
       </c>
       <c r="H91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I91" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>713</v>
       </c>
@@ -5524,7 +5543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>714</v>
       </c>
@@ -5550,7 +5569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>716</v>
       </c>
@@ -5576,7 +5595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>719</v>
       </c>
@@ -5602,7 +5621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>720</v>
       </c>
@@ -8956,7 +8975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1432</v>
       </c>
@@ -8982,7 +9001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1433</v>
       </c>
@@ -9008,7 +9027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1438</v>
       </c>
@@ -9034,7 +9053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1439</v>
       </c>
@@ -9060,7 +9079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1441</v>
       </c>
@@ -9086,7 +9105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1443</v>
       </c>
@@ -9112,7 +9131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1444</v>
       </c>
@@ -9135,10 +9154,13 @@
         <v>610</v>
       </c>
       <c r="H231">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="I231" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1445</v>
       </c>
@@ -9164,7 +9186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1449</v>
       </c>
@@ -9190,7 +9212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1417</v>
       </c>
@@ -9216,7 +9238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1419</v>
       </c>
@@ -9242,7 +9264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1420</v>
       </c>
@@ -9268,7 +9290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1421</v>
       </c>
@@ -9294,7 +9316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1422</v>
       </c>
@@ -9320,7 +9342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1424</v>
       </c>
@@ -9346,7 +9368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1426</v>
       </c>
@@ -9372,7 +9394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1503</v>
       </c>
@@ -9398,7 +9420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1554</v>
       </c>
@@ -9424,7 +9446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1556</v>
       </c>
@@ -9450,7 +9472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1560</v>
       </c>
@@ -9476,7 +9498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1563</v>
       </c>
@@ -9502,7 +9524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1566</v>
       </c>
@@ -9528,7 +9550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1569</v>
       </c>
@@ -9554,7 +9576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1571</v>
       </c>
@@ -9577,10 +9599,13 @@
         <v>614</v>
       </c>
       <c r="H248">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I248" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1572</v>
       </c>
@@ -9606,7 +9631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1573</v>
       </c>
@@ -9632,7 +9657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1502</v>
       </c>
@@ -9658,7 +9683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1535</v>
       </c>
@@ -9684,7 +9709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1539</v>
       </c>
@@ -9710,7 +9735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1543</v>
       </c>
@@ -9736,7 +9761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1545</v>
       </c>
@@ -9762,7 +9787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1546</v>
       </c>
@@ -13786,7 +13811,7 @@
         <v>609</v>
       </c>
       <c r="G410" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H410">
         <v>11</v>
@@ -13812,7 +13837,7 @@
         <v>609</v>
       </c>
       <c r="G411" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H411">
         <v>11</v>
@@ -13838,7 +13863,7 @@
         <v>609</v>
       </c>
       <c r="G412" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H412">
         <v>11</v>
@@ -13864,7 +13889,7 @@
         <v>609</v>
       </c>
       <c r="G413" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H413">
         <v>11</v>
@@ -13890,7 +13915,7 @@
         <v>609</v>
       </c>
       <c r="G414" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H414">
         <v>11</v>
@@ -13916,7 +13941,7 @@
         <v>609</v>
       </c>
       <c r="G415" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H415">
         <v>11</v>
@@ -13942,7 +13967,7 @@
         <v>609</v>
       </c>
       <c r="G416" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H416">
         <v>11</v>
@@ -13968,7 +13993,7 @@
         <v>609</v>
       </c>
       <c r="G417" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H417">
         <v>11</v>
@@ -13994,7 +14019,7 @@
         <v>609</v>
       </c>
       <c r="G418" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H418">
         <v>11</v>
@@ -14020,7 +14045,7 @@
         <v>609</v>
       </c>
       <c r="G419" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H419">
         <v>11</v>
@@ -14046,7 +14071,7 @@
         <v>609</v>
       </c>
       <c r="G420" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H420">
         <v>11</v>
@@ -14072,7 +14097,7 @@
         <v>609</v>
       </c>
       <c r="G421" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H421">
         <v>11</v>
@@ -14098,7 +14123,7 @@
         <v>609</v>
       </c>
       <c r="G422" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H422">
         <v>11</v>
@@ -14124,7 +14149,7 @@
         <v>609</v>
       </c>
       <c r="G423" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H423">
         <v>11</v>
@@ -14150,7 +14175,7 @@
         <v>609</v>
       </c>
       <c r="G424" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H424">
         <v>11</v>
@@ -14176,7 +14201,7 @@
         <v>609</v>
       </c>
       <c r="G425" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H425">
         <v>11</v>
@@ -14202,7 +14227,7 @@
         <v>609</v>
       </c>
       <c r="G426" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H426">
         <v>11</v>
@@ -15450,7 +15475,7 @@
         <v>508</v>
       </c>
       <c r="G474" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H474">
         <v>21</v>
@@ -15476,7 +15501,7 @@
         <v>508</v>
       </c>
       <c r="G475" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H475">
         <v>21</v>
@@ -15502,7 +15527,7 @@
         <v>508</v>
       </c>
       <c r="G476" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H476">
         <v>21</v>
@@ -15528,7 +15553,7 @@
         <v>508</v>
       </c>
       <c r="G477" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H477">
         <v>21</v>
@@ -15554,7 +15579,7 @@
         <v>607</v>
       </c>
       <c r="G478" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H478">
         <v>22</v>
@@ -15580,7 +15605,7 @@
         <v>607</v>
       </c>
       <c r="G479" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H479">
         <v>22</v>
@@ -15606,7 +15631,7 @@
         <v>607</v>
       </c>
       <c r="G480" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H480">
         <v>22</v>
@@ -15632,7 +15657,7 @@
         <v>607</v>
       </c>
       <c r="G481" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H481">
         <v>22</v>
@@ -15658,7 +15683,7 @@
         <v>607</v>
       </c>
       <c r="G482" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H482">
         <v>22</v>
@@ -15684,7 +15709,7 @@
         <v>607</v>
       </c>
       <c r="G483" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H483">
         <v>22</v>
@@ -15710,7 +15735,7 @@
         <v>607</v>
       </c>
       <c r="G484" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H484">
         <v>22</v>
@@ -15736,7 +15761,7 @@
         <v>607</v>
       </c>
       <c r="G485" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H485">
         <v>22</v>
@@ -15762,7 +15787,7 @@
         <v>607</v>
       </c>
       <c r="G486" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H486">
         <v>22</v>
@@ -15788,7 +15813,7 @@
         <v>607</v>
       </c>
       <c r="G487" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H487">
         <v>22</v>
@@ -15814,7 +15839,7 @@
         <v>607</v>
       </c>
       <c r="G488" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H488">
         <v>22</v>
@@ -15840,7 +15865,7 @@
         <v>607</v>
       </c>
       <c r="G489" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H489">
         <v>22</v>
@@ -15866,7 +15891,7 @@
         <v>607</v>
       </c>
       <c r="G490" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H490">
         <v>22</v>
@@ -15892,7 +15917,7 @@
         <v>607</v>
       </c>
       <c r="G491" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H491">
         <v>22</v>
@@ -17270,7 +17295,7 @@
         <v>617</v>
       </c>
       <c r="G544" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H544">
         <v>24</v>
@@ -17296,7 +17321,7 @@
         <v>617</v>
       </c>
       <c r="G545" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H545">
         <v>24</v>
@@ -17322,7 +17347,7 @@
         <v>617</v>
       </c>
       <c r="G546" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H546">
         <v>24</v>
@@ -17348,7 +17373,7 @@
         <v>617</v>
       </c>
       <c r="G547" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H547">
         <v>24</v>
@@ -17374,7 +17399,7 @@
         <v>617</v>
       </c>
       <c r="G548" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H548">
         <v>24</v>
@@ -17400,7 +17425,7 @@
         <v>617</v>
       </c>
       <c r="G549" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H549">
         <v>24</v>
@@ -17426,7 +17451,7 @@
         <v>523</v>
       </c>
       <c r="G550" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H550">
         <v>25</v>
@@ -17452,7 +17477,7 @@
         <v>523</v>
       </c>
       <c r="G551" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H551">
         <v>25</v>
@@ -17478,7 +17503,7 @@
         <v>523</v>
       </c>
       <c r="G552" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H552">
         <v>25</v>
@@ -17504,7 +17529,7 @@
         <v>523</v>
       </c>
       <c r="G553" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H553">
         <v>25</v>
@@ -17530,7 +17555,7 @@
         <v>523</v>
       </c>
       <c r="G554" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H554">
         <v>25</v>
@@ -17556,7 +17581,7 @@
         <v>523</v>
       </c>
       <c r="G555" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H555">
         <v>25</v>
@@ -17575,8 +17600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5741E99B-737E-4634-B318-C7C2DDFE7401}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17607,25 +17632,25 @@
         <v>642</v>
       </c>
       <c r="F1" t="s">
+        <v>643</v>
+      </c>
+      <c r="G1" t="s">
         <v>644</v>
       </c>
-      <c r="G1" t="s">
-        <v>645</v>
-      </c>
       <c r="H1" t="s">
+        <v>658</v>
+      </c>
+      <c r="I1" t="s">
         <v>659</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>660</v>
       </c>
-      <c r="J1" t="s">
-        <v>661</v>
-      </c>
       <c r="K1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="M1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -17773,7 +17798,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>643</v>
+        <v>608</v>
       </c>
       <c r="C6" t="s">
         <v>258</v>
@@ -17832,10 +17857,13 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -17908,7 +17936,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -17986,7 +18014,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C12" t="s">
         <v>437</v>
@@ -18091,7 +18119,7 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C15" t="s">
         <v>519</v>
@@ -18126,7 +18154,7 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C16" t="s">
         <v>505</v>
@@ -18191,7 +18219,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -18199,10 +18227,10 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C18" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D18" s="4">
         <v>0</v>
@@ -18234,10 +18262,10 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C19" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D19" s="4">
         <v>59.13</v>
@@ -18278,7 +18306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A56265-210A-4263-A3EA-18E110BB8B83}">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -18295,13 +18323,13 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>655</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>656</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>627</v>
@@ -18310,7 +18338,7 @@
         <v>620</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>621</v>
@@ -18339,7 +18367,7 @@
         <v>150</v>
       </c>
       <c r="K2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -18562,7 +18590,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -18757,7 +18785,7 @@
         <v>5</v>
       </c>
       <c r="M20" s="10" t="str">
-        <v>Horgaland</v>
+        <v>Hordaland</v>
       </c>
       <c r="N20" s="10" t="str">
         <v>Bergen</v>
@@ -19504,7 +19532,7 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -19596,7 +19624,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -19642,10 +19670,10 @@
         <v>0</v>
       </c>
       <c r="H56" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="K56" t="s">
         <v>650</v>
-      </c>
-      <c r="K56" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -19668,10 +19696,10 @@
         <v>0</v>
       </c>
       <c r="H57" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="K57" t="s">
         <v>650</v>
-      </c>
-      <c r="K57" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">

--- a/Data/SPATIAL/spatial_data.xlsx
+++ b/Data/SPATIAL/spatial_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/STraM_ntnu_development/Data/SPATIAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="583" documentId="13_ncr:40009_{4547961E-2D41-42F0-85A9-82B80CE2B2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD886941-457D-4B5D-A900-3277D664E97F}"/>
+  <xr:revisionPtr revIDLastSave="604" documentId="13_ncr:40009_{4547961E-2D41-42F0-85A9-82B80CE2B2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A579C51D-C231-4D31-B930-1A166CE958D7}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="28800" windowHeight="22170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14745" yWindow="345" windowWidth="28800" windowHeight="22170" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="zone_mapping" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -17600,7 +17600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5741E99B-737E-4634-B318-C7C2DDFE7401}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -18306,8 +18306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A56265-210A-4263-A3EA-18E110BB8B83}">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18615,10 +18615,10 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
+        <v>21</v>
+      </c>
+      <c r="B15" s="8">
         <v>22</v>
-      </c>
-      <c r="B15" s="8">
-        <v>23</v>
       </c>
       <c r="C15" s="3">
         <v>550</v>
@@ -18631,9 +18631,6 @@
       </c>
       <c r="F15" s="3">
         <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>626</v>
       </c>
       <c r="L15" s="11" t="str" cm="1">
         <f t="array" ref="L15:N33">Table2[[#All],[zone_nr]:[centroid_name]]</f>
@@ -18648,13 +18645,13 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
+        <v>22</v>
+      </c>
+      <c r="B16" s="8">
         <v>23</v>
       </c>
-      <c r="B16" s="8">
-        <v>24</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0</v>
+      <c r="C16">
+        <v>1000</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>628</v>
@@ -18680,10 +18677,10 @@
         <v>23</v>
       </c>
       <c r="B17" s="8">
-        <v>22</v>
-      </c>
-      <c r="C17">
-        <v>1000</v>
+        <v>24</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>628</v>
@@ -18693,6 +18690,9 @@
       </c>
       <c r="F17" s="3">
         <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>626</v>
       </c>
       <c r="L17" s="10">
         <v>2</v>

--- a/Data/SPATIAL/spatial_data.xlsx
+++ b/Data/SPATIAL/spatial_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/STraM_ntnu_development/Data/SPATIAL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steffejb\OneDrive - NTNU\Work\GitHub\STraM_ntnu_development\Data\SPATIAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="604" documentId="13_ncr:40009_{4547961E-2D41-42F0-85A9-82B80CE2B2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A579C51D-C231-4D31-B930-1A166CE958D7}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{F74FBB8B-6408-4A75-B24C-CB2315E4B04F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BB88D83-FF5D-48CC-87BB-F4011D68107D}"/>
   <bookViews>
-    <workbookView xWindow="14745" yWindow="345" windowWidth="28800" windowHeight="22170" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14750" yWindow="350" windowWidth="28800" windowHeight="22170" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="zone_mapping" sheetId="1" r:id="rId1"/>
@@ -18,31 +18,18 @@
     <sheet name="distances_STRAM" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -57,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2918" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2915" uniqueCount="671">
   <si>
     <t>NGM_zone_nr</t>
   </si>
@@ -1937,9 +1924,6 @@
     <t>Tromsø</t>
   </si>
   <si>
-    <t>Old value: 19285</t>
-  </si>
-  <si>
     <t>Mode</t>
   </si>
   <si>
@@ -1949,12 +1933,6 @@
     <t>Road</t>
   </si>
   <si>
-    <t>NEW</t>
-  </si>
-  <si>
-    <t>bridge at Nyborg</t>
-  </si>
-  <si>
     <t>Oslo - Nordagutu</t>
   </si>
   <si>
@@ -2006,12 +1984,6 @@
     <t>Nordlandsbanen</t>
   </si>
   <si>
-    <t>NORD-NORGE BANEN</t>
-  </si>
-  <si>
-    <t>ikke bygd!</t>
-  </si>
-  <si>
     <t>Existing</t>
   </si>
   <si>
@@ -2076,13 +2048,22 @@
   </si>
   <si>
     <t>No rail connection!!!</t>
+  </si>
+  <si>
+    <t>NEW, bridge at Nyborg</t>
+  </si>
+  <si>
+    <t>NORD-NORGE BANEN, ikke bygd</t>
+  </si>
+  <si>
+    <t>If at zero, maybe some issue in code!      Old value: 19285</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2223,14 +2204,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2408,24 +2383,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9E2F3"/>
-        <bgColor rgb="FFD9E2F3"/>
       </patternFill>
     </fill>
     <fill>
@@ -2610,20 +2567,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -2670,61 +2621,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -2761,9 +2658,9 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Sea-style" pivot="0" count="3" xr9:uid="{64B454C8-5368-4842-84EC-7A548963DB48}">
-      <tableStyleElement type="headerRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="secondRowStripe" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="firstRowStripe" dxfId="4"/>
+      <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
     <tableStyle name="Table Style 1" pivot="0" count="0" xr9:uid="{BC15D182-A8D0-4031-B12C-B59991493C9F}"/>
   </tableStyles>
@@ -2781,7 +2678,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I555" totalsRowShown="0">
   <autoFilter ref="A1:I555" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H555">
+  <sortState ref="A2:H555">
     <sortCondition ref="H1:H555"/>
   </sortState>
   <tableColumns count="9">
@@ -2806,11 +2703,11 @@
     <tableColumn id="1" xr3:uid="{1C81FA9B-A218-428E-9D99-3B163735CDA7}" name="zone_nr"/>
     <tableColumn id="12" xr3:uid="{C7B62B9B-D78F-4C9E-B29E-294C62D5EDC3}" name="zone_name"/>
     <tableColumn id="3" xr3:uid="{196B5265-8D2C-4B69-AB32-943B448B9E5C}" name="centroid_name"/>
-    <tableColumn id="4" xr3:uid="{05F14AA4-9D3D-4304-9767-963D4BDC03AA}" name="latitude" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{7BA2B02B-7367-4F0D-8C7E-F38C69A86907}" name="longitude" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{05F14AA4-9D3D-4304-9767-963D4BDC03AA}" name="latitude" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{7BA2B02B-7367-4F0D-8C7E-F38C69A86907}" name="longitude" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{41D34A41-744D-4204-8648-41EC03E8E56D}" name="lat_plot"/>
     <tableColumn id="7" xr3:uid="{333D505E-B9BC-40FF-B8D7-3392CF9071F7}" name="long_plot"/>
-    <tableColumn id="9" xr3:uid="{7A896904-1AA1-49E3-AA10-DC110DDB4EFD}" name="sea" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{7A896904-1AA1-49E3-AA10-DC110DDB4EFD}" name="sea" dataDxfId="0"/>
     <tableColumn id="10" xr3:uid="{A8120715-6082-4E77-B245-67D3427B7A05}" name="road"/>
     <tableColumn id="11" xr3:uid="{428630F6-0BF6-4EC4-867C-53820282B7A4}" name="rail"/>
     <tableColumn id="8" xr3:uid="{4FA6CB03-F999-472D-A1FB-E00E603EAE1E}" name="abroad"/>
@@ -2820,14 +2717,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8A981A2D-970E-4047-9B1F-E017E4E1890A}" name="Table_1" displayName="Table_1" ref="C1:F60">
-  <tableColumns count="4">
-    <tableColumn id="3" xr3:uid="{2E3594F6-1493-4F41-9417-02AD3B85C1D3}" name="DistanceKM"/>
-    <tableColumn id="5" xr3:uid="{39BBD5E6-5709-4703-8D2C-2AF51853FAD6}" name="Mode" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{ECF48864-B09B-4D8C-AE0F-6FAD0ADA3614}" name="Route" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{E0688743-3C82-41D5-9DEC-1C8A146BEE3D}" name="Existing" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AEDD73BF-E41A-4EE7-85FC-107B35492075}" name="Table4" displayName="Table4" ref="A1:G60" totalsRowShown="0">
+  <autoFilter ref="A1:G60" xr:uid="{6D6305A7-A730-4DD3-8EBC-FBF0E1C256C3}"/>
+  <sortState ref="A2:G60">
+    <sortCondition ref="A1:A60"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{8A31FB3B-9B77-4817-8BFB-20D7FE420F9E}" name="From"/>
+    <tableColumn id="2" xr3:uid="{A49C989D-B7AA-4BC9-8226-DC7D50898317}" name="To"/>
+    <tableColumn id="3" xr3:uid="{77142D1D-12D0-47FD-9627-65D13D00AF20}" name="DistanceKM"/>
+    <tableColumn id="4" xr3:uid="{A894F13A-240A-4654-8169-F957062E56EA}" name="Mode"/>
+    <tableColumn id="5" xr3:uid="{32399E01-B060-43BC-93AB-661962EBA9EE}" name="Route"/>
+    <tableColumn id="6" xr3:uid="{4B88A546-1C27-49A2-8105-D63A2732FBB5}" name="Existing"/>
+    <tableColumn id="7" xr3:uid="{8FE09A00-B348-4EC6-BB21-A23C3707525D}" name="Comments"/>
   </tableColumns>
-  <tableStyleInfo name="Sea-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -3134,18 +3038,18 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="24.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="24.81640625" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3171,10 +3075,10 @@
         <v>619</v>
       </c>
       <c r="I1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>211</v>
       </c>
@@ -3200,7 +3104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>213</v>
       </c>
@@ -3226,7 +3130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>214</v>
       </c>
@@ -3252,7 +3156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>215</v>
       </c>
@@ -3278,7 +3182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>216</v>
       </c>
@@ -3304,7 +3208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>217</v>
       </c>
@@ -3330,7 +3234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>219</v>
       </c>
@@ -3356,7 +3260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>220</v>
       </c>
@@ -3382,7 +3286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>221</v>
       </c>
@@ -3408,7 +3312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>226</v>
       </c>
@@ -3434,7 +3338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>227</v>
       </c>
@@ -3460,7 +3364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>228</v>
       </c>
@@ -3486,7 +3390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>229</v>
       </c>
@@ -3512,7 +3416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>230</v>
       </c>
@@ -3538,7 +3442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>231</v>
       </c>
@@ -3564,7 +3468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>233</v>
       </c>
@@ -3590,7 +3494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>234</v>
       </c>
@@ -3616,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>235</v>
       </c>
@@ -3642,7 +3546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>236</v>
       </c>
@@ -3668,7 +3572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>237</v>
       </c>
@@ -3694,7 +3598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>238</v>
       </c>
@@ -3720,7 +3624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>239</v>
       </c>
@@ -3746,7 +3650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>301</v>
       </c>
@@ -3772,7 +3676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>302</v>
       </c>
@@ -3798,7 +3702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>303</v>
       </c>
@@ -3824,7 +3728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>304</v>
       </c>
@@ -3850,7 +3754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>305</v>
       </c>
@@ -3876,7 +3780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>306</v>
       </c>
@@ -3902,7 +3806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>307</v>
       </c>
@@ -3928,7 +3832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>308</v>
       </c>
@@ -3954,7 +3858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>309</v>
       </c>
@@ -3980,7 +3884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>310</v>
       </c>
@@ -4006,7 +3910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>311</v>
       </c>
@@ -4032,7 +3936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>312</v>
       </c>
@@ -4058,7 +3962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>602</v>
       </c>
@@ -4084,7 +3988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>604</v>
       </c>
@@ -4110,7 +4014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>624</v>
       </c>
@@ -4136,7 +4040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>625</v>
       </c>
@@ -4162,7 +4066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>626</v>
       </c>
@@ -4188,7 +4092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>627</v>
       </c>
@@ -4214,7 +4118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>628</v>
       </c>
@@ -4240,7 +4144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>631</v>
       </c>
@@ -4266,7 +4170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>632</v>
       </c>
@@ -4292,7 +4196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>633</v>
       </c>
@@ -4318,7 +4222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>532</v>
       </c>
@@ -4344,7 +4248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>533</v>
       </c>
@@ -4370,7 +4274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>615</v>
       </c>
@@ -4396,7 +4300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>616</v>
       </c>
@@ -4422,7 +4326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>617</v>
       </c>
@@ -4448,7 +4352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>618</v>
       </c>
@@ -4474,7 +4378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>619</v>
       </c>
@@ -4500,7 +4404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>620</v>
       </c>
@@ -4526,7 +4430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>118</v>
       </c>
@@ -4552,7 +4456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>119</v>
       </c>
@@ -4578,7 +4482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>121</v>
       </c>
@@ -4604,7 +4508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>122</v>
       </c>
@@ -4630,7 +4534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>123</v>
       </c>
@@ -4656,7 +4560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>124</v>
       </c>
@@ -4682,7 +4586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>125</v>
       </c>
@@ -4708,7 +4612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>127</v>
       </c>
@@ -4734,7 +4638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>128</v>
       </c>
@@ -4760,7 +4664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>138</v>
       </c>
@@ -4786,7 +4690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>605</v>
       </c>
@@ -4812,7 +4716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>612</v>
       </c>
@@ -4838,7 +4742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>621</v>
       </c>
@@ -4864,7 +4768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>622</v>
       </c>
@@ -4890,7 +4794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>623</v>
       </c>
@@ -4916,7 +4820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>101</v>
       </c>
@@ -4942,7 +4846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>104</v>
       </c>
@@ -4968,7 +4872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>105</v>
       </c>
@@ -4994,7 +4898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>106</v>
       </c>
@@ -5020,7 +4924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>111</v>
       </c>
@@ -5046,7 +4950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>135</v>
       </c>
@@ -5072,7 +4976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>136</v>
       </c>
@@ -5098,7 +5002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>137</v>
       </c>
@@ -5124,7 +5028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>805</v>
       </c>
@@ -5150,7 +5054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>806</v>
       </c>
@@ -5176,7 +5080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>811</v>
       </c>
@@ -5202,7 +5106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>814</v>
       </c>
@@ -5228,7 +5132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>815</v>
       </c>
@@ -5254,7 +5158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>817</v>
       </c>
@@ -5280,7 +5184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>819</v>
       </c>
@@ -5306,7 +5210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>840</v>
       </c>
@@ -5332,7 +5236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>701</v>
       </c>
@@ -5358,7 +5262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>702</v>
       </c>
@@ -5384,7 +5288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>704</v>
       </c>
@@ -5410,7 +5314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>2101</v>
       </c>
@@ -5436,7 +5340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>706</v>
       </c>
@@ -5462,7 +5366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>709</v>
       </c>
@@ -5488,7 +5392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>711</v>
       </c>
@@ -5514,10 +5418,10 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>713</v>
       </c>
@@ -5543,7 +5447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>714</v>
       </c>
@@ -5569,7 +5473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>716</v>
       </c>
@@ -5595,7 +5499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>719</v>
       </c>
@@ -5621,7 +5525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>720</v>
       </c>
@@ -5647,7 +5551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>722</v>
       </c>
@@ -5673,7 +5577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>723</v>
       </c>
@@ -5699,7 +5603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>728</v>
       </c>
@@ -5725,7 +5629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>807</v>
       </c>
@@ -5751,7 +5655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>821</v>
       </c>
@@ -5777,7 +5681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>822</v>
       </c>
@@ -5803,7 +5707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>826</v>
       </c>
@@ -5829,7 +5733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>827</v>
       </c>
@@ -5855,7 +5759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>828</v>
       </c>
@@ -5881,7 +5785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>829</v>
       </c>
@@ -5907,7 +5811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>830</v>
       </c>
@@ -5933,7 +5837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>831</v>
       </c>
@@ -5959,7 +5863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>833</v>
       </c>
@@ -5985,7 +5889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>834</v>
       </c>
@@ -6011,7 +5915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>901</v>
       </c>
@@ -6037,7 +5941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>904</v>
       </c>
@@ -6063,7 +5967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>906</v>
       </c>
@@ -6089,7 +5993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>911</v>
       </c>
@@ -6115,7 +6019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>912</v>
       </c>
@@ -6141,7 +6045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>914</v>
       </c>
@@ -6167,7 +6071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>919</v>
       </c>
@@ -6193,7 +6097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>926</v>
       </c>
@@ -6219,7 +6123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>928</v>
       </c>
@@ -6245,7 +6149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>929</v>
       </c>
@@ -6271,7 +6175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>935</v>
       </c>
@@ -6297,7 +6201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>937</v>
       </c>
@@ -6323,7 +6227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>938</v>
       </c>
@@ -6349,7 +6253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>940</v>
       </c>
@@ -6375,7 +6279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>941</v>
       </c>
@@ -6401,7 +6305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>1002</v>
       </c>
@@ -6427,7 +6331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>1003</v>
       </c>
@@ -6453,7 +6357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>1004</v>
       </c>
@@ -6479,7 +6383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>1014</v>
       </c>
@@ -6505,7 +6409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>1017</v>
       </c>
@@ -6531,7 +6435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>1018</v>
       </c>
@@ -6557,7 +6461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>1021</v>
       </c>
@@ -6583,7 +6487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>1026</v>
       </c>
@@ -6609,7 +6513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>1027</v>
       </c>
@@ -6635,7 +6539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>1029</v>
       </c>
@@ -6661,7 +6565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>1032</v>
       </c>
@@ -6687,7 +6591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>1034</v>
       </c>
@@ -6713,7 +6617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>1037</v>
       </c>
@@ -6739,7 +6643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>1046</v>
       </c>
@@ -6765,7 +6669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>1071</v>
       </c>
@@ -6791,7 +6695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>1072</v>
       </c>
@@ -6817,7 +6721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>1073</v>
       </c>
@@ -6843,7 +6747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>1074</v>
       </c>
@@ -6869,7 +6773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>1075</v>
       </c>
@@ -6895,7 +6799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>1101</v>
       </c>
@@ -6921,7 +6825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>1102</v>
       </c>
@@ -6947,7 +6851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>1111</v>
       </c>
@@ -6973,7 +6877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>1112</v>
       </c>
@@ -6999,7 +6903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>1114</v>
       </c>
@@ -7025,7 +6929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>1119</v>
       </c>
@@ -7051,7 +6955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>1120</v>
       </c>
@@ -7077,7 +6981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>1121</v>
       </c>
@@ -7103,7 +7007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>1122</v>
       </c>
@@ -7129,7 +7033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>1124</v>
       </c>
@@ -7155,7 +7059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>1127</v>
       </c>
@@ -7181,7 +7085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>1129</v>
       </c>
@@ -7207,7 +7111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>1130</v>
       </c>
@@ -7233,7 +7137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>1133</v>
       </c>
@@ -7259,7 +7163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>1141</v>
       </c>
@@ -7285,7 +7189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>1142</v>
       </c>
@@ -7311,7 +7215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>1144</v>
       </c>
@@ -7337,7 +7241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>1171</v>
       </c>
@@ -7363,7 +7267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>1172</v>
       </c>
@@ -7389,7 +7293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>1173</v>
       </c>
@@ -7415,7 +7319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>1174</v>
       </c>
@@ -7441,7 +7345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>1175</v>
       </c>
@@ -7467,7 +7371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>1106</v>
       </c>
@@ -7493,7 +7397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>1134</v>
       </c>
@@ -7519,7 +7423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>1135</v>
       </c>
@@ -7545,7 +7449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>1145</v>
       </c>
@@ -7571,7 +7475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>1146</v>
       </c>
@@ -7597,7 +7501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>1149</v>
       </c>
@@ -7623,7 +7527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>1151</v>
       </c>
@@ -7649,7 +7553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>1154</v>
       </c>
@@ -7675,7 +7579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>1159</v>
       </c>
@@ -7701,7 +7605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>1241</v>
       </c>
@@ -7727,7 +7631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>1242</v>
       </c>
@@ -7753,7 +7657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>1243</v>
       </c>
@@ -7779,7 +7683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>1244</v>
       </c>
@@ -7805,7 +7709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>1245</v>
       </c>
@@ -7831,7 +7735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>1246</v>
       </c>
@@ -7857,7 +7761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>1247</v>
       </c>
@@ -7883,7 +7787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>1253</v>
       </c>
@@ -7909,7 +7813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>1256</v>
       </c>
@@ -7935,7 +7839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>1259</v>
       </c>
@@ -7961,7 +7865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>1260</v>
       </c>
@@ -7987,7 +7891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>1263</v>
       </c>
@@ -8013,7 +7917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>1264</v>
       </c>
@@ -8039,7 +7943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>1265</v>
       </c>
@@ -8065,7 +7969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>1266</v>
       </c>
@@ -8091,7 +7995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>1271</v>
       </c>
@@ -8117,7 +8021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>1272</v>
       </c>
@@ -8143,7 +8047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>1273</v>
       </c>
@@ -8169,7 +8073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>1274</v>
       </c>
@@ -8195,7 +8099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>1275</v>
       </c>
@@ -8221,7 +8125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>1276</v>
       </c>
@@ -8247,7 +8151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>1277</v>
       </c>
@@ -8273,7 +8177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>1224</v>
       </c>
@@ -8299,7 +8203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>1227</v>
       </c>
@@ -8325,7 +8229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>1228</v>
       </c>
@@ -8351,7 +8255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>1231</v>
       </c>
@@ -8377,7 +8281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>1232</v>
       </c>
@@ -8403,7 +8307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>1238</v>
       </c>
@@ -8429,7 +8333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>1211</v>
       </c>
@@ -8455,7 +8359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>1216</v>
       </c>
@@ -8481,7 +8385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>1219</v>
       </c>
@@ -8507,7 +8411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>1221</v>
       </c>
@@ -8533,7 +8437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>1222</v>
       </c>
@@ -8559,7 +8463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>1223</v>
       </c>
@@ -8585,7 +8489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>1233</v>
       </c>
@@ -8611,7 +8515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>1234</v>
       </c>
@@ -8637,7 +8541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>1235</v>
       </c>
@@ -8663,7 +8567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>1251</v>
       </c>
@@ -8689,7 +8593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>1252</v>
       </c>
@@ -8715,7 +8619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>1401</v>
       </c>
@@ -8741,7 +8645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>1411</v>
       </c>
@@ -8767,7 +8671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>1412</v>
       </c>
@@ -8793,7 +8697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>1413</v>
       </c>
@@ -8819,7 +8723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>1416</v>
       </c>
@@ -8845,7 +8749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>1418</v>
       </c>
@@ -8871,7 +8775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>1428</v>
       </c>
@@ -8897,7 +8801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>1429</v>
       </c>
@@ -8923,7 +8827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>1430</v>
       </c>
@@ -8949,7 +8853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>1431</v>
       </c>
@@ -8975,7 +8879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>1432</v>
       </c>
@@ -9001,7 +8905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>1433</v>
       </c>
@@ -9027,7 +8931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>1438</v>
       </c>
@@ -9053,7 +8957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>1439</v>
       </c>
@@ -9079,7 +8983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>1441</v>
       </c>
@@ -9105,7 +9009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>1443</v>
       </c>
@@ -9131,7 +9035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>1444</v>
       </c>
@@ -9157,10 +9061,10 @@
         <v>7</v>
       </c>
       <c r="I231" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>1445</v>
       </c>
@@ -9186,7 +9090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>1449</v>
       </c>
@@ -9212,7 +9116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>1417</v>
       </c>
@@ -9238,7 +9142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>1419</v>
       </c>
@@ -9264,7 +9168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>1420</v>
       </c>
@@ -9290,7 +9194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>1421</v>
       </c>
@@ -9316,7 +9220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>1422</v>
       </c>
@@ -9342,7 +9246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>1424</v>
       </c>
@@ -9368,7 +9272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>1426</v>
       </c>
@@ -9394,7 +9298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>1503</v>
       </c>
@@ -9420,7 +9324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>1554</v>
       </c>
@@ -9446,7 +9350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>1556</v>
       </c>
@@ -9472,7 +9376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>1560</v>
       </c>
@@ -9498,7 +9402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>1563</v>
       </c>
@@ -9524,7 +9428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>1566</v>
       </c>
@@ -9550,7 +9454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>1569</v>
       </c>
@@ -9576,7 +9480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>1571</v>
       </c>
@@ -9602,10 +9506,10 @@
         <v>9</v>
       </c>
       <c r="I248" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>1572</v>
       </c>
@@ -9631,7 +9535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>1573</v>
       </c>
@@ -9657,7 +9561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>1502</v>
       </c>
@@ -9683,7 +9587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>1535</v>
       </c>
@@ -9709,7 +9613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>1539</v>
       </c>
@@ -9735,7 +9639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>1543</v>
       </c>
@@ -9761,7 +9665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>1545</v>
       </c>
@@ -9787,7 +9691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>1546</v>
       </c>
@@ -9813,7 +9717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>1547</v>
       </c>
@@ -9839,7 +9743,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>1548</v>
       </c>
@@ -9865,7 +9769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>1551</v>
       </c>
@@ -9891,7 +9795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>1557</v>
       </c>
@@ -9917,7 +9821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>1504</v>
       </c>
@@ -9943,7 +9847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>1511</v>
       </c>
@@ -9969,7 +9873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>1514</v>
       </c>
@@ -9995,7 +9899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>1515</v>
       </c>
@@ -10021,7 +9925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>1516</v>
       </c>
@@ -10047,7 +9951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>1517</v>
       </c>
@@ -10073,7 +9977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>1519</v>
       </c>
@@ -10099,7 +10003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>1520</v>
       </c>
@@ -10125,7 +10029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>1523</v>
       </c>
@@ -10151,7 +10055,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>1524</v>
       </c>
@@ -10177,7 +10081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>1525</v>
       </c>
@@ -10203,7 +10107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>1526</v>
       </c>
@@ -10229,7 +10133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>1528</v>
       </c>
@@ -10255,7 +10159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>1529</v>
       </c>
@@ -10281,7 +10185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>1531</v>
       </c>
@@ -10307,7 +10211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>1532</v>
       </c>
@@ -10333,7 +10237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>1534</v>
       </c>
@@ -10359,7 +10263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>402</v>
       </c>
@@ -10385,7 +10289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>418</v>
       </c>
@@ -10411,7 +10315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>419</v>
       </c>
@@ -10437,7 +10341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>420</v>
       </c>
@@ -10463,7 +10367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>423</v>
       </c>
@@ -10489,7 +10393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>425</v>
       </c>
@@ -10515,7 +10419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>426</v>
       </c>
@@ -10541,7 +10445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>511</v>
       </c>
@@ -10567,7 +10471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>512</v>
       </c>
@@ -10593,7 +10497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>513</v>
       </c>
@@ -10619,7 +10523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>514</v>
       </c>
@@ -10645,7 +10549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>515</v>
       </c>
@@ -10671,7 +10575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>516</v>
       </c>
@@ -10697,7 +10601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>517</v>
       </c>
@@ -10723,7 +10627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>519</v>
       </c>
@@ -10749,7 +10653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>520</v>
       </c>
@@ -10775,7 +10679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>534</v>
       </c>
@@ -10801,7 +10705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>403</v>
       </c>
@@ -10827,7 +10731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>412</v>
       </c>
@@ -10853,7 +10757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>415</v>
       </c>
@@ -10879,7 +10783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>417</v>
       </c>
@@ -10905,7 +10809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>427</v>
       </c>
@@ -10931,7 +10835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>501</v>
       </c>
@@ -10957,7 +10861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>502</v>
       </c>
@@ -10983,7 +10887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>521</v>
       </c>
@@ -11009,7 +10913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>522</v>
       </c>
@@ -11035,7 +10939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>528</v>
       </c>
@@ -11061,7 +10965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>529</v>
       </c>
@@ -11087,7 +10991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>536</v>
       </c>
@@ -11113,7 +11017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>538</v>
       </c>
@@ -11139,7 +11043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>540</v>
       </c>
@@ -11165,7 +11069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>541</v>
       </c>
@@ -11191,7 +11095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>542</v>
       </c>
@@ -11217,7 +11121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>543</v>
       </c>
@@ -11243,7 +11147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>544</v>
       </c>
@@ -11269,7 +11173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>545</v>
       </c>
@@ -11295,7 +11199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>428</v>
       </c>
@@ -11321,7 +11225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>429</v>
       </c>
@@ -11347,7 +11251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>430</v>
       </c>
@@ -11373,7 +11277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>432</v>
       </c>
@@ -11399,7 +11303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>434</v>
       </c>
@@ -11425,7 +11329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>436</v>
       </c>
@@ -11451,7 +11355,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>437</v>
       </c>
@@ -11477,7 +11381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>438</v>
       </c>
@@ -11503,7 +11407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>439</v>
       </c>
@@ -11529,7 +11433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>441</v>
       </c>
@@ -11555,7 +11459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>1621</v>
       </c>
@@ -11581,7 +11485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>1624</v>
       </c>
@@ -11607,7 +11511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>1627</v>
       </c>
@@ -11633,7 +11537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>1630</v>
       </c>
@@ -11659,7 +11563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>1632</v>
       </c>
@@ -11685,7 +11589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>1633</v>
       </c>
@@ -11711,7 +11615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>1567</v>
       </c>
@@ -11737,7 +11641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>1702</v>
       </c>
@@ -11763,7 +11667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>1703</v>
       </c>
@@ -11789,7 +11693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>1711</v>
       </c>
@@ -11815,7 +11719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>1714</v>
       </c>
@@ -11841,7 +11745,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>1717</v>
       </c>
@@ -11867,7 +11771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>1718</v>
       </c>
@@ -11893,7 +11797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>1719</v>
       </c>
@@ -11919,7 +11823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>1721</v>
       </c>
@@ -11945,7 +11849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>1723</v>
       </c>
@@ -11971,7 +11875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>1724</v>
       </c>
@@ -11997,7 +11901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>1725</v>
       </c>
@@ -12023,7 +11927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>1729</v>
       </c>
@@ -12049,7 +11953,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>1736</v>
       </c>
@@ -12075,7 +11979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>1738</v>
       </c>
@@ -12101,7 +12005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>1739</v>
       </c>
@@ -12127,7 +12031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>1740</v>
       </c>
@@ -12153,7 +12057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>1742</v>
       </c>
@@ -12179,7 +12083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>1743</v>
       </c>
@@ -12205,7 +12109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>1744</v>
       </c>
@@ -12231,7 +12135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>1748</v>
       </c>
@@ -12257,7 +12161,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>1749</v>
       </c>
@@ -12283,7 +12187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>1750</v>
       </c>
@@ -12309,7 +12213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>1751</v>
       </c>
@@ -12335,7 +12239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>1755</v>
       </c>
@@ -12361,7 +12265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>1612</v>
       </c>
@@ -12387,7 +12291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>1613</v>
       </c>
@@ -12413,7 +12317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>1617</v>
       </c>
@@ -12439,7 +12343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>1620</v>
       </c>
@@ -12465,7 +12369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>1622</v>
       </c>
@@ -12491,7 +12395,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>1634</v>
       </c>
@@ -12517,7 +12421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>1635</v>
       </c>
@@ -12543,7 +12447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>1636</v>
       </c>
@@ -12569,7 +12473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>1638</v>
       </c>
@@ -12595,7 +12499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>1640</v>
       </c>
@@ -12621,7 +12525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>1644</v>
       </c>
@@ -12647,7 +12551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>1648</v>
       </c>
@@ -12673,7 +12577,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>1653</v>
       </c>
@@ -12699,7 +12603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>1657</v>
       </c>
@@ -12725,7 +12629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>1662</v>
       </c>
@@ -12751,7 +12655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>1663</v>
       </c>
@@ -12777,7 +12681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>1664</v>
       </c>
@@ -12803,7 +12707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>1665</v>
       </c>
@@ -12829,7 +12733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>1671</v>
       </c>
@@ -12855,7 +12759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>1672</v>
       </c>
@@ -12881,7 +12785,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>1673</v>
       </c>
@@ -12907,7 +12811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>1674</v>
       </c>
@@ -12933,7 +12837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>1675</v>
       </c>
@@ -12959,7 +12863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>1676</v>
       </c>
@@ -12985,7 +12889,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>1677</v>
       </c>
@@ -13011,7 +12915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>1678</v>
       </c>
@@ -13037,7 +12941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>1811</v>
       </c>
@@ -13063,7 +12967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>1812</v>
       </c>
@@ -13089,7 +12993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>1813</v>
       </c>
@@ -13115,7 +13019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>1815</v>
       </c>
@@ -13141,7 +13045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>1816</v>
       </c>
@@ -13167,7 +13071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>1818</v>
       </c>
@@ -13193,7 +13097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>1820</v>
       </c>
@@ -13219,7 +13123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>1822</v>
       </c>
@@ -13245,7 +13149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>1824</v>
       </c>
@@ -13271,7 +13175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>1825</v>
       </c>
@@ -13297,7 +13201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>1826</v>
       </c>
@@ -13323,7 +13227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>1827</v>
       </c>
@@ -13349,7 +13253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>1828</v>
       </c>
@@ -13375,7 +13279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>1832</v>
       </c>
@@ -13401,7 +13305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>1833</v>
       </c>
@@ -13427,7 +13331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>1834</v>
       </c>
@@ -13453,7 +13357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>1835</v>
       </c>
@@ -13479,7 +13383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>1836</v>
       </c>
@@ -13505,7 +13409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>1880</v>
       </c>
@@ -13531,7 +13435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>1804</v>
       </c>
@@ -13557,7 +13461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>1837</v>
       </c>
@@ -13583,7 +13487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>1838</v>
       </c>
@@ -13609,7 +13513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>1839</v>
       </c>
@@ -13635,7 +13539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>1840</v>
       </c>
@@ -13661,7 +13565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>1841</v>
       </c>
@@ -13687,7 +13591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>1842</v>
       </c>
@@ -13713,7 +13617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>1845</v>
       </c>
@@ -13739,7 +13643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>1848</v>
       </c>
@@ -13765,7 +13669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>1849</v>
       </c>
@@ -13791,7 +13695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>1805</v>
       </c>
@@ -13811,13 +13715,13 @@
         <v>609</v>
       </c>
       <c r="G410" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="H410">
         <v>11</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>1850</v>
       </c>
@@ -13837,13 +13741,13 @@
         <v>609</v>
       </c>
       <c r="G411" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="H411">
         <v>11</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>1851</v>
       </c>
@@ -13863,13 +13767,13 @@
         <v>609</v>
       </c>
       <c r="G412" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="H412">
         <v>11</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>1852</v>
       </c>
@@ -13889,13 +13793,13 @@
         <v>609</v>
       </c>
       <c r="G413" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="H413">
         <v>11</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>1853</v>
       </c>
@@ -13915,13 +13819,13 @@
         <v>609</v>
       </c>
       <c r="G414" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="H414">
         <v>11</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A415">
         <v>1854</v>
       </c>
@@ -13941,13 +13845,13 @@
         <v>609</v>
       </c>
       <c r="G415" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="H415">
         <v>11</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A416">
         <v>1856</v>
       </c>
@@ -13967,13 +13871,13 @@
         <v>609</v>
       </c>
       <c r="G416" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="H416">
         <v>11</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A417">
         <v>1857</v>
       </c>
@@ -13993,13 +13897,13 @@
         <v>609</v>
       </c>
       <c r="G417" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="H417">
         <v>11</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A418">
         <v>1859</v>
       </c>
@@ -14019,13 +13923,13 @@
         <v>609</v>
       </c>
       <c r="G418" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="H418">
         <v>11</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A419">
         <v>1860</v>
       </c>
@@ -14045,13 +13949,13 @@
         <v>609</v>
       </c>
       <c r="G419" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="H419">
         <v>11</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A420">
         <v>1865</v>
       </c>
@@ -14071,13 +13975,13 @@
         <v>609</v>
       </c>
       <c r="G420" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="H420">
         <v>11</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A421">
         <v>1866</v>
       </c>
@@ -14097,13 +14001,13 @@
         <v>609</v>
       </c>
       <c r="G421" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="H421">
         <v>11</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A422">
         <v>1867</v>
       </c>
@@ -14123,13 +14027,13 @@
         <v>609</v>
       </c>
       <c r="G422" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="H422">
         <v>11</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A423">
         <v>1868</v>
       </c>
@@ -14149,13 +14053,13 @@
         <v>609</v>
       </c>
       <c r="G423" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="H423">
         <v>11</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A424">
         <v>1870</v>
       </c>
@@ -14175,13 +14079,13 @@
         <v>609</v>
       </c>
       <c r="G424" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="H424">
         <v>11</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A425">
         <v>1871</v>
       </c>
@@ -14201,13 +14105,13 @@
         <v>609</v>
       </c>
       <c r="G425" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="H425">
         <v>11</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A426">
         <v>1874</v>
       </c>
@@ -14227,13 +14131,13 @@
         <v>609</v>
       </c>
       <c r="G426" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="H426">
         <v>11</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A427">
         <v>1901</v>
       </c>
@@ -14259,7 +14163,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A428">
         <v>1911</v>
       </c>
@@ -14285,7 +14189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A429">
         <v>1913</v>
       </c>
@@ -14311,7 +14215,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A430">
         <v>1915</v>
       </c>
@@ -14337,7 +14241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A431">
         <v>1917</v>
       </c>
@@ -14363,7 +14267,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A432">
         <v>1919</v>
       </c>
@@ -14389,7 +14293,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A433">
         <v>1920</v>
       </c>
@@ -14415,7 +14319,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A434">
         <v>1922</v>
       </c>
@@ -14441,7 +14345,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A435">
         <v>1923</v>
       </c>
@@ -14467,7 +14371,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A436">
         <v>1924</v>
       </c>
@@ -14493,7 +14397,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A437">
         <v>1925</v>
       </c>
@@ -14519,7 +14423,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A438">
         <v>1926</v>
       </c>
@@ -14545,7 +14449,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A439">
         <v>1927</v>
       </c>
@@ -14571,7 +14475,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A440">
         <v>1928</v>
       </c>
@@ -14597,7 +14501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A441">
         <v>1929</v>
       </c>
@@ -14623,7 +14527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A442">
         <v>1931</v>
       </c>
@@ -14649,7 +14553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A443">
         <v>1933</v>
       </c>
@@ -14675,7 +14579,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A444">
         <v>1936</v>
       </c>
@@ -14701,7 +14605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A445">
         <v>1938</v>
       </c>
@@ -14727,7 +14631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A446">
         <v>1939</v>
       </c>
@@ -14753,7 +14657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A447">
         <v>1940</v>
       </c>
@@ -14779,7 +14683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A448">
         <v>1941</v>
       </c>
@@ -14805,7 +14709,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A449">
         <v>1942</v>
       </c>
@@ -14831,7 +14735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A450">
         <v>1943</v>
       </c>
@@ -14857,7 +14761,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A451">
         <v>1971</v>
       </c>
@@ -14883,7 +14787,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A452">
         <v>1972</v>
       </c>
@@ -14909,7 +14813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A453">
         <v>1973</v>
       </c>
@@ -14935,7 +14839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A454">
         <v>1974</v>
       </c>
@@ -14961,7 +14865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A455">
         <v>2004</v>
       </c>
@@ -14987,7 +14891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A456">
         <v>2011</v>
       </c>
@@ -15013,7 +14917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A457">
         <v>2012</v>
       </c>
@@ -15039,7 +14943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A458">
         <v>2014</v>
       </c>
@@ -15065,7 +14969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A459">
         <v>2015</v>
       </c>
@@ -15091,7 +14995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A460">
         <v>2017</v>
       </c>
@@ -15117,7 +15021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A461">
         <v>2018</v>
       </c>
@@ -15143,7 +15047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A462">
         <v>2019</v>
       </c>
@@ -15169,7 +15073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A463">
         <v>2020</v>
       </c>
@@ -15195,7 +15099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A464">
         <v>2021</v>
       </c>
@@ -15221,7 +15125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A465">
         <v>2002</v>
       </c>
@@ -15247,7 +15151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A466">
         <v>2003</v>
       </c>
@@ -15273,7 +15177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A467">
         <v>2022</v>
       </c>
@@ -15299,7 +15203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A468">
         <v>2023</v>
       </c>
@@ -15325,7 +15229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A469">
         <v>2024</v>
       </c>
@@ -15351,7 +15255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A470">
         <v>2025</v>
       </c>
@@ -15377,7 +15281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A471">
         <v>2027</v>
       </c>
@@ -15403,7 +15307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A472">
         <v>2028</v>
       </c>
@@ -15429,7 +15333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A473">
         <v>2030</v>
       </c>
@@ -15455,7 +15359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A474">
         <v>61</v>
       </c>
@@ -15475,13 +15379,13 @@
         <v>508</v>
       </c>
       <c r="G474" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="H474">
         <v>21</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A475">
         <v>62</v>
       </c>
@@ -15501,13 +15405,13 @@
         <v>508</v>
       </c>
       <c r="G475" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="H475">
         <v>21</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A476">
         <v>51</v>
       </c>
@@ -15527,13 +15431,13 @@
         <v>508</v>
       </c>
       <c r="G476" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="H476">
         <v>21</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A477">
         <v>53</v>
       </c>
@@ -15553,13 +15457,13 @@
         <v>508</v>
       </c>
       <c r="G477" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="H477">
         <v>21</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A478">
         <v>58</v>
       </c>
@@ -15579,13 +15483,13 @@
         <v>607</v>
       </c>
       <c r="G478" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="H478">
         <v>22</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A479">
         <v>52</v>
       </c>
@@ -15605,13 +15509,13 @@
         <v>607</v>
       </c>
       <c r="G479" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="H479">
         <v>22</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A480">
         <v>57</v>
       </c>
@@ -15631,13 +15535,13 @@
         <v>607</v>
       </c>
       <c r="G480" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="H480">
         <v>22</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A481">
         <v>59</v>
       </c>
@@ -15657,13 +15561,13 @@
         <v>607</v>
       </c>
       <c r="G481" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="H481">
         <v>22</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A482">
         <v>50</v>
       </c>
@@ -15683,13 +15587,13 @@
         <v>607</v>
       </c>
       <c r="G482" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="H482">
         <v>22</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A483">
         <v>54</v>
       </c>
@@ -15709,13 +15613,13 @@
         <v>607</v>
       </c>
       <c r="G483" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="H483">
         <v>22</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A484">
         <v>55</v>
       </c>
@@ -15735,13 +15639,13 @@
         <v>607</v>
       </c>
       <c r="G484" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="H484">
         <v>22</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A485">
         <v>56</v>
       </c>
@@ -15761,13 +15665,13 @@
         <v>607</v>
       </c>
       <c r="G485" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="H485">
         <v>22</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A486">
         <v>60</v>
       </c>
@@ -15787,13 +15691,13 @@
         <v>607</v>
       </c>
       <c r="G486" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="H486">
         <v>22</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A487">
         <v>5800</v>
       </c>
@@ -15813,13 +15717,13 @@
         <v>607</v>
       </c>
       <c r="G487" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="H487">
         <v>22</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A488">
         <v>5810</v>
       </c>
@@ -15839,13 +15743,13 @@
         <v>607</v>
       </c>
       <c r="G488" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="H488">
         <v>22</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A489">
         <v>5820</v>
       </c>
@@ -15865,13 +15769,13 @@
         <v>607</v>
       </c>
       <c r="G489" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="H489">
         <v>22</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A490">
         <v>5831</v>
       </c>
@@ -15891,13 +15795,13 @@
         <v>607</v>
       </c>
       <c r="G490" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="H490">
         <v>22</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A491">
         <v>5835</v>
       </c>
@@ -15917,13 +15821,13 @@
         <v>607</v>
       </c>
       <c r="G491" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="H491">
         <v>22</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A492">
         <v>3001</v>
       </c>
@@ -15949,7 +15853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A493">
         <v>3002</v>
       </c>
@@ -15975,7 +15879,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A494">
         <v>3003</v>
       </c>
@@ -16001,7 +15905,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A495">
         <v>4001</v>
       </c>
@@ -16027,7 +15931,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A496">
         <v>4002</v>
       </c>
@@ -16053,7 +15957,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A497">
         <v>4003</v>
       </c>
@@ -16079,7 +15983,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A498">
         <v>4004</v>
       </c>
@@ -16105,7 +16009,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A499">
         <v>4005</v>
       </c>
@@ -16131,7 +16035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A500">
         <v>5101</v>
       </c>
@@ -16157,7 +16061,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A501">
         <v>5102</v>
       </c>
@@ -16183,7 +16087,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A502">
         <v>5103</v>
       </c>
@@ -16209,7 +16113,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A503">
         <v>5104</v>
       </c>
@@ -16235,7 +16139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A504">
         <v>5105</v>
       </c>
@@ -16261,7 +16165,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A505">
         <v>5106</v>
       </c>
@@ -16287,7 +16191,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A506">
         <v>5201</v>
       </c>
@@ -16313,7 +16217,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A507">
         <v>5202</v>
       </c>
@@ -16339,7 +16243,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A508">
         <v>5203</v>
       </c>
@@ -16365,7 +16269,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A509">
         <v>5204</v>
       </c>
@@ -16391,7 +16295,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A510">
         <v>5302</v>
       </c>
@@ -16417,7 +16321,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A511">
         <v>5402</v>
       </c>
@@ -16443,7 +16347,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A512">
         <v>5403</v>
       </c>
@@ -16469,7 +16373,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A513">
         <v>5404</v>
       </c>
@@ -16495,7 +16399,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A514">
         <v>5501</v>
       </c>
@@ -16521,7 +16425,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A515">
         <v>5502</v>
       </c>
@@ -16547,7 +16451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A516">
         <v>5605</v>
       </c>
@@ -16573,7 +16477,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A517">
         <v>5606</v>
       </c>
@@ -16599,7 +16503,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A518">
         <v>5607</v>
       </c>
@@ -16625,7 +16529,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A519">
         <v>5700</v>
       </c>
@@ -16651,7 +16555,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A520">
         <v>5701</v>
       </c>
@@ -16677,7 +16581,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A521">
         <v>5710</v>
       </c>
@@ -16703,7 +16607,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A522">
         <v>5720</v>
       </c>
@@ -16729,7 +16633,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A523">
         <v>5730</v>
       </c>
@@ -16755,7 +16659,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A524">
         <v>5740</v>
       </c>
@@ -16781,7 +16685,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A525">
         <v>5750</v>
       </c>
@@ -16807,7 +16711,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A526">
         <v>5760</v>
       </c>
@@ -16833,7 +16737,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A527">
         <v>5770</v>
       </c>
@@ -16859,7 +16763,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A528">
         <v>5780</v>
       </c>
@@ -16885,7 +16789,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A529">
         <v>5790</v>
       </c>
@@ -16911,7 +16815,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A530">
         <v>5830</v>
       </c>
@@ -16937,7 +16841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A531">
         <v>5840</v>
       </c>
@@ -16963,7 +16867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A532">
         <v>5841</v>
       </c>
@@ -16989,7 +16893,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A533">
         <v>5842</v>
       </c>
@@ -17015,7 +16919,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A534">
         <v>5850</v>
       </c>
@@ -17041,7 +16945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A535">
         <v>5860</v>
       </c>
@@ -17067,7 +16971,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A536">
         <v>5870</v>
       </c>
@@ -17093,7 +16997,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A537">
         <v>5880</v>
       </c>
@@ -17119,7 +17023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A538">
         <v>5881</v>
       </c>
@@ -17145,7 +17049,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A539">
         <v>5890</v>
       </c>
@@ -17171,7 +17075,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A540">
         <v>5900</v>
       </c>
@@ -17197,7 +17101,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A541">
         <v>5910</v>
       </c>
@@ -17223,7 +17127,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A542">
         <v>5920</v>
       </c>
@@ -17249,7 +17153,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A543">
         <v>5930</v>
       </c>
@@ -17275,7 +17179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A544">
         <v>6000</v>
       </c>
@@ -17295,13 +17199,13 @@
         <v>617</v>
       </c>
       <c r="G544" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="H544">
         <v>24</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A545">
         <v>6010</v>
       </c>
@@ -17321,13 +17225,13 @@
         <v>617</v>
       </c>
       <c r="G545" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="H545">
         <v>24</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A546">
         <v>6020</v>
       </c>
@@ -17347,13 +17251,13 @@
         <v>617</v>
       </c>
       <c r="G546" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="H546">
         <v>24</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A547">
         <v>6030</v>
       </c>
@@ -17373,13 +17277,13 @@
         <v>617</v>
       </c>
       <c r="G547" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="H547">
         <v>24</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A548">
         <v>6040</v>
       </c>
@@ -17399,13 +17303,13 @@
         <v>617</v>
       </c>
       <c r="G548" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="H548">
         <v>24</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A549">
         <v>6050</v>
       </c>
@@ -17425,13 +17329,13 @@
         <v>617</v>
       </c>
       <c r="G549" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="H549">
         <v>24</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A550">
         <v>2301</v>
       </c>
@@ -17451,13 +17355,13 @@
         <v>523</v>
       </c>
       <c r="G550" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="H550">
         <v>25</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A551">
         <v>2302</v>
       </c>
@@ -17477,13 +17381,13 @@
         <v>523</v>
       </c>
       <c r="G551" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="H551">
         <v>25</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A552">
         <v>2303</v>
       </c>
@@ -17503,13 +17407,13 @@
         <v>523</v>
       </c>
       <c r="G552" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="H552">
         <v>25</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A553">
         <v>2304</v>
       </c>
@@ -17529,13 +17433,13 @@
         <v>523</v>
       </c>
       <c r="G553" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="H553">
         <v>25</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A554">
         <v>2305</v>
       </c>
@@ -17555,13 +17459,13 @@
         <v>523</v>
       </c>
       <c r="G554" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="H554">
         <v>25</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A555">
         <v>2306</v>
       </c>
@@ -17581,7 +17485,7 @@
         <v>523</v>
       </c>
       <c r="G555" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="H555">
         <v>25</v>
@@ -17604,56 +17508,56 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="6.28515625" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6.26953125" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D1" t="s">
         <v>638</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>639</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>640</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>641</v>
       </c>
-      <c r="E1" t="s">
-        <v>642</v>
-      </c>
-      <c r="F1" t="s">
-        <v>643</v>
-      </c>
-      <c r="G1" t="s">
-        <v>644</v>
-      </c>
       <c r="H1" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="I1" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="J1" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="K1" t="s">
+        <v>647</v>
+      </c>
+      <c r="M1" t="s">
         <v>652</v>
       </c>
-      <c r="M1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17688,7 +17592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -17723,7 +17627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -17758,7 +17662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -17793,7 +17697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -17828,7 +17732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -17863,10 +17767,10 @@
         <v>0</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -17901,7 +17805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -17936,10 +17840,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -17974,7 +17878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -18009,12 +17913,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="C12" t="s">
         <v>437</v>
@@ -18044,7 +17948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -18079,7 +17983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -18114,12 +18018,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="C15" t="s">
         <v>519</v>
@@ -18149,12 +18053,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="C16" t="s">
         <v>505</v>
@@ -18184,7 +18088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>23</v>
       </c>
@@ -18219,18 +18123,18 @@
         <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="C18" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="D18" s="4">
         <v>0</v>
@@ -18257,15 +18161,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="C19" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D19" s="4">
         <v>59.13</v>
@@ -18306,119 +18210,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A56265-210A-4263-A3EA-18E110BB8B83}">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" customWidth="1"/>
-    <col min="13" max="13" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.81640625" customWidth="1"/>
+    <col min="13" max="13" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>654</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>655</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="E1" s="3" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C1" t="s">
+        <v>648</v>
+      </c>
+      <c r="D1" t="s">
+        <v>626</v>
+      </c>
+      <c r="E1" t="s">
         <v>620</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="F1" t="s">
+        <v>646</v>
+      </c>
+      <c r="G1" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
-        <v>177</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>150</v>
+      <c r="C2">
+        <v>146</v>
+      </c>
+      <c r="D2" t="s">
+        <v>634</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>629</v>
       </c>
       <c r="K2" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>3</v>
-      </c>
-      <c r="B3" s="8">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>506</v>
+      </c>
+      <c r="D3" t="s">
+        <v>634</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>805</v>
+      </c>
+      <c r="D4" t="s">
+        <v>634</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
-        <v>180</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8">
-        <v>23</v>
-      </c>
-      <c r="C4" s="3">
-        <v>580</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3">
-        <v>250</v>
+      <c r="C5">
+        <v>132</v>
       </c>
       <c r="D5" t="s">
         <v>628</v>
@@ -18426,19 +18334,19 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8">
-        <v>25</v>
-      </c>
-      <c r="C6" s="3">
-        <v>210</v>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>514</v>
       </c>
       <c r="D6" t="s">
         <v>628</v>
@@ -18446,19 +18354,19 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3">
-        <v>190</v>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>527</v>
       </c>
       <c r="D7" t="s">
         <v>628</v>
@@ -18466,19 +18374,19 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>5</v>
-      </c>
-      <c r="B8" s="8">
-        <v>6</v>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>23</v>
       </c>
       <c r="C8">
-        <v>185</v>
+        <v>814</v>
       </c>
       <c r="D8" t="s">
         <v>628</v>
@@ -18486,59 +18394,65 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>6</v>
-      </c>
-      <c r="B9" s="8">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3">
-        <v>195</v>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>177</v>
       </c>
       <c r="D9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3">
-        <v>270</v>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>219</v>
       </c>
       <c r="D10" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>9</v>
-      </c>
-      <c r="B11" s="8">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3">
-        <v>530</v>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>179</v>
       </c>
       <c r="D11" t="s">
         <v>628</v>
@@ -18546,1224 +18460,1203 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>10</v>
-      </c>
-      <c r="B12" s="8">
-        <v>11</v>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>205</v>
-      </c>
-      <c r="D12" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D12" t="s">
         <v>628</v>
       </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>10</v>
-      </c>
-      <c r="B13" s="8">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3">
-        <v>450</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>233</v>
+      </c>
+      <c r="D13" t="s">
+        <v>634</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>233</v>
+      </c>
+      <c r="D14" t="s">
         <v>628</v>
       </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>12</v>
-      </c>
-      <c r="B14" s="8">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3">
-        <v>265</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>21</v>
-      </c>
-      <c r="B15" s="8">
-        <v>22</v>
-      </c>
-      <c r="C15" s="3">
-        <v>550</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="L15" s="11" t="str" cm="1">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>180</v>
+      </c>
+      <c r="D15" t="s">
+        <v>627</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="L15" s="6" t="str" cm="1">
         <f t="array" ref="L15:N33">Table2[[#All],[zone_nr]:[centroid_name]]</f>
         <v>zone_nr</v>
       </c>
-      <c r="M15" s="11" t="str">
+      <c r="M15" s="6" t="str">
         <v>zone_name</v>
       </c>
-      <c r="N15" s="11" t="str">
+      <c r="N15" s="6" t="str">
         <v>centroid_name</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>23</v>
+      </c>
+      <c r="C16">
+        <v>580</v>
+      </c>
+      <c r="D16" t="s">
+        <v>627</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="L16" s="5">
+        <v>1</v>
+      </c>
+      <c r="M16" s="5" t="str">
+        <v>Viken</v>
+      </c>
+      <c r="N16" s="5" t="str">
+        <v>Oslo</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>210</v>
+      </c>
+      <c r="D17" t="s">
+        <v>628</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5">
+        <v>2</v>
+      </c>
+      <c r="M17" s="5" t="str">
+        <v>Vestfold og Telemark</v>
+      </c>
+      <c r="N17" s="5" t="str">
+        <v>Skien</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>250</v>
+      </c>
+      <c r="D18" t="s">
+        <v>627</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="L18" s="5">
+        <v>3</v>
+      </c>
+      <c r="M18" s="5" t="str">
+        <v>Agder</v>
+      </c>
+      <c r="N18" s="5" t="str">
+        <v>Kristiansand</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>210</v>
+      </c>
+      <c r="D19" t="s">
+        <v>627</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="L19" s="5">
+        <v>4</v>
+      </c>
+      <c r="M19" s="5" t="str">
+        <v>Rogaland</v>
+      </c>
+      <c r="N19" s="5" t="str">
+        <v>Stavanger</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>175</v>
+      </c>
+      <c r="D20" t="s">
+        <v>628</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="L20" s="5">
+        <v>5</v>
+      </c>
+      <c r="M20" s="5" t="str">
+        <v>Hordaland</v>
+      </c>
+      <c r="N20" s="5" t="str">
+        <v>Bergen</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>190</v>
+      </c>
+      <c r="D21" t="s">
+        <v>627</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="L21" s="5">
+        <v>6</v>
+      </c>
+      <c r="M21" s="5" t="str">
+        <v>Sogn og Fjordane</v>
+      </c>
+      <c r="N21" s="5" t="str">
+        <v>Førde</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>185</v>
+      </c>
+      <c r="D22" t="s">
+        <v>627</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="L22" s="5">
+        <v>7</v>
+      </c>
+      <c r="M22" s="5" t="str">
+        <v>Møre og Romsdal</v>
+      </c>
+      <c r="N22" s="5" t="str">
+        <v>Ålesund</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>247</v>
+      </c>
+      <c r="D23" t="s">
+        <v>628</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="L23" s="5">
+        <v>8</v>
+      </c>
+      <c r="M23" s="5" t="str">
+        <v>Innlandet</v>
+      </c>
+      <c r="N23" s="5" t="str">
+        <v>Hamar</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>195</v>
+      </c>
+      <c r="D24" t="s">
+        <v>627</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="L24" s="5">
+        <v>9</v>
+      </c>
+      <c r="M24" s="5" t="str">
+        <v>Trøndelag</v>
+      </c>
+      <c r="N24" s="5" t="str">
+        <v>Trondheim</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>126</v>
+      </c>
+      <c r="D25" t="s">
+        <v>634</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="L25" s="5">
+        <v>10</v>
+      </c>
+      <c r="M25" s="5" t="str">
+        <v>Nordland</v>
+      </c>
+      <c r="N25" s="5" t="str">
+        <v>Bodø</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>126</v>
+      </c>
+      <c r="D26" t="s">
+        <v>628</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="L26" s="5">
+        <v>11</v>
+      </c>
+      <c r="M26" s="5" t="str">
+        <v>(L)Ofoten og Vesterålen</v>
+      </c>
+      <c r="N26" s="5" t="str">
+        <v>Narvik</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>330</v>
+      </c>
+      <c r="D27" t="s">
+        <v>634</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>644</v>
+      </c>
+      <c r="L27" s="5">
+        <v>12</v>
+      </c>
+      <c r="M27" s="5" t="str">
+        <v>Troms</v>
+      </c>
+      <c r="N27" s="5" t="str">
+        <v>Tromsø</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>426</v>
+      </c>
+      <c r="D28" t="s">
+        <v>634</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L28" s="5">
+        <v>13</v>
+      </c>
+      <c r="M28" s="5" t="str">
+        <v>Finnmark</v>
+      </c>
+      <c r="N28" s="5" t="str">
+        <v>Alta</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>436</v>
+      </c>
+      <c r="D29" t="s">
+        <v>634</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="L29" s="5">
+        <v>21</v>
+      </c>
+      <c r="M29" s="5" t="str">
+        <v>North Sweden</v>
+      </c>
+      <c r="N29" s="5" t="str">
+        <v>Umeå</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30">
         <v>22</v>
       </c>
-      <c r="B16" s="8">
+      <c r="C30">
+        <v>550</v>
+      </c>
+      <c r="D30" t="s">
+        <v>634</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="L30" s="5">
+        <v>22</v>
+      </c>
+      <c r="M30" s="5" t="str">
+        <v>South Sweden</v>
+      </c>
+      <c r="N30" s="5" t="str">
+        <v>Stockholm</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>422</v>
+      </c>
+      <c r="D31" t="s">
+        <v>628</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="L31" s="5">
         <v>23</v>
       </c>
-      <c r="C16">
+      <c r="M31" s="5" t="str">
+        <v>Europe</v>
+      </c>
+      <c r="N31" s="5" t="str">
+        <v>Hamburg</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>22</v>
+      </c>
+      <c r="C32">
+        <v>559</v>
+      </c>
+      <c r="D32" t="s">
+        <v>628</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="L32" s="5">
+        <v>24</v>
+      </c>
+      <c r="M32" s="5" t="str">
+        <v>World</v>
+      </c>
+      <c r="N32" s="5" t="str">
+        <v>World</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>381</v>
+      </c>
+      <c r="D33" t="s">
+        <v>628</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="L33" s="5">
+        <v>25</v>
+      </c>
+      <c r="M33" s="5" t="str">
+        <v>Continental shelf</v>
+      </c>
+      <c r="N33" s="5" t="str">
+        <v>JohanSverdrupPlatform</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>729</v>
+      </c>
+      <c r="D34" t="s">
+        <v>634</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>645</v>
+      </c>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>21</v>
+      </c>
+      <c r="C35">
+        <v>560</v>
+      </c>
+      <c r="D35" t="s">
+        <v>634</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>299</v>
+      </c>
+      <c r="D36" t="s">
+        <v>628</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>701</v>
+      </c>
+      <c r="D37" t="s">
+        <v>628</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>9</v>
+      </c>
+      <c r="B38">
+        <v>21</v>
+      </c>
+      <c r="C38">
+        <v>623</v>
+      </c>
+      <c r="D38" t="s">
+        <v>628</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>22</v>
+      </c>
+      <c r="C39">
+        <v>776</v>
+      </c>
+      <c r="D39" t="s">
+        <v>628</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>270</v>
+      </c>
+      <c r="D40" t="s">
+        <v>627</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>530</v>
+      </c>
+      <c r="D41" t="s">
+        <v>627</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>300</v>
+      </c>
+      <c r="D42" t="s">
+        <v>634</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>300</v>
+      </c>
+      <c r="D43" t="s">
+        <v>628</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>21</v>
+      </c>
+      <c r="C44">
+        <v>591</v>
+      </c>
+      <c r="D44" t="s">
+        <v>628</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>10</v>
+      </c>
+      <c r="B45">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <v>205</v>
+      </c>
+      <c r="D45" t="s">
+        <v>627</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>10</v>
+      </c>
+      <c r="B46">
+        <v>12</v>
+      </c>
+      <c r="C46">
+        <v>450</v>
+      </c>
+      <c r="D46" t="s">
+        <v>627</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>11</v>
+      </c>
+      <c r="B47">
+        <v>12</v>
+      </c>
+      <c r="C47">
+        <v>230</v>
+      </c>
+      <c r="D47" t="s">
+        <v>634</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>11</v>
+      </c>
+      <c r="B48">
+        <v>21</v>
+      </c>
+      <c r="C48">
+        <v>529</v>
+      </c>
+      <c r="D48" t="s">
+        <v>634</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>11</v>
+      </c>
+      <c r="B49">
+        <v>12</v>
+      </c>
+      <c r="C49">
+        <v>232</v>
+      </c>
+      <c r="D49" t="s">
+        <v>628</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>11</v>
+      </c>
+      <c r="B50">
+        <v>21</v>
+      </c>
+      <c r="C50">
+        <v>769</v>
+      </c>
+      <c r="D50" t="s">
+        <v>628</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>12</v>
+      </c>
+      <c r="B51">
+        <v>13</v>
+      </c>
+      <c r="C51">
+        <v>381</v>
+      </c>
+      <c r="D51" t="s">
+        <v>628</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>12</v>
+      </c>
+      <c r="B52">
+        <v>21</v>
+      </c>
+      <c r="C52">
+        <v>934</v>
+      </c>
+      <c r="D52" t="s">
+        <v>628</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>12</v>
+      </c>
+      <c r="B53">
+        <v>13</v>
+      </c>
+      <c r="C53">
+        <v>265</v>
+      </c>
+      <c r="D53" t="s">
+        <v>627</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>21</v>
+      </c>
+      <c r="B54">
+        <v>22</v>
+      </c>
+      <c r="C54">
+        <v>550</v>
+      </c>
+      <c r="D54" t="s">
+        <v>627</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>22</v>
+      </c>
+      <c r="B55">
+        <v>21</v>
+      </c>
+      <c r="C55">
+        <v>650</v>
+      </c>
+      <c r="D55" t="s">
+        <v>634</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>22</v>
+      </c>
+      <c r="B56">
+        <v>23</v>
+      </c>
+      <c r="C56">
+        <v>1118</v>
+      </c>
+      <c r="D56" t="s">
+        <v>634</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>22</v>
+      </c>
+      <c r="B57">
+        <v>21</v>
+      </c>
+      <c r="C57">
+        <v>637</v>
+      </c>
+      <c r="D57" t="s">
+        <v>628</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>22</v>
+      </c>
+      <c r="B58">
+        <v>23</v>
+      </c>
+      <c r="C58">
+        <v>1118</v>
+      </c>
+      <c r="D58" t="s">
+        <v>628</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>22</v>
+      </c>
+      <c r="B59">
+        <v>23</v>
+      </c>
+      <c r="C59">
         <v>1000</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="L16" s="10">
-        <v>1</v>
-      </c>
-      <c r="M16" s="10" t="str">
-        <v>Viken</v>
-      </c>
-      <c r="N16" s="10" t="str">
-        <v>Oslo</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="D59" t="s">
+        <v>627</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60">
         <v>23</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B60">
         <v>24</v>
       </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
-        <v>626</v>
-      </c>
-      <c r="L17" s="10">
-        <v>2</v>
-      </c>
-      <c r="M17" s="10" t="str">
-        <v>Vestfold og Telemark</v>
-      </c>
-      <c r="N17" s="10" t="str">
-        <v>Skien</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>8</v>
-      </c>
-      <c r="B18" s="6">
-        <v>22</v>
-      </c>
-      <c r="C18" s="5">
-        <v>559</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
-      <c r="F18" s="6">
-        <v>1</v>
-      </c>
-      <c r="L18" s="10">
-        <v>3</v>
-      </c>
-      <c r="M18" s="10" t="str">
-        <v>Agder</v>
-      </c>
-      <c r="N18" s="10" t="str">
-        <v>Kristiansand</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>8</v>
-      </c>
-      <c r="B19" s="6">
-        <v>7</v>
-      </c>
-      <c r="C19" s="5">
-        <v>422</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
-      <c r="F19" s="6">
-        <v>1</v>
-      </c>
-      <c r="L19" s="10">
-        <v>4</v>
-      </c>
-      <c r="M19" s="10" t="str">
-        <v>Rogaland</v>
-      </c>
-      <c r="N19" s="10" t="str">
-        <v>Stavanger</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>1</v>
-      </c>
-      <c r="B20" s="6">
-        <v>8</v>
-      </c>
-      <c r="C20" s="5">
-        <v>126</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="E20" s="6">
-        <v>1</v>
-      </c>
-      <c r="F20" s="6">
-        <v>1</v>
-      </c>
-      <c r="L20" s="10">
-        <v>5</v>
-      </c>
-      <c r="M20" s="10" t="str">
-        <v>Hordaland</v>
-      </c>
-      <c r="N20" s="10" t="str">
-        <v>Bergen</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>1</v>
-      </c>
-      <c r="B21" s="6">
-        <v>5</v>
-      </c>
-      <c r="C21" s="5">
-        <v>514</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1</v>
-      </c>
-      <c r="F21" s="6">
-        <v>1</v>
-      </c>
-      <c r="L21" s="10">
-        <v>6</v>
-      </c>
-      <c r="M21" s="10" t="str">
-        <v>Sogn og Fjordane</v>
-      </c>
-      <c r="N21" s="10" t="str">
-        <v>Førde</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>1</v>
-      </c>
-      <c r="B22" s="6">
-        <v>22</v>
-      </c>
-      <c r="C22" s="5">
-        <v>527</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-      <c r="F22" s="6">
-        <v>1</v>
-      </c>
-      <c r="L22" s="10">
-        <v>7</v>
-      </c>
-      <c r="M22" s="10" t="str">
-        <v>Møre og Romsdal</v>
-      </c>
-      <c r="N22" s="10" t="str">
-        <v>Ålesund</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>1</v>
-      </c>
-      <c r="B23" s="6">
-        <v>23</v>
-      </c>
-      <c r="C23" s="5">
-        <v>814</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="E23" s="6">
-        <v>1</v>
-      </c>
-      <c r="F23" s="6">
-        <v>1</v>
-      </c>
-      <c r="L23" s="10">
-        <v>8</v>
-      </c>
-      <c r="M23" s="10" t="str">
-        <v>Innlandet</v>
-      </c>
-      <c r="N23" s="10" t="str">
-        <v>Hamar</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>1</v>
-      </c>
-      <c r="B24" s="6">
-        <v>2</v>
-      </c>
-      <c r="C24" s="5">
-        <v>132</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="E24" s="6">
-        <v>1</v>
-      </c>
-      <c r="F24" s="6">
-        <v>1</v>
-      </c>
-      <c r="L24" s="10">
-        <v>9</v>
-      </c>
-      <c r="M24" s="10" t="str">
-        <v>Trøndelag</v>
-      </c>
-      <c r="N24" s="10" t="str">
-        <v>Trondheim</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>2</v>
-      </c>
-      <c r="B25" s="6">
-        <v>5</v>
-      </c>
-      <c r="C25" s="5">
-        <v>400</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="E25" s="6">
-        <v>1</v>
-      </c>
-      <c r="F25" s="6">
-        <v>1</v>
-      </c>
-      <c r="L25" s="10">
-        <v>10</v>
-      </c>
-      <c r="M25" s="10" t="str">
-        <v>Nordland</v>
-      </c>
-      <c r="N25" s="10" t="str">
-        <v>Bodø</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>2</v>
-      </c>
-      <c r="B26" s="6">
-        <v>3</v>
-      </c>
-      <c r="C26" s="5">
-        <v>179</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="E26" s="6">
-        <v>1</v>
-      </c>
-      <c r="F26" s="6">
-        <v>1</v>
-      </c>
-      <c r="L26" s="10">
-        <v>11</v>
-      </c>
-      <c r="M26" s="10" t="str">
-        <v>(L)Ofoten og Vesterålen</v>
-      </c>
-      <c r="N26" s="10" t="str">
-        <v>Narvik</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>3</v>
-      </c>
-      <c r="B27" s="6">
-        <v>4</v>
-      </c>
-      <c r="C27" s="5">
-        <v>233</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="E27" s="6">
-        <v>1</v>
-      </c>
-      <c r="F27" s="6">
-        <v>1</v>
-      </c>
-      <c r="L27" s="10">
-        <v>12</v>
-      </c>
-      <c r="M27" s="10" t="str">
-        <v>Troms</v>
-      </c>
-      <c r="N27" s="10" t="str">
-        <v>Tromsø</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>4</v>
-      </c>
-      <c r="B28" s="6">
-        <v>5</v>
-      </c>
-      <c r="C28" s="5">
-        <v>210</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="E28" s="6">
-        <v>1</v>
-      </c>
-      <c r="F28" s="6">
-        <v>1</v>
-      </c>
-      <c r="L28" s="10">
-        <v>13</v>
-      </c>
-      <c r="M28" s="10" t="str">
-        <v>Finnmark</v>
-      </c>
-      <c r="N28" s="10" t="str">
-        <v>Alta</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>5</v>
-      </c>
-      <c r="B29" s="6">
-        <v>6</v>
-      </c>
-      <c r="C29" s="5">
-        <v>175</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="E29" s="6">
-        <v>1</v>
-      </c>
-      <c r="F29" s="6">
-        <v>1</v>
-      </c>
-      <c r="L29" s="10">
-        <v>21</v>
-      </c>
-      <c r="M29" s="10" t="str">
-        <v>North Sweden</v>
-      </c>
-      <c r="N29" s="10" t="str">
-        <v>Umeå</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>6</v>
-      </c>
-      <c r="B30" s="6">
-        <v>7</v>
-      </c>
-      <c r="C30" s="5">
-        <v>247</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="E30" s="6">
-        <v>1</v>
-      </c>
-      <c r="F30" s="6">
-        <v>1</v>
-      </c>
-      <c r="L30" s="10">
-        <v>22</v>
-      </c>
-      <c r="M30" s="10" t="str">
-        <v>South Sweden</v>
-      </c>
-      <c r="N30" s="10" t="str">
-        <v>Stockholm</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <v>9</v>
-      </c>
-      <c r="B31" s="6">
-        <v>7</v>
-      </c>
-      <c r="C31" s="5">
-        <v>299</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="E31" s="6">
-        <v>1</v>
-      </c>
-      <c r="F31" s="6">
-        <v>1</v>
-      </c>
-      <c r="L31" s="10">
-        <v>23</v>
-      </c>
-      <c r="M31" s="10" t="str">
-        <v>Europe</v>
-      </c>
-      <c r="N31" s="10" t="str">
-        <v>Hamburg</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>9</v>
-      </c>
-      <c r="B32" s="6">
-        <v>8</v>
-      </c>
-      <c r="C32" s="5">
-        <v>381</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="E32" s="6">
-        <v>1</v>
-      </c>
-      <c r="F32" s="6">
-        <v>1</v>
-      </c>
-      <c r="L32" s="10">
-        <v>24</v>
-      </c>
-      <c r="M32" s="10" t="str">
-        <v>World</v>
-      </c>
-      <c r="N32" s="10" t="str">
-        <v>World</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <v>9</v>
-      </c>
-      <c r="B33" s="6">
-        <v>22</v>
-      </c>
-      <c r="C33" s="5">
-        <v>776</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="E33" s="6">
-        <v>1</v>
-      </c>
-      <c r="F33" s="6">
-        <v>1</v>
-      </c>
-      <c r="L33" s="10">
-        <v>25</v>
-      </c>
-      <c r="M33" s="10" t="str">
-        <v>Continental shelf</v>
-      </c>
-      <c r="N33" s="10" t="str">
-        <v>JohanSverdrupPlatform</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <v>9</v>
-      </c>
-      <c r="B34" s="6">
-        <v>21</v>
-      </c>
-      <c r="C34" s="5">
-        <v>623</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="E34" s="6">
-        <v>1</v>
-      </c>
-      <c r="F34" s="6">
-        <v>1</v>
-      </c>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>9</v>
-      </c>
-      <c r="B35" s="6">
-        <v>10</v>
-      </c>
-      <c r="C35" s="5">
-        <v>701</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="E35" s="6">
-        <v>1</v>
-      </c>
-      <c r="F35" s="6">
-        <v>1</v>
-      </c>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
-        <v>10</v>
-      </c>
-      <c r="B36" s="6">
-        <v>21</v>
-      </c>
-      <c r="C36" s="5">
-        <v>591</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="E36" s="6">
-        <v>1</v>
-      </c>
-      <c r="F36" s="6">
-        <v>1</v>
-      </c>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
-        <v>10</v>
-      </c>
-      <c r="B37" s="6">
-        <v>11</v>
-      </c>
-      <c r="C37" s="5">
-        <v>300</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="E37" s="6">
-        <v>1</v>
-      </c>
-      <c r="F37" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
-        <v>11</v>
-      </c>
-      <c r="B38" s="6">
-        <v>21</v>
-      </c>
-      <c r="C38" s="5">
-        <v>769</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="E38" s="6">
-        <v>1</v>
-      </c>
-      <c r="F38" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
-        <v>11</v>
-      </c>
-      <c r="B39" s="6">
-        <v>12</v>
-      </c>
-      <c r="C39" s="5">
-        <v>232</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="E39" s="6">
-        <v>1</v>
-      </c>
-      <c r="F39" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
-        <v>12</v>
-      </c>
-      <c r="B40" s="6">
-        <v>21</v>
-      </c>
-      <c r="C40" s="5">
-        <v>934</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="E40" s="6">
-        <v>1</v>
-      </c>
-      <c r="F40" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
-        <v>12</v>
-      </c>
-      <c r="B41" s="6">
-        <v>13</v>
-      </c>
-      <c r="C41" s="5">
-        <v>381</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="E41" s="6">
-        <v>1</v>
-      </c>
-      <c r="F41" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
-        <v>22</v>
-      </c>
-      <c r="B42" s="6">
-        <v>21</v>
-      </c>
-      <c r="C42" s="5">
-        <v>637</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="E42" s="6">
-        <v>1</v>
-      </c>
-      <c r="F42" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
-        <v>22</v>
-      </c>
-      <c r="B43" s="6">
-        <v>23</v>
-      </c>
-      <c r="C43" s="6">
-        <v>1118</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="E43" s="6">
-        <v>1</v>
-      </c>
-      <c r="F43" s="6">
-        <v>1</v>
-      </c>
-      <c r="H43" t="s">
-        <v>630</v>
-      </c>
-      <c r="J43" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="9">
-        <v>1</v>
-      </c>
-      <c r="B44" s="9">
-        <v>8</v>
-      </c>
-      <c r="C44" s="7">
-        <v>126</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="E44" s="7">
-        <v>1</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
-        <v>1</v>
-      </c>
-      <c r="B45" s="9">
-        <v>5</v>
-      </c>
-      <c r="C45" s="7">
-        <v>506</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="E45" s="7">
-        <v>1</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
-        <v>1</v>
-      </c>
-      <c r="B46" s="9">
-        <v>2</v>
-      </c>
-      <c r="C46" s="7">
-        <v>146</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="E46" s="7">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
-        <v>2</v>
-      </c>
-      <c r="B47" s="9">
-        <v>3</v>
-      </c>
-      <c r="C47" s="7">
-        <v>219</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="E47" s="7">
-        <v>1</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="9">
-        <v>1</v>
-      </c>
-      <c r="B48" s="9">
-        <v>22</v>
-      </c>
-      <c r="C48" s="7">
-        <v>805</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="E48" s="7">
-        <v>1</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
-        <v>3</v>
-      </c>
-      <c r="B49" s="9">
-        <v>4</v>
-      </c>
-      <c r="C49" s="7">
-        <v>233</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="E49" s="7">
-        <v>1</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
-        <v>8</v>
-      </c>
-      <c r="B50" s="9">
-        <v>7</v>
-      </c>
-      <c r="C50" s="7">
-        <v>330</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="E50" s="7">
-        <v>1</v>
-      </c>
-      <c r="F50" s="3">
-        <v>1</v>
-      </c>
-      <c r="H50" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="9">
-        <v>8</v>
-      </c>
-      <c r="B51" s="9">
-        <v>9</v>
-      </c>
-      <c r="C51" s="7">
-        <v>426</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="E51" s="7">
-        <v>1</v>
-      </c>
-      <c r="F51" s="3">
-        <v>1</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="9">
-        <v>8</v>
-      </c>
-      <c r="B52" s="9">
-        <v>9</v>
-      </c>
-      <c r="C52" s="7">
-        <v>436</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="E52" s="7">
-        <v>2</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="9">
-        <v>8</v>
-      </c>
-      <c r="B53" s="9">
-        <v>22</v>
-      </c>
-      <c r="C53" s="7">
-        <v>550</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="E53" s="7">
-        <v>1</v>
-      </c>
-      <c r="F53" s="3">
-        <v>1</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="9">
-        <v>9</v>
-      </c>
-      <c r="B54" s="9">
-        <v>10</v>
-      </c>
-      <c r="C54" s="7">
-        <v>729</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="E54" s="7">
-        <v>1</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1</v>
-      </c>
-      <c r="H54" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="9">
-        <v>9</v>
-      </c>
-      <c r="B55" s="9">
-        <v>21</v>
-      </c>
-      <c r="C55" s="7">
-        <v>560</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="E55" s="7">
-        <v>1</v>
-      </c>
-      <c r="F55" s="3">
-        <v>1</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="9">
-        <v>10</v>
-      </c>
-      <c r="B56" s="9">
-        <v>11</v>
-      </c>
-      <c r="C56" s="7">
-        <v>300</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="E56" s="7">
-        <v>1</v>
-      </c>
-      <c r="F56" s="7">
-        <v>0</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="K56" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="9">
-        <v>11</v>
-      </c>
-      <c r="B57" s="9">
-        <v>12</v>
-      </c>
-      <c r="C57" s="7">
-        <v>230</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="E57" s="7">
-        <v>1</v>
-      </c>
-      <c r="F57" s="7">
-        <v>0</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="K57" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="9">
-        <v>11</v>
-      </c>
-      <c r="B58" s="9">
-        <v>21</v>
-      </c>
-      <c r="C58" s="7">
-        <v>529</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="E58" s="7">
-        <v>1</v>
-      </c>
-      <c r="F58" s="7">
-        <v>1</v>
-      </c>
-      <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="9">
-        <v>22</v>
-      </c>
-      <c r="B59" s="9">
-        <v>23</v>
-      </c>
-      <c r="C59" s="7">
-        <v>1118</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="E59" s="7">
-        <v>1</v>
-      </c>
-      <c r="F59" s="7">
-        <v>1</v>
-      </c>
-      <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="9">
-        <v>22</v>
-      </c>
-      <c r="B60" s="9">
-        <v>21</v>
-      </c>
-      <c r="C60" s="7">
-        <v>650</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="E60" s="7">
-        <v>1</v>
-      </c>
-      <c r="F60" s="7">
-        <v>1</v>
-      </c>
-      <c r="H60" s="3"/>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>627</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>670</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -19773,4 +19666,306 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085DB58C8134B304E8722528DF46508C9" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="80174008b946241598c9c4dc1e838b4b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1d2ad661-40b4-4211-810e-9f8311f21e61" xmlns:ns4="e3bebc04-41cd-4c9b-8948-0bf19cce4780" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="83c7d99240e58c9b66f78776c092749e" ns3:_="" ns4:_="">
+    <xsd:import namespace="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
+    <xsd:import namespace="e3bebc04-41cd-4c9b-8948-0bf19cce4780"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1d2ad661-40b4-4211-810e-9f8311f21e61" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="MediaServiceAutoTags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="12" nillable="true" ma:displayName="MediaServiceLocation" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="22" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e3bebc04-41cd-4c9b-8948-0bf19cce4780" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="20" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1d2ad661-40b4-4211-810e-9f8311f21e61" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36DD76E4-C162-4392-939E-9C4A48CBB9A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
+    <ds:schemaRef ds:uri="e3bebc04-41cd-4c9b-8948-0bf19cce4780"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3F11BAE-A5D0-4A24-BFFD-064A72F53DEE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="e3bebc04-41cd-4c9b-8948-0bf19cce4780"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25E92F15-5C9E-4743-BBCA-DF2A8E467494}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Data/SPATIAL/spatial_data.xlsx
+++ b/Data/SPATIAL/spatial_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steffejb\OneDrive - NTNU\Work\GitHub\STraM_ntnu_development\Data\SPATIAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{F74FBB8B-6408-4A75-B24C-CB2315E4B04F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BB88D83-FF5D-48CC-87BB-F4011D68107D}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{F74FBB8B-6408-4A75-B24C-CB2315E4B04F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6CE65D1-1196-400D-A8C8-7017D84CE7D6}"/>
   <bookViews>
-    <workbookView xWindow="14750" yWindow="350" windowWidth="28800" windowHeight="22170" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14750" yWindow="350" windowWidth="28800" windowHeight="22170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="zone_mapping" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2915" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2916" uniqueCount="671">
   <si>
     <t>NGM_zone_nr</t>
   </si>
@@ -17504,8 +17504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5741E99B-737E-4634-B318-C7C2DDFE7401}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18012,10 +18012,13 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -18210,7 +18213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A56265-210A-4263-A3EA-18E110BB8B83}">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
@@ -19669,6 +19672,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1d2ad661-40b4-4211-810e-9f8311f21e61" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085DB58C8134B304E8722528DF46508C9" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="80174008b946241598c9c4dc1e838b4b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1d2ad661-40b4-4211-810e-9f8311f21e61" xmlns:ns4="e3bebc04-41cd-4c9b-8948-0bf19cce4780" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="83c7d99240e58c9b66f78776c092749e" ns3:_="" ns4:_="">
     <xsd:import namespace="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
@@ -19909,24 +19929,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1d2ad661-40b4-4211-810e-9f8311f21e61" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25E92F15-5C9E-4743-BBCA-DF2A8E467494}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3F11BAE-A5D0-4A24-BFFD-064A72F53DEE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e3bebc04-41cd-4c9b-8948-0bf19cce4780"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36DD76E4-C162-4392-939E-9C4A48CBB9A8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19943,29 +19971,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3F11BAE-A5D0-4A24-BFFD-064A72F53DEE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="e3bebc04-41cd-4c9b-8948-0bf19cce4780"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25E92F15-5C9E-4743-BBCA-DF2A8E467494}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Data/SPATIAL/spatial_data.xlsx
+++ b/Data/SPATIAL/spatial_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steffejb\OneDrive - NTNU\Work\GitHub\STraM_ntnu_development\Data\SPATIAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/STraM_ntnu_development/Data/SPATIAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{F74FBB8B-6408-4A75-B24C-CB2315E4B04F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6CE65D1-1196-400D-A8C8-7017D84CE7D6}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{F74FBB8B-6408-4A75-B24C-CB2315E4B04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5BD0E2D-39D7-45AE-BCE8-46D45A786A7C}"/>
   <bookViews>
-    <workbookView xWindow="14750" yWindow="350" windowWidth="28800" windowHeight="22170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43200" yWindow="0" windowWidth="14400" windowHeight="23400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="zone_mapping" sheetId="1" r:id="rId1"/>
@@ -18,18 +18,31 @@
     <sheet name="distances_STRAM" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -44,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2916" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2918" uniqueCount="673">
   <si>
     <t>NGM_zone_nr</t>
   </si>
@@ -2057,6 +2070,12 @@
   </si>
   <si>
     <t>If at zero, maybe some issue in code!      Old value: 19285</t>
+  </si>
+  <si>
+    <t>offset_x</t>
+  </si>
+  <si>
+    <t>offset_y</t>
   </si>
 </sst>
 </file>
@@ -2621,9 +2640,15 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -2658,9 +2683,9 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Sea-style" pivot="0" count="3" xr9:uid="{64B454C8-5368-4842-84EC-7A548963DB48}">
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="firstRowStripe" dxfId="4"/>
-      <tableStyleElement type="secondRowStripe" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="7"/>
+      <tableStyleElement type="firstRowStripe" dxfId="6"/>
+      <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
     <tableStyle name="Table Style 1" pivot="0" count="0" xr9:uid="{BC15D182-A8D0-4031-B12C-B59991493C9F}"/>
   </tableStyles>
@@ -2678,7 +2703,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I555" totalsRowShown="0">
   <autoFilter ref="A1:I555" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A2:H555">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H555">
     <sortCondition ref="H1:H555"/>
   </sortState>
   <tableColumns count="9">
@@ -2697,16 +2722,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4EBB85F-96B8-4D76-9776-D78D4470FA0D}" name="Table2" displayName="Table2" ref="A1:K19" totalsRowShown="0">
-  <autoFilter ref="A1:K19" xr:uid="{A4EBB85F-96B8-4D76-9776-D78D4470FA0D}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4EBB85F-96B8-4D76-9776-D78D4470FA0D}" name="Table2" displayName="Table2" ref="A1:M19" totalsRowShown="0">
+  <autoFilter ref="A1:M19" xr:uid="{A4EBB85F-96B8-4D76-9776-D78D4470FA0D}"/>
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{1C81FA9B-A218-428E-9D99-3B163735CDA7}" name="zone_nr"/>
     <tableColumn id="12" xr3:uid="{C7B62B9B-D78F-4C9E-B29E-294C62D5EDC3}" name="zone_name"/>
     <tableColumn id="3" xr3:uid="{196B5265-8D2C-4B69-AB32-943B448B9E5C}" name="centroid_name"/>
-    <tableColumn id="4" xr3:uid="{05F14AA4-9D3D-4304-9767-963D4BDC03AA}" name="latitude" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{7BA2B02B-7367-4F0D-8C7E-F38C69A86907}" name="longitude" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{05F14AA4-9D3D-4304-9767-963D4BDC03AA}" name="latitude" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{7BA2B02B-7367-4F0D-8C7E-F38C69A86907}" name="longitude" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{41D34A41-744D-4204-8648-41EC03E8E56D}" name="lat_plot"/>
     <tableColumn id="7" xr3:uid="{333D505E-B9BC-40FF-B8D7-3392CF9071F7}" name="long_plot"/>
+    <tableColumn id="13" xr3:uid="{6C2ED828-3D9B-44A9-B005-1CB6CF4B423B}" name="offset_x" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{08F88648-2082-40E4-B47C-483056EC3969}" name="offset_y" dataDxfId="1"/>
     <tableColumn id="9" xr3:uid="{7A896904-1AA1-49E3-AA10-DC110DDB4EFD}" name="sea" dataDxfId="0"/>
     <tableColumn id="10" xr3:uid="{A8120715-6082-4E77-B245-67D3427B7A05}" name="road"/>
     <tableColumn id="11" xr3:uid="{428630F6-0BF6-4EC4-867C-53820282B7A4}" name="rail"/>
@@ -2719,7 +2746,7 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AEDD73BF-E41A-4EE7-85FC-107B35492075}" name="Table4" displayName="Table4" ref="A1:G60" totalsRowShown="0">
   <autoFilter ref="A1:G60" xr:uid="{6D6305A7-A730-4DD3-8EBC-FBF0E1C256C3}"/>
-  <sortState ref="A2:G60">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G60">
     <sortCondition ref="A1:A60"/>
   </sortState>
   <tableColumns count="7">
@@ -3038,18 +3065,18 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="32.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="24.81640625" customWidth="1"/>
-    <col min="7" max="7" width="11.7265625" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3078,7 +3105,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>211</v>
       </c>
@@ -3104,7 +3131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>213</v>
       </c>
@@ -3130,7 +3157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>214</v>
       </c>
@@ -3156,7 +3183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>215</v>
       </c>
@@ -3182,7 +3209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>216</v>
       </c>
@@ -3208,7 +3235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>217</v>
       </c>
@@ -3234,7 +3261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>219</v>
       </c>
@@ -3260,7 +3287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>220</v>
       </c>
@@ -3286,7 +3313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>221</v>
       </c>
@@ -3312,7 +3339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>226</v>
       </c>
@@ -3338,7 +3365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>227</v>
       </c>
@@ -3364,7 +3391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>228</v>
       </c>
@@ -3390,7 +3417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>229</v>
       </c>
@@ -3416,7 +3443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>230</v>
       </c>
@@ -3442,7 +3469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>231</v>
       </c>
@@ -3468,7 +3495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>233</v>
       </c>
@@ -3494,7 +3521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>234</v>
       </c>
@@ -3520,7 +3547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>235</v>
       </c>
@@ -3546,7 +3573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>236</v>
       </c>
@@ -3572,7 +3599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>237</v>
       </c>
@@ -3598,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>238</v>
       </c>
@@ -3624,7 +3651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>239</v>
       </c>
@@ -3650,7 +3677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>301</v>
       </c>
@@ -3676,7 +3703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>302</v>
       </c>
@@ -3702,7 +3729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>303</v>
       </c>
@@ -3728,7 +3755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>304</v>
       </c>
@@ -3754,7 +3781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>305</v>
       </c>
@@ -3780,7 +3807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>306</v>
       </c>
@@ -3806,7 +3833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>307</v>
       </c>
@@ -3832,7 +3859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>308</v>
       </c>
@@ -3858,7 +3885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>309</v>
       </c>
@@ -3884,7 +3911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>310</v>
       </c>
@@ -3910,7 +3937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>311</v>
       </c>
@@ -3936,7 +3963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>312</v>
       </c>
@@ -3962,7 +3989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>602</v>
       </c>
@@ -3988,7 +4015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>604</v>
       </c>
@@ -4014,7 +4041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>624</v>
       </c>
@@ -4040,7 +4067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>625</v>
       </c>
@@ -4066,7 +4093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>626</v>
       </c>
@@ -4092,7 +4119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>627</v>
       </c>
@@ -4118,7 +4145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>628</v>
       </c>
@@ -4144,7 +4171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>631</v>
       </c>
@@ -4170,7 +4197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>632</v>
       </c>
@@ -4196,7 +4223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>633</v>
       </c>
@@ -4222,7 +4249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>532</v>
       </c>
@@ -4248,7 +4275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>533</v>
       </c>
@@ -4274,7 +4301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>615</v>
       </c>
@@ -4300,7 +4327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>616</v>
       </c>
@@ -4326,7 +4353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>617</v>
       </c>
@@ -4352,7 +4379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>618</v>
       </c>
@@ -4378,7 +4405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>619</v>
       </c>
@@ -4404,7 +4431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>620</v>
       </c>
@@ -4430,7 +4457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>118</v>
       </c>
@@ -4456,7 +4483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>119</v>
       </c>
@@ -4482,7 +4509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>121</v>
       </c>
@@ -4508,7 +4535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>122</v>
       </c>
@@ -4534,7 +4561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>123</v>
       </c>
@@ -4560,7 +4587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>124</v>
       </c>
@@ -4586,7 +4613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>125</v>
       </c>
@@ -4612,7 +4639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>127</v>
       </c>
@@ -4638,7 +4665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>128</v>
       </c>
@@ -4664,7 +4691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>138</v>
       </c>
@@ -4690,7 +4717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>605</v>
       </c>
@@ -4716,7 +4743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>612</v>
       </c>
@@ -4742,7 +4769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>621</v>
       </c>
@@ -4768,7 +4795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>622</v>
       </c>
@@ -4794,7 +4821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>623</v>
       </c>
@@ -4820,7 +4847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>101</v>
       </c>
@@ -4846,7 +4873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>104</v>
       </c>
@@ -4872,7 +4899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>105</v>
       </c>
@@ -4898,7 +4925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>106</v>
       </c>
@@ -4924,7 +4951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>111</v>
       </c>
@@ -4950,7 +4977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>135</v>
       </c>
@@ -4976,7 +5003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>136</v>
       </c>
@@ -5002,7 +5029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>137</v>
       </c>
@@ -5028,7 +5055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>805</v>
       </c>
@@ -5054,7 +5081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>806</v>
       </c>
@@ -5080,7 +5107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>811</v>
       </c>
@@ -5106,7 +5133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>814</v>
       </c>
@@ -5132,7 +5159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>815</v>
       </c>
@@ -5158,7 +5185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>817</v>
       </c>
@@ -5184,7 +5211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>819</v>
       </c>
@@ -5210,7 +5237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>840</v>
       </c>
@@ -5236,7 +5263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>701</v>
       </c>
@@ -5262,7 +5289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>702</v>
       </c>
@@ -5288,7 +5315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>704</v>
       </c>
@@ -5314,7 +5341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2101</v>
       </c>
@@ -5340,7 +5367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>706</v>
       </c>
@@ -5366,7 +5393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>709</v>
       </c>
@@ -5392,7 +5419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>711</v>
       </c>
@@ -5421,7 +5448,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>713</v>
       </c>
@@ -5447,7 +5474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>714</v>
       </c>
@@ -5473,7 +5500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>716</v>
       </c>
@@ -5499,7 +5526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>719</v>
       </c>
@@ -5525,7 +5552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>720</v>
       </c>
@@ -5551,7 +5578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>722</v>
       </c>
@@ -5577,7 +5604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>723</v>
       </c>
@@ -5603,7 +5630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>728</v>
       </c>
@@ -5629,7 +5656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>807</v>
       </c>
@@ -5655,7 +5682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>821</v>
       </c>
@@ -5681,7 +5708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>822</v>
       </c>
@@ -5707,7 +5734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>826</v>
       </c>
@@ -5733,7 +5760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>827</v>
       </c>
@@ -5759,7 +5786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>828</v>
       </c>
@@ -5785,7 +5812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>829</v>
       </c>
@@ -5811,7 +5838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>830</v>
       </c>
@@ -5837,7 +5864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>831</v>
       </c>
@@ -5863,7 +5890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>833</v>
       </c>
@@ -5889,7 +5916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>834</v>
       </c>
@@ -5915,7 +5942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>901</v>
       </c>
@@ -5941,7 +5968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>904</v>
       </c>
@@ -5967,7 +5994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>906</v>
       </c>
@@ -5993,7 +6020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>911</v>
       </c>
@@ -6019,7 +6046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>912</v>
       </c>
@@ -6045,7 +6072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>914</v>
       </c>
@@ -6071,7 +6098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>919</v>
       </c>
@@ -6097,7 +6124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>926</v>
       </c>
@@ -6123,7 +6150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>928</v>
       </c>
@@ -6149,7 +6176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>929</v>
       </c>
@@ -6175,7 +6202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>935</v>
       </c>
@@ -6201,7 +6228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>937</v>
       </c>
@@ -6227,7 +6254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>938</v>
       </c>
@@ -6253,7 +6280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>940</v>
       </c>
@@ -6279,7 +6306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>941</v>
       </c>
@@ -6305,7 +6332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1002</v>
       </c>
@@ -6331,7 +6358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1003</v>
       </c>
@@ -6357,7 +6384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1004</v>
       </c>
@@ -6383,7 +6410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1014</v>
       </c>
@@ -6409,7 +6436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1017</v>
       </c>
@@ -6435,7 +6462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1018</v>
       </c>
@@ -6461,7 +6488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1021</v>
       </c>
@@ -6487,7 +6514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1026</v>
       </c>
@@ -6513,7 +6540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1027</v>
       </c>
@@ -6539,7 +6566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1029</v>
       </c>
@@ -6565,7 +6592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1032</v>
       </c>
@@ -6591,7 +6618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1034</v>
       </c>
@@ -6617,7 +6644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1037</v>
       </c>
@@ -6643,7 +6670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1046</v>
       </c>
@@ -6669,7 +6696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1071</v>
       </c>
@@ -6695,7 +6722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1072</v>
       </c>
@@ -6721,7 +6748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1073</v>
       </c>
@@ -6747,7 +6774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1074</v>
       </c>
@@ -6773,7 +6800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1075</v>
       </c>
@@ -6799,7 +6826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1101</v>
       </c>
@@ -6825,7 +6852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1102</v>
       </c>
@@ -6851,7 +6878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1111</v>
       </c>
@@ -6877,7 +6904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1112</v>
       </c>
@@ -6903,7 +6930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1114</v>
       </c>
@@ -6929,7 +6956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1119</v>
       </c>
@@ -6955,7 +6982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1120</v>
       </c>
@@ -6981,7 +7008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1121</v>
       </c>
@@ -7007,7 +7034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1122</v>
       </c>
@@ -7033,7 +7060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1124</v>
       </c>
@@ -7059,7 +7086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1127</v>
       </c>
@@ -7085,7 +7112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1129</v>
       </c>
@@ -7111,7 +7138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1130</v>
       </c>
@@ -7137,7 +7164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1133</v>
       </c>
@@ -7163,7 +7190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1141</v>
       </c>
@@ -7189,7 +7216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1142</v>
       </c>
@@ -7215,7 +7242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1144</v>
       </c>
@@ -7241,7 +7268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1171</v>
       </c>
@@ -7267,7 +7294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1172</v>
       </c>
@@ -7293,7 +7320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1173</v>
       </c>
@@ -7319,7 +7346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1174</v>
       </c>
@@ -7345,7 +7372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1175</v>
       </c>
@@ -7371,7 +7398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1106</v>
       </c>
@@ -7397,7 +7424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1134</v>
       </c>
@@ -7423,7 +7450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1135</v>
       </c>
@@ -7449,7 +7476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1145</v>
       </c>
@@ -7475,7 +7502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1146</v>
       </c>
@@ -7501,7 +7528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1149</v>
       </c>
@@ -7527,7 +7554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1151</v>
       </c>
@@ -7553,7 +7580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1154</v>
       </c>
@@ -7579,7 +7606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1159</v>
       </c>
@@ -7605,7 +7632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1241</v>
       </c>
@@ -7631,7 +7658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1242</v>
       </c>
@@ -7657,7 +7684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1243</v>
       </c>
@@ -7683,7 +7710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1244</v>
       </c>
@@ -7709,7 +7736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1245</v>
       </c>
@@ -7735,7 +7762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1246</v>
       </c>
@@ -7761,7 +7788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1247</v>
       </c>
@@ -7787,7 +7814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1253</v>
       </c>
@@ -7813,7 +7840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1256</v>
       </c>
@@ -7839,7 +7866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1259</v>
       </c>
@@ -7865,7 +7892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1260</v>
       </c>
@@ -7891,7 +7918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1263</v>
       </c>
@@ -7917,7 +7944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1264</v>
       </c>
@@ -7943,7 +7970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1265</v>
       </c>
@@ -7969,7 +7996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1266</v>
       </c>
@@ -7995,7 +8022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1271</v>
       </c>
@@ -8021,7 +8048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1272</v>
       </c>
@@ -8047,7 +8074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1273</v>
       </c>
@@ -8073,7 +8100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1274</v>
       </c>
@@ -8099,7 +8126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1275</v>
       </c>
@@ -8125,7 +8152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1276</v>
       </c>
@@ -8151,7 +8178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1277</v>
       </c>
@@ -8177,7 +8204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1224</v>
       </c>
@@ -8203,7 +8230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1227</v>
       </c>
@@ -8229,7 +8256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1228</v>
       </c>
@@ -8255,7 +8282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1231</v>
       </c>
@@ -8281,7 +8308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1232</v>
       </c>
@@ -8307,7 +8334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1238</v>
       </c>
@@ -8333,7 +8360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1211</v>
       </c>
@@ -8359,7 +8386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1216</v>
       </c>
@@ -8385,7 +8412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1219</v>
       </c>
@@ -8411,7 +8438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1221</v>
       </c>
@@ -8437,7 +8464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1222</v>
       </c>
@@ -8463,7 +8490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1223</v>
       </c>
@@ -8489,7 +8516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1233</v>
       </c>
@@ -8515,7 +8542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1234</v>
       </c>
@@ -8541,7 +8568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1235</v>
       </c>
@@ -8567,7 +8594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1251</v>
       </c>
@@ -8593,7 +8620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1252</v>
       </c>
@@ -8619,7 +8646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1401</v>
       </c>
@@ -8645,7 +8672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1411</v>
       </c>
@@ -8671,7 +8698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1412</v>
       </c>
@@ -8697,7 +8724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1413</v>
       </c>
@@ -8723,7 +8750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1416</v>
       </c>
@@ -8749,7 +8776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1418</v>
       </c>
@@ -8775,7 +8802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1428</v>
       </c>
@@ -8801,7 +8828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1429</v>
       </c>
@@ -8827,7 +8854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1430</v>
       </c>
@@ -8853,7 +8880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1431</v>
       </c>
@@ -8879,7 +8906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1432</v>
       </c>
@@ -8905,7 +8932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1433</v>
       </c>
@@ -8931,7 +8958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1438</v>
       </c>
@@ -8957,7 +8984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1439</v>
       </c>
@@ -8983,7 +9010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1441</v>
       </c>
@@ -9009,7 +9036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1443</v>
       </c>
@@ -9035,7 +9062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1444</v>
       </c>
@@ -9064,7 +9091,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1445</v>
       </c>
@@ -9090,7 +9117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1449</v>
       </c>
@@ -9116,7 +9143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1417</v>
       </c>
@@ -9142,7 +9169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1419</v>
       </c>
@@ -9168,7 +9195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1420</v>
       </c>
@@ -9194,7 +9221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1421</v>
       </c>
@@ -9220,7 +9247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1422</v>
       </c>
@@ -9246,7 +9273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1424</v>
       </c>
@@ -9272,7 +9299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1426</v>
       </c>
@@ -9298,7 +9325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1503</v>
       </c>
@@ -9324,7 +9351,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1554</v>
       </c>
@@ -9350,7 +9377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1556</v>
       </c>
@@ -9376,7 +9403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1560</v>
       </c>
@@ -9402,7 +9429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1563</v>
       </c>
@@ -9428,7 +9455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1566</v>
       </c>
@@ -9454,7 +9481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1569</v>
       </c>
@@ -9480,7 +9507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1571</v>
       </c>
@@ -9509,7 +9536,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1572</v>
       </c>
@@ -9535,7 +9562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1573</v>
       </c>
@@ -9561,7 +9588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1502</v>
       </c>
@@ -9587,7 +9614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1535</v>
       </c>
@@ -9613,7 +9640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1539</v>
       </c>
@@ -9639,7 +9666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1543</v>
       </c>
@@ -9665,7 +9692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1545</v>
       </c>
@@ -9691,7 +9718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1546</v>
       </c>
@@ -9717,7 +9744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1547</v>
       </c>
@@ -9743,7 +9770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1548</v>
       </c>
@@ -9769,7 +9796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1551</v>
       </c>
@@ -9795,7 +9822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1557</v>
       </c>
@@ -9821,7 +9848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1504</v>
       </c>
@@ -9847,7 +9874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>1511</v>
       </c>
@@ -9873,7 +9900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1514</v>
       </c>
@@ -9899,7 +9926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>1515</v>
       </c>
@@ -9925,7 +9952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1516</v>
       </c>
@@ -9951,7 +9978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1517</v>
       </c>
@@ -9977,7 +10004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1519</v>
       </c>
@@ -10003,7 +10030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1520</v>
       </c>
@@ -10029,7 +10056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1523</v>
       </c>
@@ -10055,7 +10082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1524</v>
       </c>
@@ -10081,7 +10108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1525</v>
       </c>
@@ -10107,7 +10134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1526</v>
       </c>
@@ -10133,7 +10160,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1528</v>
       </c>
@@ -10159,7 +10186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1529</v>
       </c>
@@ -10185,7 +10212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>1531</v>
       </c>
@@ -10211,7 +10238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1532</v>
       </c>
@@ -10237,7 +10264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1534</v>
       </c>
@@ -10263,7 +10290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>402</v>
       </c>
@@ -10289,7 +10316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>418</v>
       </c>
@@ -10315,7 +10342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>419</v>
       </c>
@@ -10341,7 +10368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>420</v>
       </c>
@@ -10367,7 +10394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>423</v>
       </c>
@@ -10393,7 +10420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>425</v>
       </c>
@@ -10419,7 +10446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>426</v>
       </c>
@@ -10445,7 +10472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>511</v>
       </c>
@@ -10471,7 +10498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>512</v>
       </c>
@@ -10497,7 +10524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>513</v>
       </c>
@@ -10523,7 +10550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>514</v>
       </c>
@@ -10549,7 +10576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>515</v>
       </c>
@@ -10575,7 +10602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>516</v>
       </c>
@@ -10601,7 +10628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>517</v>
       </c>
@@ -10627,7 +10654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>519</v>
       </c>
@@ -10653,7 +10680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>520</v>
       </c>
@@ -10679,7 +10706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>534</v>
       </c>
@@ -10705,7 +10732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>403</v>
       </c>
@@ -10731,7 +10758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>412</v>
       </c>
@@ -10757,7 +10784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>415</v>
       </c>
@@ -10783,7 +10810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>417</v>
       </c>
@@ -10809,7 +10836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>427</v>
       </c>
@@ -10835,7 +10862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>501</v>
       </c>
@@ -10861,7 +10888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>502</v>
       </c>
@@ -10887,7 +10914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>521</v>
       </c>
@@ -10913,7 +10940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>522</v>
       </c>
@@ -10939,7 +10966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>528</v>
       </c>
@@ -10965,7 +10992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>529</v>
       </c>
@@ -10991,7 +11018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>536</v>
       </c>
@@ -11017,7 +11044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>538</v>
       </c>
@@ -11043,7 +11070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>540</v>
       </c>
@@ -11069,7 +11096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>541</v>
       </c>
@@ -11095,7 +11122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>542</v>
       </c>
@@ -11121,7 +11148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>543</v>
       </c>
@@ -11147,7 +11174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>544</v>
       </c>
@@ -11173,7 +11200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>545</v>
       </c>
@@ -11199,7 +11226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>428</v>
       </c>
@@ -11225,7 +11252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>429</v>
       </c>
@@ -11251,7 +11278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>430</v>
       </c>
@@ -11277,7 +11304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>432</v>
       </c>
@@ -11303,7 +11330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>434</v>
       </c>
@@ -11329,7 +11356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>436</v>
       </c>
@@ -11355,7 +11382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>437</v>
       </c>
@@ -11381,7 +11408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>438</v>
       </c>
@@ -11407,7 +11434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>439</v>
       </c>
@@ -11433,7 +11460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>441</v>
       </c>
@@ -11459,7 +11486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1621</v>
       </c>
@@ -11485,7 +11512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1624</v>
       </c>
@@ -11511,7 +11538,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1627</v>
       </c>
@@ -11537,7 +11564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1630</v>
       </c>
@@ -11563,7 +11590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1632</v>
       </c>
@@ -11589,7 +11616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1633</v>
       </c>
@@ -11615,7 +11642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1567</v>
       </c>
@@ -11641,7 +11668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1702</v>
       </c>
@@ -11667,7 +11694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1703</v>
       </c>
@@ -11693,7 +11720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1711</v>
       </c>
@@ -11719,7 +11746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1714</v>
       </c>
@@ -11745,7 +11772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1717</v>
       </c>
@@ -11771,7 +11798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1718</v>
       </c>
@@ -11797,7 +11824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1719</v>
       </c>
@@ -11823,7 +11850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1721</v>
       </c>
@@ -11849,7 +11876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>1723</v>
       </c>
@@ -11875,7 +11902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1724</v>
       </c>
@@ -11901,7 +11928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>1725</v>
       </c>
@@ -11927,7 +11954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>1729</v>
       </c>
@@ -11953,7 +11980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>1736</v>
       </c>
@@ -11979,7 +12006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1738</v>
       </c>
@@ -12005,7 +12032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>1739</v>
       </c>
@@ -12031,7 +12058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>1740</v>
       </c>
@@ -12057,7 +12084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1742</v>
       </c>
@@ -12083,7 +12110,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>1743</v>
       </c>
@@ -12109,7 +12136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>1744</v>
       </c>
@@ -12135,7 +12162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1748</v>
       </c>
@@ -12161,7 +12188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>1749</v>
       </c>
@@ -12187,7 +12214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1750</v>
       </c>
@@ -12213,7 +12240,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>1751</v>
       </c>
@@ -12239,7 +12266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>1755</v>
       </c>
@@ -12265,7 +12292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>1612</v>
       </c>
@@ -12291,7 +12318,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>1613</v>
       </c>
@@ -12317,7 +12344,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>1617</v>
       </c>
@@ -12343,7 +12370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>1620</v>
       </c>
@@ -12369,7 +12396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>1622</v>
       </c>
@@ -12395,7 +12422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>1634</v>
       </c>
@@ -12421,7 +12448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>1635</v>
       </c>
@@ -12447,7 +12474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>1636</v>
       </c>
@@ -12473,7 +12500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>1638</v>
       </c>
@@ -12499,7 +12526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>1640</v>
       </c>
@@ -12525,7 +12552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>1644</v>
       </c>
@@ -12551,7 +12578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>1648</v>
       </c>
@@ -12577,7 +12604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>1653</v>
       </c>
@@ -12603,7 +12630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1657</v>
       </c>
@@ -12629,7 +12656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>1662</v>
       </c>
@@ -12655,7 +12682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>1663</v>
       </c>
@@ -12681,7 +12708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>1664</v>
       </c>
@@ -12707,7 +12734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>1665</v>
       </c>
@@ -12733,7 +12760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>1671</v>
       </c>
@@ -12759,7 +12786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>1672</v>
       </c>
@@ -12785,7 +12812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>1673</v>
       </c>
@@ -12811,7 +12838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>1674</v>
       </c>
@@ -12837,7 +12864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>1675</v>
       </c>
@@ -12863,7 +12890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>1676</v>
       </c>
@@ -12889,7 +12916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>1677</v>
       </c>
@@ -12915,7 +12942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>1678</v>
       </c>
@@ -12941,7 +12968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>1811</v>
       </c>
@@ -12967,7 +12994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>1812</v>
       </c>
@@ -12993,7 +13020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>1813</v>
       </c>
@@ -13019,7 +13046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>1815</v>
       </c>
@@ -13045,7 +13072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>1816</v>
       </c>
@@ -13071,7 +13098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>1818</v>
       </c>
@@ -13097,7 +13124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>1820</v>
       </c>
@@ -13123,7 +13150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>1822</v>
       </c>
@@ -13149,7 +13176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1824</v>
       </c>
@@ -13175,7 +13202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1825</v>
       </c>
@@ -13201,7 +13228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>1826</v>
       </c>
@@ -13227,7 +13254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>1827</v>
       </c>
@@ -13253,7 +13280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>1828</v>
       </c>
@@ -13279,7 +13306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>1832</v>
       </c>
@@ -13305,7 +13332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>1833</v>
       </c>
@@ -13331,7 +13358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>1834</v>
       </c>
@@ -13357,7 +13384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>1835</v>
       </c>
@@ -13383,7 +13410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>1836</v>
       </c>
@@ -13409,7 +13436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>1880</v>
       </c>
@@ -13435,7 +13462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>1804</v>
       </c>
@@ -13461,7 +13488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>1837</v>
       </c>
@@ -13487,7 +13514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>1838</v>
       </c>
@@ -13513,7 +13540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>1839</v>
       </c>
@@ -13539,7 +13566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>1840</v>
       </c>
@@ -13565,7 +13592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>1841</v>
       </c>
@@ -13591,7 +13618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>1842</v>
       </c>
@@ -13617,7 +13644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>1845</v>
       </c>
@@ -13643,7 +13670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>1848</v>
       </c>
@@ -13669,7 +13696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>1849</v>
       </c>
@@ -13695,7 +13722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>1805</v>
       </c>
@@ -13721,7 +13748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>1850</v>
       </c>
@@ -13747,7 +13774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>1851</v>
       </c>
@@ -13773,7 +13800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>1852</v>
       </c>
@@ -13799,7 +13826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>1853</v>
       </c>
@@ -13825,7 +13852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>1854</v>
       </c>
@@ -13851,7 +13878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>1856</v>
       </c>
@@ -13877,7 +13904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>1857</v>
       </c>
@@ -13903,7 +13930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>1859</v>
       </c>
@@ -13929,7 +13956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>1860</v>
       </c>
@@ -13955,7 +13982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>1865</v>
       </c>
@@ -13981,7 +14008,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>1866</v>
       </c>
@@ -14007,7 +14034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>1867</v>
       </c>
@@ -14033,7 +14060,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>1868</v>
       </c>
@@ -14059,7 +14086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>1870</v>
       </c>
@@ -14085,7 +14112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>1871</v>
       </c>
@@ -14111,7 +14138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>1874</v>
       </c>
@@ -14137,7 +14164,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>1901</v>
       </c>
@@ -14163,7 +14190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>1911</v>
       </c>
@@ -14189,7 +14216,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>1913</v>
       </c>
@@ -14215,7 +14242,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>1915</v>
       </c>
@@ -14241,7 +14268,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>1917</v>
       </c>
@@ -14267,7 +14294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>1919</v>
       </c>
@@ -14293,7 +14320,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>1920</v>
       </c>
@@ -14319,7 +14346,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>1922</v>
       </c>
@@ -14345,7 +14372,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>1923</v>
       </c>
@@ -14371,7 +14398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>1924</v>
       </c>
@@ -14397,7 +14424,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>1925</v>
       </c>
@@ -14423,7 +14450,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>1926</v>
       </c>
@@ -14449,7 +14476,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>1927</v>
       </c>
@@ -14475,7 +14502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>1928</v>
       </c>
@@ -14501,7 +14528,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>1929</v>
       </c>
@@ -14527,7 +14554,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>1931</v>
       </c>
@@ -14553,7 +14580,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>1933</v>
       </c>
@@ -14579,7 +14606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>1936</v>
       </c>
@@ -14605,7 +14632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>1938</v>
       </c>
@@ -14631,7 +14658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>1939</v>
       </c>
@@ -14657,7 +14684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>1940</v>
       </c>
@@ -14683,7 +14710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>1941</v>
       </c>
@@ -14709,7 +14736,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>1942</v>
       </c>
@@ -14735,7 +14762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>1943</v>
       </c>
@@ -14761,7 +14788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>1971</v>
       </c>
@@ -14787,7 +14814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>1972</v>
       </c>
@@ -14813,7 +14840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>1973</v>
       </c>
@@ -14839,7 +14866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>1974</v>
       </c>
@@ -14865,7 +14892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>2004</v>
       </c>
@@ -14891,7 +14918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>2011</v>
       </c>
@@ -14917,7 +14944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>2012</v>
       </c>
@@ -14943,7 +14970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>2014</v>
       </c>
@@ -14969,7 +14996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>2015</v>
       </c>
@@ -14995,7 +15022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>2017</v>
       </c>
@@ -15021,7 +15048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>2018</v>
       </c>
@@ -15047,7 +15074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>2019</v>
       </c>
@@ -15073,7 +15100,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>2020</v>
       </c>
@@ -15099,7 +15126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>2021</v>
       </c>
@@ -15125,7 +15152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>2002</v>
       </c>
@@ -15151,7 +15178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>2003</v>
       </c>
@@ -15177,7 +15204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>2022</v>
       </c>
@@ -15203,7 +15230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>2023</v>
       </c>
@@ -15229,7 +15256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>2024</v>
       </c>
@@ -15255,7 +15282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>2025</v>
       </c>
@@ -15281,7 +15308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>2027</v>
       </c>
@@ -15307,7 +15334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>2028</v>
       </c>
@@ -15333,7 +15360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>2030</v>
       </c>
@@ -15359,7 +15386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>61</v>
       </c>
@@ -15385,7 +15412,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>62</v>
       </c>
@@ -15411,7 +15438,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>51</v>
       </c>
@@ -15437,7 +15464,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>53</v>
       </c>
@@ -15463,7 +15490,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>58</v>
       </c>
@@ -15489,7 +15516,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>52</v>
       </c>
@@ -15515,7 +15542,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>57</v>
       </c>
@@ -15541,7 +15568,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>59</v>
       </c>
@@ -15567,7 +15594,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>50</v>
       </c>
@@ -15593,7 +15620,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>54</v>
       </c>
@@ -15619,7 +15646,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>55</v>
       </c>
@@ -15645,7 +15672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>56</v>
       </c>
@@ -15671,7 +15698,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>60</v>
       </c>
@@ -15697,7 +15724,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>5800</v>
       </c>
@@ -15723,7 +15750,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>5810</v>
       </c>
@@ -15749,7 +15776,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>5820</v>
       </c>
@@ -15775,7 +15802,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>5831</v>
       </c>
@@ -15801,7 +15828,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>5835</v>
       </c>
@@ -15827,7 +15854,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>3001</v>
       </c>
@@ -15853,7 +15880,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>3002</v>
       </c>
@@ -15879,7 +15906,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>3003</v>
       </c>
@@ -15905,7 +15932,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>4001</v>
       </c>
@@ -15931,7 +15958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>4002</v>
       </c>
@@ -15957,7 +15984,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>4003</v>
       </c>
@@ -15983,7 +16010,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>4004</v>
       </c>
@@ -16009,7 +16036,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>4005</v>
       </c>
@@ -16035,7 +16062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>5101</v>
       </c>
@@ -16061,7 +16088,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>5102</v>
       </c>
@@ -16087,7 +16114,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>5103</v>
       </c>
@@ -16113,7 +16140,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>5104</v>
       </c>
@@ -16139,7 +16166,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>5105</v>
       </c>
@@ -16165,7 +16192,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>5106</v>
       </c>
@@ -16191,7 +16218,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>5201</v>
       </c>
@@ -16217,7 +16244,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>5202</v>
       </c>
@@ -16243,7 +16270,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>5203</v>
       </c>
@@ -16269,7 +16296,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>5204</v>
       </c>
@@ -16295,7 +16322,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>5302</v>
       </c>
@@ -16321,7 +16348,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>5402</v>
       </c>
@@ -16347,7 +16374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>5403</v>
       </c>
@@ -16373,7 +16400,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>5404</v>
       </c>
@@ -16399,7 +16426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>5501</v>
       </c>
@@ -16425,7 +16452,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>5502</v>
       </c>
@@ -16451,7 +16478,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>5605</v>
       </c>
@@ -16477,7 +16504,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>5606</v>
       </c>
@@ -16503,7 +16530,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>5607</v>
       </c>
@@ -16529,7 +16556,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>5700</v>
       </c>
@@ -16555,7 +16582,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>5701</v>
       </c>
@@ -16581,7 +16608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>5710</v>
       </c>
@@ -16607,7 +16634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>5720</v>
       </c>
@@ -16633,7 +16660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>5730</v>
       </c>
@@ -16659,7 +16686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>5740</v>
       </c>
@@ -16685,7 +16712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>5750</v>
       </c>
@@ -16711,7 +16738,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>5760</v>
       </c>
@@ -16737,7 +16764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>5770</v>
       </c>
@@ -16763,7 +16790,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>5780</v>
       </c>
@@ -16789,7 +16816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>5790</v>
       </c>
@@ -16815,7 +16842,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>5830</v>
       </c>
@@ -16841,7 +16868,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>5840</v>
       </c>
@@ -16867,7 +16894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>5841</v>
       </c>
@@ -16893,7 +16920,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>5842</v>
       </c>
@@ -16919,7 +16946,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>5850</v>
       </c>
@@ -16945,7 +16972,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>5860</v>
       </c>
@@ -16971,7 +16998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>5870</v>
       </c>
@@ -16997,7 +17024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>5880</v>
       </c>
@@ -17023,7 +17050,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>5881</v>
       </c>
@@ -17049,7 +17076,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>5890</v>
       </c>
@@ -17075,7 +17102,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>5900</v>
       </c>
@@ -17101,7 +17128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>5910</v>
       </c>
@@ -17127,7 +17154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>5920</v>
       </c>
@@ -17153,7 +17180,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>5930</v>
       </c>
@@ -17179,7 +17206,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>6000</v>
       </c>
@@ -17205,7 +17232,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>6010</v>
       </c>
@@ -17231,7 +17258,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>6020</v>
       </c>
@@ -17257,7 +17284,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>6030</v>
       </c>
@@ -17283,7 +17310,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>6040</v>
       </c>
@@ -17309,7 +17336,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>6050</v>
       </c>
@@ -17335,7 +17362,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>2301</v>
       </c>
@@ -17361,7 +17388,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>2302</v>
       </c>
@@ -17387,7 +17414,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>2303</v>
       </c>
@@ -17413,7 +17440,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>2304</v>
       </c>
@@ -17439,7 +17466,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>2305</v>
       </c>
@@ -17465,7 +17492,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>2306</v>
       </c>
@@ -17502,24 +17529,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5741E99B-737E-4634-B318-C7C2DDFE7401}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.54296875" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="6.26953125" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.28515625" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>635</v>
       </c>
@@ -17542,22 +17569,28 @@
         <v>641</v>
       </c>
       <c r="H1" t="s">
+        <v>671</v>
+      </c>
+      <c r="I1" t="s">
+        <v>672</v>
+      </c>
+      <c r="J1" t="s">
         <v>653</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>654</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>655</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>647</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17579,20 +17612,26 @@
       <c r="G2" s="4">
         <v>10.752800000000001</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
+      <c r="H2" s="4">
+        <v>-13</v>
+      </c>
+      <c r="I2" s="4">
+        <v>-2</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -17614,20 +17653,26 @@
       <c r="G3" s="4">
         <v>9.609</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
+      <c r="H3" s="4">
+        <v>-15</v>
+      </c>
+      <c r="I3" s="4">
+        <v>-2</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -17649,20 +17694,26 @@
       <c r="G4" s="4">
         <v>7.9957333000000004</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
+      <c r="H4" s="4">
+        <v>-27</v>
+      </c>
+      <c r="I4" s="4">
+        <v>-6</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -17684,20 +17735,26 @@
       <c r="G5" s="4">
         <v>5.7126113570000001</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
+      <c r="H5" s="4">
+        <v>-24</v>
+      </c>
+      <c r="I5" s="4">
+        <v>-6</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -17719,20 +17776,26 @@
       <c r="G6" s="4">
         <v>5.3232999999999997</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
+      <c r="H6" s="4">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>3</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -17754,23 +17817,29 @@
       <c r="G7" s="4">
         <v>5.8569000000000004</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
+      <c r="H7" s="4">
+        <v>2</v>
+      </c>
+      <c r="I7" s="4">
+        <v>3</v>
       </c>
       <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>0</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>0</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -17792,20 +17861,26 @@
       <c r="G8" s="4">
         <v>6.1492684000000004</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
+      <c r="H8" s="4">
+        <v>-18</v>
+      </c>
+      <c r="I8" s="4">
+        <v>3</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -17827,23 +17902,29 @@
       <c r="G9" s="4">
         <v>10.4674</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="4">
+        <v>3</v>
+      </c>
+      <c r="I9" s="4">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1">
         <v>0</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
       <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
         <v>0</v>
       </c>
-      <c r="M9" t="s">
+      <c r="O9" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -17865,20 +17946,26 @@
       <c r="G10" s="4">
         <v>10.3951929</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
+      <c r="H10" s="4">
+        <v>-25</v>
+      </c>
+      <c r="I10" s="4">
+        <v>5</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -17900,20 +17987,26 @@
       <c r="G11" s="4">
         <v>14.3833</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
+      <c r="H11" s="4">
+        <v>-14</v>
+      </c>
+      <c r="I11" s="4">
         <v>1</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -17935,20 +18028,26 @@
       <c r="G12" s="4">
         <v>17.427299999999999</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
+      <c r="H12" s="4">
+        <v>2</v>
+      </c>
+      <c r="I12" s="4">
+        <v>3</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -17970,20 +18069,26 @@
       <c r="G13" s="4">
         <v>18.954343399999999</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
+      <c r="H13" s="4">
+        <v>-19</v>
+      </c>
+      <c r="I13" s="4">
+        <v>2</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -18005,23 +18110,29 @@
       <c r="G14" s="4">
         <v>23.2715</v>
       </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
+      <c r="H14" s="4">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4">
+        <v>-3</v>
       </c>
       <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>0</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>0</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="O14" s="1" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>21</v>
       </c>
@@ -18043,11 +18154,11 @@
       <c r="G15" s="4">
         <v>20.263074499999998</v>
       </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
+      <c r="H15" s="4">
+        <v>2</v>
+      </c>
+      <c r="I15" s="4">
+        <v>2</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -18055,8 +18166,14 @@
       <c r="K15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>22</v>
       </c>
@@ -18078,11 +18195,11 @@
       <c r="G16" s="4">
         <v>18.0710935</v>
       </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <v>-6</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -18090,8 +18207,14 @@
       <c r="K16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>23</v>
       </c>
@@ -18114,10 +18237,10 @@
         <v>9</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>-20</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -18125,11 +18248,17 @@
       <c r="K17">
         <v>1</v>
       </c>
-      <c r="M17" t="s">
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="O17" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24</v>
       </c>
@@ -18151,20 +18280,26 @@
       <c r="G18" s="4">
         <v>3</v>
       </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
+      <c r="H18" s="4">
+        <v>-12</v>
+      </c>
+      <c r="I18" s="4">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
         <v>0</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>0</v>
       </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>25</v>
       </c>
@@ -18186,16 +18321,22 @@
       <c r="G19" s="4">
         <v>2</v>
       </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
+      <c r="H19" s="4">
+        <v>-13</v>
+      </c>
+      <c r="I19" s="4">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
         <v>0</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>0</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>0</v>
       </c>
     </row>
@@ -18217,19 +18358,19 @@
       <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.6328125" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="13.81640625" customWidth="1"/>
-    <col min="13" max="13" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>649</v>
       </c>
@@ -18252,7 +18393,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18278,7 +18419,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -18298,7 +18439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -18321,7 +18462,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -18341,7 +18482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -18361,7 +18502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -18381,7 +18522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -18401,7 +18542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -18424,7 +18565,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -18447,7 +18588,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -18467,7 +18608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -18487,7 +18628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -18510,7 +18651,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -18530,7 +18671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -18560,7 +18701,7 @@
         <v>centroid_name</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -18589,7 +18730,7 @@
         <v>Oslo</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -18618,7 +18759,7 @@
         <v>Skien</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -18647,7 +18788,7 @@
         <v>Kristiansand</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
@@ -18676,7 +18817,7 @@
         <v>Stavanger</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
@@ -18705,7 +18846,7 @@
         <v>Bergen</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
@@ -18734,7 +18875,7 @@
         <v>Førde</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -18763,7 +18904,7 @@
         <v>Ålesund</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6</v>
       </c>
@@ -18792,7 +18933,7 @@
         <v>Hamar</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6</v>
       </c>
@@ -18821,7 +18962,7 @@
         <v>Trondheim</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>8</v>
       </c>
@@ -18850,7 +18991,7 @@
         <v>Bodø</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>8</v>
       </c>
@@ -18879,7 +19020,7 @@
         <v>Narvik</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8</v>
       </c>
@@ -18911,7 +19052,7 @@
         <v>Tromsø</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>8</v>
       </c>
@@ -18943,7 +19084,7 @@
         <v>Alta</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>8</v>
       </c>
@@ -18975,7 +19116,7 @@
         <v>Umeå</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>8</v>
       </c>
@@ -19007,7 +19148,7 @@
         <v>Stockholm</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>8</v>
       </c>
@@ -19036,7 +19177,7 @@
         <v>Hamburg</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>8</v>
       </c>
@@ -19065,7 +19206,7 @@
         <v>World</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8</v>
       </c>
@@ -19094,7 +19235,7 @@
         <v>JohanSverdrupPlatform</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
@@ -19120,7 +19261,7 @@
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>9</v>
       </c>
@@ -19146,7 +19287,7 @@
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>9</v>
       </c>
@@ -19169,7 +19310,7 @@
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>9</v>
       </c>
@@ -19189,7 +19330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>9</v>
       </c>
@@ -19209,7 +19350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>9</v>
       </c>
@@ -19229,7 +19370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9</v>
       </c>
@@ -19249,7 +19390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>9</v>
       </c>
@@ -19269,7 +19410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>10</v>
       </c>
@@ -19292,7 +19433,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>10</v>
       </c>
@@ -19312,7 +19453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>10</v>
       </c>
@@ -19332,7 +19473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10</v>
       </c>
@@ -19352,7 +19493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10</v>
       </c>
@@ -19372,7 +19513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>11</v>
       </c>
@@ -19395,7 +19536,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>11</v>
       </c>
@@ -19415,7 +19556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>11</v>
       </c>
@@ -19435,7 +19576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>11</v>
       </c>
@@ -19455,7 +19596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>12</v>
       </c>
@@ -19475,7 +19616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>12</v>
       </c>
@@ -19495,7 +19636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>12</v>
       </c>
@@ -19515,7 +19656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>21</v>
       </c>
@@ -19535,7 +19676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>22</v>
       </c>
@@ -19555,7 +19696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>22</v>
       </c>
@@ -19575,7 +19716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>22</v>
       </c>
@@ -19595,7 +19736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>22</v>
       </c>
@@ -19618,7 +19759,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>22</v>
       </c>
@@ -19638,7 +19779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>23</v>
       </c>

--- a/Data/SPATIAL/spatial_data.xlsx
+++ b/Data/SPATIAL/spatial_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/STraM_ntnu_development/Data/SPATIAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{F74FBB8B-6408-4A75-B24C-CB2315E4B04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5BD0E2D-39D7-45AE-BCE8-46D45A786A7C}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{F74FBB8B-6408-4A75-B24C-CB2315E4B04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42CF1FD8-FC70-493D-883D-A143F4F75FC5}"/>
   <bookViews>
-    <workbookView xWindow="43200" yWindow="0" windowWidth="14400" windowHeight="23400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="zone_mapping" sheetId="1" r:id="rId1"/>
@@ -2745,7 +2745,13 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AEDD73BF-E41A-4EE7-85FC-107B35492075}" name="Table4" displayName="Table4" ref="A1:G60" totalsRowShown="0">
-  <autoFilter ref="A1:G60" xr:uid="{6D6305A7-A730-4DD3-8EBC-FBF0E1C256C3}"/>
+  <autoFilter ref="A1:G60" xr:uid="{6D6305A7-A730-4DD3-8EBC-FBF0E1C256C3}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Road"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G60">
     <sortCondition ref="A1:A60"/>
   </sortState>
@@ -3065,18 +3071,18 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="24.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="24.81640625" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3105,7 +3111,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>211</v>
       </c>
@@ -3131,7 +3137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>213</v>
       </c>
@@ -3157,7 +3163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>214</v>
       </c>
@@ -3183,7 +3189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>215</v>
       </c>
@@ -3209,7 +3215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>216</v>
       </c>
@@ -3235,7 +3241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>217</v>
       </c>
@@ -3261,7 +3267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>219</v>
       </c>
@@ -3287,7 +3293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>220</v>
       </c>
@@ -3313,7 +3319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>221</v>
       </c>
@@ -3339,7 +3345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>226</v>
       </c>
@@ -3365,7 +3371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>227</v>
       </c>
@@ -3391,7 +3397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>228</v>
       </c>
@@ -3417,7 +3423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>229</v>
       </c>
@@ -3443,7 +3449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>230</v>
       </c>
@@ -3469,7 +3475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>231</v>
       </c>
@@ -3495,7 +3501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>233</v>
       </c>
@@ -3521,7 +3527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>234</v>
       </c>
@@ -3547,7 +3553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>235</v>
       </c>
@@ -3573,7 +3579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>236</v>
       </c>
@@ -3599,7 +3605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>237</v>
       </c>
@@ -3625,7 +3631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>238</v>
       </c>
@@ -3651,7 +3657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>239</v>
       </c>
@@ -3677,7 +3683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>301</v>
       </c>
@@ -3703,7 +3709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>302</v>
       </c>
@@ -3729,7 +3735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>303</v>
       </c>
@@ -3755,7 +3761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>304</v>
       </c>
@@ -3781,7 +3787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>305</v>
       </c>
@@ -3807,7 +3813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>306</v>
       </c>
@@ -3833,7 +3839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>307</v>
       </c>
@@ -3859,7 +3865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>308</v>
       </c>
@@ -3885,7 +3891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>309</v>
       </c>
@@ -3911,7 +3917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>310</v>
       </c>
@@ -3937,7 +3943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>311</v>
       </c>
@@ -3963,7 +3969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>312</v>
       </c>
@@ -3989,7 +3995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>602</v>
       </c>
@@ -4015,7 +4021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>604</v>
       </c>
@@ -4041,7 +4047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>624</v>
       </c>
@@ -4067,7 +4073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>625</v>
       </c>
@@ -4093,7 +4099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>626</v>
       </c>
@@ -4119,7 +4125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>627</v>
       </c>
@@ -4145,7 +4151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>628</v>
       </c>
@@ -4171,7 +4177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>631</v>
       </c>
@@ -4197,7 +4203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>632</v>
       </c>
@@ -4223,7 +4229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>633</v>
       </c>
@@ -4249,7 +4255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>532</v>
       </c>
@@ -4275,7 +4281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>533</v>
       </c>
@@ -4301,7 +4307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>615</v>
       </c>
@@ -4327,7 +4333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>616</v>
       </c>
@@ -4353,7 +4359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>617</v>
       </c>
@@ -4379,7 +4385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>618</v>
       </c>
@@ -4405,7 +4411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>619</v>
       </c>
@@ -4431,7 +4437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>620</v>
       </c>
@@ -4457,7 +4463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>118</v>
       </c>
@@ -4483,7 +4489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>119</v>
       </c>
@@ -4509,7 +4515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>121</v>
       </c>
@@ -4535,7 +4541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>122</v>
       </c>
@@ -4561,7 +4567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>123</v>
       </c>
@@ -4587,7 +4593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>124</v>
       </c>
@@ -4613,7 +4619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>125</v>
       </c>
@@ -4639,7 +4645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>127</v>
       </c>
@@ -4665,7 +4671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>128</v>
       </c>
@@ -4691,7 +4697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>138</v>
       </c>
@@ -4717,7 +4723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>605</v>
       </c>
@@ -4743,7 +4749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>612</v>
       </c>
@@ -4769,7 +4775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>621</v>
       </c>
@@ -4795,7 +4801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>622</v>
       </c>
@@ -4821,7 +4827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>623</v>
       </c>
@@ -4847,7 +4853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>101</v>
       </c>
@@ -4873,7 +4879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>104</v>
       </c>
@@ -4899,7 +4905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>105</v>
       </c>
@@ -4925,7 +4931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>106</v>
       </c>
@@ -4951,7 +4957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>111</v>
       </c>
@@ -4977,7 +4983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>135</v>
       </c>
@@ -5003,7 +5009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>136</v>
       </c>
@@ -5029,7 +5035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>137</v>
       </c>
@@ -5055,7 +5061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>805</v>
       </c>
@@ -5081,7 +5087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>806</v>
       </c>
@@ -5107,7 +5113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>811</v>
       </c>
@@ -5133,7 +5139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>814</v>
       </c>
@@ -5159,7 +5165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>815</v>
       </c>
@@ -5185,7 +5191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>817</v>
       </c>
@@ -5211,7 +5217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>819</v>
       </c>
@@ -5237,7 +5243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>840</v>
       </c>
@@ -5263,7 +5269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>701</v>
       </c>
@@ -5289,7 +5295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>702</v>
       </c>
@@ -5315,7 +5321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>704</v>
       </c>
@@ -5341,7 +5347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>2101</v>
       </c>
@@ -5367,7 +5373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>706</v>
       </c>
@@ -5393,7 +5399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>709</v>
       </c>
@@ -5419,7 +5425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>711</v>
       </c>
@@ -5448,7 +5454,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>713</v>
       </c>
@@ -5474,7 +5480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>714</v>
       </c>
@@ -5500,7 +5506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>716</v>
       </c>
@@ -5526,7 +5532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>719</v>
       </c>
@@ -5552,7 +5558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>720</v>
       </c>
@@ -5578,7 +5584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>722</v>
       </c>
@@ -5604,7 +5610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>723</v>
       </c>
@@ -5630,7 +5636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>728</v>
       </c>
@@ -5656,7 +5662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>807</v>
       </c>
@@ -5682,7 +5688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>821</v>
       </c>
@@ -5708,7 +5714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>822</v>
       </c>
@@ -5734,7 +5740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>826</v>
       </c>
@@ -5760,7 +5766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>827</v>
       </c>
@@ -5786,7 +5792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>828</v>
       </c>
@@ -5812,7 +5818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>829</v>
       </c>
@@ -5838,7 +5844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>830</v>
       </c>
@@ -5864,7 +5870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>831</v>
       </c>
@@ -5890,7 +5896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>833</v>
       </c>
@@ -5916,7 +5922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>834</v>
       </c>
@@ -5942,7 +5948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>901</v>
       </c>
@@ -5968,7 +5974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>904</v>
       </c>
@@ -5994,7 +6000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>906</v>
       </c>
@@ -6020,7 +6026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>911</v>
       </c>
@@ -6046,7 +6052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>912</v>
       </c>
@@ -6072,7 +6078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>914</v>
       </c>
@@ -6098,7 +6104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>919</v>
       </c>
@@ -6124,7 +6130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>926</v>
       </c>
@@ -6150,7 +6156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>928</v>
       </c>
@@ -6176,7 +6182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>929</v>
       </c>
@@ -6202,7 +6208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>935</v>
       </c>
@@ -6228,7 +6234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>937</v>
       </c>
@@ -6254,7 +6260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>938</v>
       </c>
@@ -6280,7 +6286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>940</v>
       </c>
@@ -6306,7 +6312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>941</v>
       </c>
@@ -6332,7 +6338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>1002</v>
       </c>
@@ -6358,7 +6364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>1003</v>
       </c>
@@ -6384,7 +6390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>1004</v>
       </c>
@@ -6410,7 +6416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>1014</v>
       </c>
@@ -6436,7 +6442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>1017</v>
       </c>
@@ -6462,7 +6468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>1018</v>
       </c>
@@ -6488,7 +6494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>1021</v>
       </c>
@@ -6514,7 +6520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>1026</v>
       </c>
@@ -6540,7 +6546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>1027</v>
       </c>
@@ -6566,7 +6572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>1029</v>
       </c>
@@ -6592,7 +6598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>1032</v>
       </c>
@@ -6618,7 +6624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>1034</v>
       </c>
@@ -6644,7 +6650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>1037</v>
       </c>
@@ -6670,7 +6676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>1046</v>
       </c>
@@ -6696,7 +6702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>1071</v>
       </c>
@@ -6722,7 +6728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>1072</v>
       </c>
@@ -6748,7 +6754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>1073</v>
       </c>
@@ -6774,7 +6780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>1074</v>
       </c>
@@ -6800,7 +6806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>1075</v>
       </c>
@@ -6826,7 +6832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>1101</v>
       </c>
@@ -6852,7 +6858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>1102</v>
       </c>
@@ -6878,7 +6884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>1111</v>
       </c>
@@ -6904,7 +6910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>1112</v>
       </c>
@@ -6930,7 +6936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>1114</v>
       </c>
@@ -6956,7 +6962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>1119</v>
       </c>
@@ -6982,7 +6988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>1120</v>
       </c>
@@ -7008,7 +7014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>1121</v>
       </c>
@@ -7034,7 +7040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>1122</v>
       </c>
@@ -7060,7 +7066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>1124</v>
       </c>
@@ -7086,7 +7092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>1127</v>
       </c>
@@ -7112,7 +7118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>1129</v>
       </c>
@@ -7138,7 +7144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>1130</v>
       </c>
@@ -7164,7 +7170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>1133</v>
       </c>
@@ -7190,7 +7196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>1141</v>
       </c>
@@ -7216,7 +7222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>1142</v>
       </c>
@@ -7242,7 +7248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>1144</v>
       </c>
@@ -7268,7 +7274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>1171</v>
       </c>
@@ -7294,7 +7300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>1172</v>
       </c>
@@ -7320,7 +7326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>1173</v>
       </c>
@@ -7346,7 +7352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>1174</v>
       </c>
@@ -7372,7 +7378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>1175</v>
       </c>
@@ -7398,7 +7404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>1106</v>
       </c>
@@ -7424,7 +7430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>1134</v>
       </c>
@@ -7450,7 +7456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>1135</v>
       </c>
@@ -7476,7 +7482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>1145</v>
       </c>
@@ -7502,7 +7508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>1146</v>
       </c>
@@ -7528,7 +7534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>1149</v>
       </c>
@@ -7554,7 +7560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>1151</v>
       </c>
@@ -7580,7 +7586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>1154</v>
       </c>
@@ -7606,7 +7612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>1159</v>
       </c>
@@ -7632,7 +7638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>1241</v>
       </c>
@@ -7658,7 +7664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>1242</v>
       </c>
@@ -7684,7 +7690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>1243</v>
       </c>
@@ -7710,7 +7716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>1244</v>
       </c>
@@ -7736,7 +7742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>1245</v>
       </c>
@@ -7762,7 +7768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>1246</v>
       </c>
@@ -7788,7 +7794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>1247</v>
       </c>
@@ -7814,7 +7820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>1253</v>
       </c>
@@ -7840,7 +7846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>1256</v>
       </c>
@@ -7866,7 +7872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>1259</v>
       </c>
@@ -7892,7 +7898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>1260</v>
       </c>
@@ -7918,7 +7924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>1263</v>
       </c>
@@ -7944,7 +7950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>1264</v>
       </c>
@@ -7970,7 +7976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>1265</v>
       </c>
@@ -7996,7 +8002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>1266</v>
       </c>
@@ -8022,7 +8028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>1271</v>
       </c>
@@ -8048,7 +8054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>1272</v>
       </c>
@@ -8074,7 +8080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>1273</v>
       </c>
@@ -8100,7 +8106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>1274</v>
       </c>
@@ -8126,7 +8132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>1275</v>
       </c>
@@ -8152,7 +8158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>1276</v>
       </c>
@@ -8178,7 +8184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>1277</v>
       </c>
@@ -8204,7 +8210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>1224</v>
       </c>
@@ -8230,7 +8236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>1227</v>
       </c>
@@ -8256,7 +8262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>1228</v>
       </c>
@@ -8282,7 +8288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>1231</v>
       </c>
@@ -8308,7 +8314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>1232</v>
       </c>
@@ -8334,7 +8340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>1238</v>
       </c>
@@ -8360,7 +8366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>1211</v>
       </c>
@@ -8386,7 +8392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>1216</v>
       </c>
@@ -8412,7 +8418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>1219</v>
       </c>
@@ -8438,7 +8444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>1221</v>
       </c>
@@ -8464,7 +8470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>1222</v>
       </c>
@@ -8490,7 +8496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>1223</v>
       </c>
@@ -8516,7 +8522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>1233</v>
       </c>
@@ -8542,7 +8548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>1234</v>
       </c>
@@ -8568,7 +8574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>1235</v>
       </c>
@@ -8594,7 +8600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>1251</v>
       </c>
@@ -8620,7 +8626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>1252</v>
       </c>
@@ -8646,7 +8652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>1401</v>
       </c>
@@ -8672,7 +8678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>1411</v>
       </c>
@@ -8698,7 +8704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>1412</v>
       </c>
@@ -8724,7 +8730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>1413</v>
       </c>
@@ -8750,7 +8756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>1416</v>
       </c>
@@ -8776,7 +8782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>1418</v>
       </c>
@@ -8802,7 +8808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>1428</v>
       </c>
@@ -8828,7 +8834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>1429</v>
       </c>
@@ -8854,7 +8860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>1430</v>
       </c>
@@ -8880,7 +8886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>1431</v>
       </c>
@@ -8906,7 +8912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>1432</v>
       </c>
@@ -8932,7 +8938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>1433</v>
       </c>
@@ -8958,7 +8964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>1438</v>
       </c>
@@ -8984,7 +8990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>1439</v>
       </c>
@@ -9010,7 +9016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>1441</v>
       </c>
@@ -9036,7 +9042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>1443</v>
       </c>
@@ -9062,7 +9068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>1444</v>
       </c>
@@ -9091,7 +9097,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>1445</v>
       </c>
@@ -9117,7 +9123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>1449</v>
       </c>
@@ -9143,7 +9149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>1417</v>
       </c>
@@ -9169,7 +9175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>1419</v>
       </c>
@@ -9195,7 +9201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>1420</v>
       </c>
@@ -9221,7 +9227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>1421</v>
       </c>
@@ -9247,7 +9253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>1422</v>
       </c>
@@ -9273,7 +9279,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>1424</v>
       </c>
@@ -9299,7 +9305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>1426</v>
       </c>
@@ -9325,7 +9331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>1503</v>
       </c>
@@ -9351,7 +9357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>1554</v>
       </c>
@@ -9377,7 +9383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>1556</v>
       </c>
@@ -9403,7 +9409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>1560</v>
       </c>
@@ -9429,7 +9435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>1563</v>
       </c>
@@ -9455,7 +9461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>1566</v>
       </c>
@@ -9481,7 +9487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>1569</v>
       </c>
@@ -9507,7 +9513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>1571</v>
       </c>
@@ -9536,7 +9542,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>1572</v>
       </c>
@@ -9562,7 +9568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>1573</v>
       </c>
@@ -9588,7 +9594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>1502</v>
       </c>
@@ -9614,7 +9620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>1535</v>
       </c>
@@ -9640,7 +9646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>1539</v>
       </c>
@@ -9666,7 +9672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>1543</v>
       </c>
@@ -9692,7 +9698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>1545</v>
       </c>
@@ -9718,7 +9724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>1546</v>
       </c>
@@ -9744,7 +9750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>1547</v>
       </c>
@@ -9770,7 +9776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>1548</v>
       </c>
@@ -9796,7 +9802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>1551</v>
       </c>
@@ -9822,7 +9828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>1557</v>
       </c>
@@ -9848,7 +9854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>1504</v>
       </c>
@@ -9874,7 +9880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>1511</v>
       </c>
@@ -9900,7 +9906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>1514</v>
       </c>
@@ -9926,7 +9932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>1515</v>
       </c>
@@ -9952,7 +9958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>1516</v>
       </c>
@@ -9978,7 +9984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>1517</v>
       </c>
@@ -10004,7 +10010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>1519</v>
       </c>
@@ -10030,7 +10036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>1520</v>
       </c>
@@ -10056,7 +10062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>1523</v>
       </c>
@@ -10082,7 +10088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>1524</v>
       </c>
@@ -10108,7 +10114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>1525</v>
       </c>
@@ -10134,7 +10140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>1526</v>
       </c>
@@ -10160,7 +10166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>1528</v>
       </c>
@@ -10186,7 +10192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>1529</v>
       </c>
@@ -10212,7 +10218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>1531</v>
       </c>
@@ -10238,7 +10244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>1532</v>
       </c>
@@ -10264,7 +10270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>1534</v>
       </c>
@@ -10290,7 +10296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>402</v>
       </c>
@@ -10316,7 +10322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>418</v>
       </c>
@@ -10342,7 +10348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>419</v>
       </c>
@@ -10368,7 +10374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>420</v>
       </c>
@@ -10394,7 +10400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>423</v>
       </c>
@@ -10420,7 +10426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>425</v>
       </c>
@@ -10446,7 +10452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>426</v>
       </c>
@@ -10472,7 +10478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>511</v>
       </c>
@@ -10498,7 +10504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>512</v>
       </c>
@@ -10524,7 +10530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>513</v>
       </c>
@@ -10550,7 +10556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>514</v>
       </c>
@@ -10576,7 +10582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>515</v>
       </c>
@@ -10602,7 +10608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>516</v>
       </c>
@@ -10628,7 +10634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>517</v>
       </c>
@@ -10654,7 +10660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>519</v>
       </c>
@@ -10680,7 +10686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>520</v>
       </c>
@@ -10706,7 +10712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>534</v>
       </c>
@@ -10732,7 +10738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>403</v>
       </c>
@@ -10758,7 +10764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>412</v>
       </c>
@@ -10784,7 +10790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>415</v>
       </c>
@@ -10810,7 +10816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>417</v>
       </c>
@@ -10836,7 +10842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>427</v>
       </c>
@@ -10862,7 +10868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>501</v>
       </c>
@@ -10888,7 +10894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>502</v>
       </c>
@@ -10914,7 +10920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>521</v>
       </c>
@@ -10940,7 +10946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>522</v>
       </c>
@@ -10966,7 +10972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>528</v>
       </c>
@@ -10992,7 +10998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>529</v>
       </c>
@@ -11018,7 +11024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>536</v>
       </c>
@@ -11044,7 +11050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>538</v>
       </c>
@@ -11070,7 +11076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>540</v>
       </c>
@@ -11096,7 +11102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>541</v>
       </c>
@@ -11122,7 +11128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>542</v>
       </c>
@@ -11148,7 +11154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>543</v>
       </c>
@@ -11174,7 +11180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>544</v>
       </c>
@@ -11200,7 +11206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>545</v>
       </c>
@@ -11226,7 +11232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>428</v>
       </c>
@@ -11252,7 +11258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>429</v>
       </c>
@@ -11278,7 +11284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>430</v>
       </c>
@@ -11304,7 +11310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>432</v>
       </c>
@@ -11330,7 +11336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>434</v>
       </c>
@@ -11356,7 +11362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>436</v>
       </c>
@@ -11382,7 +11388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>437</v>
       </c>
@@ -11408,7 +11414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>438</v>
       </c>
@@ -11434,7 +11440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>439</v>
       </c>
@@ -11460,7 +11466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>441</v>
       </c>
@@ -11486,7 +11492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>1621</v>
       </c>
@@ -11512,7 +11518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>1624</v>
       </c>
@@ -11538,7 +11544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>1627</v>
       </c>
@@ -11564,7 +11570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>1630</v>
       </c>
@@ -11590,7 +11596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>1632</v>
       </c>
@@ -11616,7 +11622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>1633</v>
       </c>
@@ -11642,7 +11648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>1567</v>
       </c>
@@ -11668,7 +11674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>1702</v>
       </c>
@@ -11694,7 +11700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>1703</v>
       </c>
@@ -11720,7 +11726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>1711</v>
       </c>
@@ -11746,7 +11752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>1714</v>
       </c>
@@ -11772,7 +11778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>1717</v>
       </c>
@@ -11798,7 +11804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>1718</v>
       </c>
@@ -11824,7 +11830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>1719</v>
       </c>
@@ -11850,7 +11856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>1721</v>
       </c>
@@ -11876,7 +11882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>1723</v>
       </c>
@@ -11902,7 +11908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>1724</v>
       </c>
@@ -11928,7 +11934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>1725</v>
       </c>
@@ -11954,7 +11960,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>1729</v>
       </c>
@@ -11980,7 +11986,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>1736</v>
       </c>
@@ -12006,7 +12012,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>1738</v>
       </c>
@@ -12032,7 +12038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>1739</v>
       </c>
@@ -12058,7 +12064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>1740</v>
       </c>
@@ -12084,7 +12090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>1742</v>
       </c>
@@ -12110,7 +12116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>1743</v>
       </c>
@@ -12136,7 +12142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>1744</v>
       </c>
@@ -12162,7 +12168,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>1748</v>
       </c>
@@ -12188,7 +12194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>1749</v>
       </c>
@@ -12214,7 +12220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>1750</v>
       </c>
@@ -12240,7 +12246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>1751</v>
       </c>
@@ -12266,7 +12272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>1755</v>
       </c>
@@ -12292,7 +12298,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>1612</v>
       </c>
@@ -12318,7 +12324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>1613</v>
       </c>
@@ -12344,7 +12350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>1617</v>
       </c>
@@ -12370,7 +12376,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>1620</v>
       </c>
@@ -12396,7 +12402,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>1622</v>
       </c>
@@ -12422,7 +12428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>1634</v>
       </c>
@@ -12448,7 +12454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>1635</v>
       </c>
@@ -12474,7 +12480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>1636</v>
       </c>
@@ -12500,7 +12506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>1638</v>
       </c>
@@ -12526,7 +12532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>1640</v>
       </c>
@@ -12552,7 +12558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>1644</v>
       </c>
@@ -12578,7 +12584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>1648</v>
       </c>
@@ -12604,7 +12610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>1653</v>
       </c>
@@ -12630,7 +12636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>1657</v>
       </c>
@@ -12656,7 +12662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>1662</v>
       </c>
@@ -12682,7 +12688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>1663</v>
       </c>
@@ -12708,7 +12714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>1664</v>
       </c>
@@ -12734,7 +12740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>1665</v>
       </c>
@@ -12760,7 +12766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>1671</v>
       </c>
@@ -12786,7 +12792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>1672</v>
       </c>
@@ -12812,7 +12818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>1673</v>
       </c>
@@ -12838,7 +12844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>1674</v>
       </c>
@@ -12864,7 +12870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>1675</v>
       </c>
@@ -12890,7 +12896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>1676</v>
       </c>
@@ -12916,7 +12922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>1677</v>
       </c>
@@ -12942,7 +12948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>1678</v>
       </c>
@@ -12968,7 +12974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>1811</v>
       </c>
@@ -12994,7 +13000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>1812</v>
       </c>
@@ -13020,7 +13026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>1813</v>
       </c>
@@ -13046,7 +13052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>1815</v>
       </c>
@@ -13072,7 +13078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>1816</v>
       </c>
@@ -13098,7 +13104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>1818</v>
       </c>
@@ -13124,7 +13130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>1820</v>
       </c>
@@ -13150,7 +13156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>1822</v>
       </c>
@@ -13176,7 +13182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>1824</v>
       </c>
@@ -13202,7 +13208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>1825</v>
       </c>
@@ -13228,7 +13234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>1826</v>
       </c>
@@ -13254,7 +13260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>1827</v>
       </c>
@@ -13280,7 +13286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>1828</v>
       </c>
@@ -13306,7 +13312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>1832</v>
       </c>
@@ -13332,7 +13338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>1833</v>
       </c>
@@ -13358,7 +13364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>1834</v>
       </c>
@@ -13384,7 +13390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>1835</v>
       </c>
@@ -13410,7 +13416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>1836</v>
       </c>
@@ -13436,7 +13442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>1880</v>
       </c>
@@ -13462,7 +13468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>1804</v>
       </c>
@@ -13488,7 +13494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>1837</v>
       </c>
@@ -13514,7 +13520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>1838</v>
       </c>
@@ -13540,7 +13546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>1839</v>
       </c>
@@ -13566,7 +13572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>1840</v>
       </c>
@@ -13592,7 +13598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>1841</v>
       </c>
@@ -13618,7 +13624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>1842</v>
       </c>
@@ -13644,7 +13650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>1845</v>
       </c>
@@ -13670,7 +13676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>1848</v>
       </c>
@@ -13696,7 +13702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>1849</v>
       </c>
@@ -13722,7 +13728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>1805</v>
       </c>
@@ -13748,7 +13754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>1850</v>
       </c>
@@ -13774,7 +13780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>1851</v>
       </c>
@@ -13800,7 +13806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>1852</v>
       </c>
@@ -13826,7 +13832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>1853</v>
       </c>
@@ -13852,7 +13858,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A415">
         <v>1854</v>
       </c>
@@ -13878,7 +13884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A416">
         <v>1856</v>
       </c>
@@ -13904,7 +13910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A417">
         <v>1857</v>
       </c>
@@ -13930,7 +13936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A418">
         <v>1859</v>
       </c>
@@ -13956,7 +13962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A419">
         <v>1860</v>
       </c>
@@ -13982,7 +13988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A420">
         <v>1865</v>
       </c>
@@ -14008,7 +14014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A421">
         <v>1866</v>
       </c>
@@ -14034,7 +14040,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A422">
         <v>1867</v>
       </c>
@@ -14060,7 +14066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A423">
         <v>1868</v>
       </c>
@@ -14086,7 +14092,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A424">
         <v>1870</v>
       </c>
@@ -14112,7 +14118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A425">
         <v>1871</v>
       </c>
@@ -14138,7 +14144,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A426">
         <v>1874</v>
       </c>
@@ -14164,7 +14170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A427">
         <v>1901</v>
       </c>
@@ -14190,7 +14196,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A428">
         <v>1911</v>
       </c>
@@ -14216,7 +14222,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A429">
         <v>1913</v>
       </c>
@@ -14242,7 +14248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A430">
         <v>1915</v>
       </c>
@@ -14268,7 +14274,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A431">
         <v>1917</v>
       </c>
@@ -14294,7 +14300,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A432">
         <v>1919</v>
       </c>
@@ -14320,7 +14326,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A433">
         <v>1920</v>
       </c>
@@ -14346,7 +14352,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A434">
         <v>1922</v>
       </c>
@@ -14372,7 +14378,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A435">
         <v>1923</v>
       </c>
@@ -14398,7 +14404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A436">
         <v>1924</v>
       </c>
@@ -14424,7 +14430,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A437">
         <v>1925</v>
       </c>
@@ -14450,7 +14456,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A438">
         <v>1926</v>
       </c>
@@ -14476,7 +14482,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A439">
         <v>1927</v>
       </c>
@@ -14502,7 +14508,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A440">
         <v>1928</v>
       </c>
@@ -14528,7 +14534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A441">
         <v>1929</v>
       </c>
@@ -14554,7 +14560,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A442">
         <v>1931</v>
       </c>
@@ -14580,7 +14586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A443">
         <v>1933</v>
       </c>
@@ -14606,7 +14612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A444">
         <v>1936</v>
       </c>
@@ -14632,7 +14638,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A445">
         <v>1938</v>
       </c>
@@ -14658,7 +14664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A446">
         <v>1939</v>
       </c>
@@ -14684,7 +14690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A447">
         <v>1940</v>
       </c>
@@ -14710,7 +14716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A448">
         <v>1941</v>
       </c>
@@ -14736,7 +14742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A449">
         <v>1942</v>
       </c>
@@ -14762,7 +14768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A450">
         <v>1943</v>
       </c>
@@ -14788,7 +14794,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A451">
         <v>1971</v>
       </c>
@@ -14814,7 +14820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A452">
         <v>1972</v>
       </c>
@@ -14840,7 +14846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A453">
         <v>1973</v>
       </c>
@@ -14866,7 +14872,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A454">
         <v>1974</v>
       </c>
@@ -14892,7 +14898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A455">
         <v>2004</v>
       </c>
@@ -14918,7 +14924,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A456">
         <v>2011</v>
       </c>
@@ -14944,7 +14950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A457">
         <v>2012</v>
       </c>
@@ -14970,7 +14976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A458">
         <v>2014</v>
       </c>
@@ -14996,7 +15002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A459">
         <v>2015</v>
       </c>
@@ -15022,7 +15028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A460">
         <v>2017</v>
       </c>
@@ -15048,7 +15054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A461">
         <v>2018</v>
       </c>
@@ -15074,7 +15080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A462">
         <v>2019</v>
       </c>
@@ -15100,7 +15106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A463">
         <v>2020</v>
       </c>
@@ -15126,7 +15132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A464">
         <v>2021</v>
       </c>
@@ -15152,7 +15158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A465">
         <v>2002</v>
       </c>
@@ -15178,7 +15184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A466">
         <v>2003</v>
       </c>
@@ -15204,7 +15210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A467">
         <v>2022</v>
       </c>
@@ -15230,7 +15236,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A468">
         <v>2023</v>
       </c>
@@ -15256,7 +15262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A469">
         <v>2024</v>
       </c>
@@ -15282,7 +15288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A470">
         <v>2025</v>
       </c>
@@ -15308,7 +15314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A471">
         <v>2027</v>
       </c>
@@ -15334,7 +15340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A472">
         <v>2028</v>
       </c>
@@ -15360,7 +15366,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A473">
         <v>2030</v>
       </c>
@@ -15386,7 +15392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A474">
         <v>61</v>
       </c>
@@ -15412,7 +15418,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A475">
         <v>62</v>
       </c>
@@ -15438,7 +15444,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A476">
         <v>51</v>
       </c>
@@ -15464,7 +15470,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A477">
         <v>53</v>
       </c>
@@ -15490,7 +15496,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A478">
         <v>58</v>
       </c>
@@ -15516,7 +15522,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A479">
         <v>52</v>
       </c>
@@ -15542,7 +15548,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A480">
         <v>57</v>
       </c>
@@ -15568,7 +15574,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A481">
         <v>59</v>
       </c>
@@ -15594,7 +15600,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A482">
         <v>50</v>
       </c>
@@ -15620,7 +15626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A483">
         <v>54</v>
       </c>
@@ -15646,7 +15652,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A484">
         <v>55</v>
       </c>
@@ -15672,7 +15678,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A485">
         <v>56</v>
       </c>
@@ -15698,7 +15704,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A486">
         <v>60</v>
       </c>
@@ -15724,7 +15730,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A487">
         <v>5800</v>
       </c>
@@ -15750,7 +15756,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A488">
         <v>5810</v>
       </c>
@@ -15776,7 +15782,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A489">
         <v>5820</v>
       </c>
@@ -15802,7 +15808,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A490">
         <v>5831</v>
       </c>
@@ -15828,7 +15834,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A491">
         <v>5835</v>
       </c>
@@ -15854,7 +15860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A492">
         <v>3001</v>
       </c>
@@ -15880,7 +15886,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A493">
         <v>3002</v>
       </c>
@@ -15906,7 +15912,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A494">
         <v>3003</v>
       </c>
@@ -15932,7 +15938,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A495">
         <v>4001</v>
       </c>
@@ -15958,7 +15964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A496">
         <v>4002</v>
       </c>
@@ -15984,7 +15990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A497">
         <v>4003</v>
       </c>
@@ -16010,7 +16016,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A498">
         <v>4004</v>
       </c>
@@ -16036,7 +16042,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A499">
         <v>4005</v>
       </c>
@@ -16062,7 +16068,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A500">
         <v>5101</v>
       </c>
@@ -16088,7 +16094,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A501">
         <v>5102</v>
       </c>
@@ -16114,7 +16120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A502">
         <v>5103</v>
       </c>
@@ -16140,7 +16146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A503">
         <v>5104</v>
       </c>
@@ -16166,7 +16172,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A504">
         <v>5105</v>
       </c>
@@ -16192,7 +16198,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A505">
         <v>5106</v>
       </c>
@@ -16218,7 +16224,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A506">
         <v>5201</v>
       </c>
@@ -16244,7 +16250,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A507">
         <v>5202</v>
       </c>
@@ -16270,7 +16276,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A508">
         <v>5203</v>
       </c>
@@ -16296,7 +16302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A509">
         <v>5204</v>
       </c>
@@ -16322,7 +16328,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A510">
         <v>5302</v>
       </c>
@@ -16348,7 +16354,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A511">
         <v>5402</v>
       </c>
@@ -16374,7 +16380,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A512">
         <v>5403</v>
       </c>
@@ -16400,7 +16406,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A513">
         <v>5404</v>
       </c>
@@ -16426,7 +16432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A514">
         <v>5501</v>
       </c>
@@ -16452,7 +16458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A515">
         <v>5502</v>
       </c>
@@ -16478,7 +16484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A516">
         <v>5605</v>
       </c>
@@ -16504,7 +16510,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A517">
         <v>5606</v>
       </c>
@@ -16530,7 +16536,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A518">
         <v>5607</v>
       </c>
@@ -16556,7 +16562,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A519">
         <v>5700</v>
       </c>
@@ -16582,7 +16588,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A520">
         <v>5701</v>
       </c>
@@ -16608,7 +16614,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A521">
         <v>5710</v>
       </c>
@@ -16634,7 +16640,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A522">
         <v>5720</v>
       </c>
@@ -16660,7 +16666,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A523">
         <v>5730</v>
       </c>
@@ -16686,7 +16692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A524">
         <v>5740</v>
       </c>
@@ -16712,7 +16718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A525">
         <v>5750</v>
       </c>
@@ -16738,7 +16744,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A526">
         <v>5760</v>
       </c>
@@ -16764,7 +16770,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A527">
         <v>5770</v>
       </c>
@@ -16790,7 +16796,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A528">
         <v>5780</v>
       </c>
@@ -16816,7 +16822,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A529">
         <v>5790</v>
       </c>
@@ -16842,7 +16848,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A530">
         <v>5830</v>
       </c>
@@ -16868,7 +16874,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A531">
         <v>5840</v>
       </c>
@@ -16894,7 +16900,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A532">
         <v>5841</v>
       </c>
@@ -16920,7 +16926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A533">
         <v>5842</v>
       </c>
@@ -16946,7 +16952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A534">
         <v>5850</v>
       </c>
@@ -16972,7 +16978,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A535">
         <v>5860</v>
       </c>
@@ -16998,7 +17004,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A536">
         <v>5870</v>
       </c>
@@ -17024,7 +17030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A537">
         <v>5880</v>
       </c>
@@ -17050,7 +17056,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A538">
         <v>5881</v>
       </c>
@@ -17076,7 +17082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A539">
         <v>5890</v>
       </c>
@@ -17102,7 +17108,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A540">
         <v>5900</v>
       </c>
@@ -17128,7 +17134,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A541">
         <v>5910</v>
       </c>
@@ -17154,7 +17160,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A542">
         <v>5920</v>
       </c>
@@ -17180,7 +17186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A543">
         <v>5930</v>
       </c>
@@ -17206,7 +17212,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A544">
         <v>6000</v>
       </c>
@@ -17232,7 +17238,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A545">
         <v>6010</v>
       </c>
@@ -17258,7 +17264,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A546">
         <v>6020</v>
       </c>
@@ -17284,7 +17290,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A547">
         <v>6030</v>
       </c>
@@ -17310,7 +17316,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A548">
         <v>6040</v>
       </c>
@@ -17336,7 +17342,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A549">
         <v>6050</v>
       </c>
@@ -17362,7 +17368,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A550">
         <v>2301</v>
       </c>
@@ -17388,7 +17394,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A551">
         <v>2302</v>
       </c>
@@ -17414,7 +17420,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A552">
         <v>2303</v>
       </c>
@@ -17440,7 +17446,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A553">
         <v>2304</v>
       </c>
@@ -17466,7 +17472,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A554">
         <v>2305</v>
       </c>
@@ -17492,7 +17498,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A555">
         <v>2306</v>
       </c>
@@ -17531,22 +17537,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5741E99B-737E-4634-B318-C7C2DDFE7401}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.28515625" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.26953125" customWidth="1"/>
+    <col min="14" max="14" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>635</v>
       </c>
@@ -17590,7 +17596,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17631,7 +17637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -17672,7 +17678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -17713,7 +17719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -17754,7 +17760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -17795,7 +17801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -17839,7 +17845,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -17880,7 +17886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -17924,7 +17930,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -17965,7 +17971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -18006,7 +18012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -18047,7 +18053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -18088,7 +18094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -18132,7 +18138,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>21</v>
       </c>
@@ -18173,7 +18179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>22</v>
       </c>
@@ -18214,7 +18220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>23</v>
       </c>
@@ -18258,7 +18264,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>24</v>
       </c>
@@ -18299,7 +18305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>25</v>
       </c>
@@ -18354,23 +18360,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A56265-210A-4263-A3EA-18E110BB8B83}">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" customWidth="1"/>
-    <col min="13" max="13" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.81640625" customWidth="1"/>
+    <col min="13" max="13" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>649</v>
       </c>
@@ -18393,7 +18399,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18419,7 +18425,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -18439,7 +18445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -18462,7 +18468,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -18482,7 +18488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -18502,7 +18508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
@@ -18522,7 +18528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
@@ -18542,7 +18548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
@@ -18565,7 +18571,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2</v>
       </c>
@@ -18588,7 +18594,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2</v>
       </c>
@@ -18608,7 +18614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2</v>
       </c>
@@ -18628,7 +18634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>3</v>
       </c>
@@ -18651,7 +18657,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3</v>
       </c>
@@ -18671,7 +18677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>3</v>
       </c>
@@ -18701,7 +18707,7 @@
         <v>centroid_name</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>3</v>
       </c>
@@ -18730,7 +18736,7 @@
         <v>Oslo</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>4</v>
       </c>
@@ -18759,7 +18765,7 @@
         <v>Skien</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>4</v>
       </c>
@@ -18788,7 +18794,7 @@
         <v>Kristiansand</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>4</v>
       </c>
@@ -18817,7 +18823,7 @@
         <v>Stavanger</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>5</v>
       </c>
@@ -18846,7 +18852,7 @@
         <v>Bergen</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>5</v>
       </c>
@@ -18875,7 +18881,7 @@
         <v>Førde</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>5</v>
       </c>
@@ -18904,7 +18910,7 @@
         <v>Ålesund</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>6</v>
       </c>
@@ -18933,7 +18939,7 @@
         <v>Hamar</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>6</v>
       </c>
@@ -18962,7 +18968,7 @@
         <v>Trondheim</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>8</v>
       </c>
@@ -18991,7 +18997,7 @@
         <v>Bodø</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>8</v>
       </c>
@@ -19020,7 +19026,7 @@
         <v>Narvik</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>8</v>
       </c>
@@ -19052,7 +19058,7 @@
         <v>Tromsø</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>8</v>
       </c>
@@ -19084,7 +19090,7 @@
         <v>Alta</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>8</v>
       </c>
@@ -19116,7 +19122,7 @@
         <v>Umeå</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>8</v>
       </c>
@@ -19148,7 +19154,7 @@
         <v>Stockholm</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>8</v>
       </c>
@@ -19177,7 +19183,7 @@
         <v>Hamburg</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>8</v>
       </c>
@@ -19206,7 +19212,7 @@
         <v>World</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>8</v>
       </c>
@@ -19235,7 +19241,7 @@
         <v>JohanSverdrupPlatform</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>9</v>
       </c>
@@ -19261,7 +19267,7 @@
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>9</v>
       </c>
@@ -19287,7 +19293,7 @@
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>9</v>
       </c>
@@ -19310,7 +19316,7 @@
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>9</v>
       </c>
@@ -19330,7 +19336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>9</v>
       </c>
@@ -19350,7 +19356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>9</v>
       </c>
@@ -19370,7 +19376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>9</v>
       </c>
@@ -19390,7 +19396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>9</v>
       </c>
@@ -19410,7 +19416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>10</v>
       </c>
@@ -19433,7 +19439,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>10</v>
       </c>
@@ -19453,7 +19459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>10</v>
       </c>
@@ -19473,7 +19479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>10</v>
       </c>
@@ -19493,7 +19499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>10</v>
       </c>
@@ -19513,7 +19519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>11</v>
       </c>
@@ -19536,7 +19542,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>11</v>
       </c>
@@ -19556,7 +19562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>11</v>
       </c>
@@ -19576,7 +19582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>11</v>
       </c>
@@ -19596,7 +19602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>12</v>
       </c>
@@ -19616,7 +19622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>12</v>
       </c>
@@ -19636,7 +19642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>12</v>
       </c>
@@ -19656,7 +19662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>21</v>
       </c>
@@ -19676,7 +19682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>22</v>
       </c>
@@ -19696,7 +19702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>22</v>
       </c>
@@ -19716,7 +19722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>22</v>
       </c>
@@ -19736,7 +19742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>22</v>
       </c>
@@ -19759,7 +19765,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>22</v>
       </c>
@@ -19779,7 +19785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>23</v>
       </c>
@@ -19813,23 +19819,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1d2ad661-40b4-4211-810e-9f8311f21e61" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085DB58C8134B304E8722528DF46508C9" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="80174008b946241598c9c4dc1e838b4b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1d2ad661-40b4-4211-810e-9f8311f21e61" xmlns:ns4="e3bebc04-41cd-4c9b-8948-0bf19cce4780" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="83c7d99240e58c9b66f78776c092749e" ns3:_="" ns4:_="">
     <xsd:import namespace="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
@@ -20070,10 +20059,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1d2ad661-40b4-4211-810e-9f8311f21e61" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25E92F15-5C9E-4743-BBCA-DF2A8E467494}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36DD76E4-C162-4392-939E-9C4A48CBB9A8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
+    <ds:schemaRef ds:uri="e3bebc04-41cd-4c9b-8948-0bf19cce4780"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20096,20 +20113,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36DD76E4-C162-4392-939E-9C4A48CBB9A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25E92F15-5C9E-4743-BBCA-DF2A8E467494}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
-    <ds:schemaRef ds:uri="e3bebc04-41cd-4c9b-8948-0bf19cce4780"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Data/SPATIAL/spatial_data.xlsx
+++ b/Data/SPATIAL/spatial_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/STraM_ntnu_development/Data/SPATIAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{F74FBB8B-6408-4A75-B24C-CB2315E4B04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42CF1FD8-FC70-493D-883D-A143F4F75FC5}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{F74FBB8B-6408-4A75-B24C-CB2315E4B04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD6CA7D5-DC67-40C0-9053-918CAF7FE2F7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="zone_mapping" sheetId="1" r:id="rId1"/>
@@ -2745,15 +2745,9 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AEDD73BF-E41A-4EE7-85FC-107B35492075}" name="Table4" displayName="Table4" ref="A1:G60" totalsRowShown="0">
-  <autoFilter ref="A1:G60" xr:uid="{6D6305A7-A730-4DD3-8EBC-FBF0E1C256C3}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Road"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G60" xr:uid="{6D6305A7-A730-4DD3-8EBC-FBF0E1C256C3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G60">
-    <sortCondition ref="A1:A60"/>
+    <sortCondition ref="D1:D60"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{8A31FB3B-9B77-4817-8BFB-20D7FE420F9E}" name="From"/>
@@ -3071,18 +3065,18 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="32.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="24.81640625" customWidth="1"/>
-    <col min="7" max="7" width="11.7265625" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3111,7 +3105,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>211</v>
       </c>
@@ -3137,7 +3131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>213</v>
       </c>
@@ -3163,7 +3157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>214</v>
       </c>
@@ -3189,7 +3183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>215</v>
       </c>
@@ -3215,7 +3209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>216</v>
       </c>
@@ -3241,7 +3235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>217</v>
       </c>
@@ -3267,7 +3261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>219</v>
       </c>
@@ -3293,7 +3287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>220</v>
       </c>
@@ -3319,7 +3313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>221</v>
       </c>
@@ -3345,7 +3339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>226</v>
       </c>
@@ -3371,7 +3365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>227</v>
       </c>
@@ -3397,7 +3391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>228</v>
       </c>
@@ -3423,7 +3417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>229</v>
       </c>
@@ -3449,7 +3443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>230</v>
       </c>
@@ -3475,7 +3469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>231</v>
       </c>
@@ -3501,7 +3495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>233</v>
       </c>
@@ -3527,7 +3521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>234</v>
       </c>
@@ -3553,7 +3547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>235</v>
       </c>
@@ -3579,7 +3573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>236</v>
       </c>
@@ -3605,7 +3599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>237</v>
       </c>
@@ -3631,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>238</v>
       </c>
@@ -3657,7 +3651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>239</v>
       </c>
@@ -3683,7 +3677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>301</v>
       </c>
@@ -3709,7 +3703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>302</v>
       </c>
@@ -3735,7 +3729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>303</v>
       </c>
@@ -3761,7 +3755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>304</v>
       </c>
@@ -3787,7 +3781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>305</v>
       </c>
@@ -3813,7 +3807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>306</v>
       </c>
@@ -3839,7 +3833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>307</v>
       </c>
@@ -3865,7 +3859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>308</v>
       </c>
@@ -3891,7 +3885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>309</v>
       </c>
@@ -3917,7 +3911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>310</v>
       </c>
@@ -3943,7 +3937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>311</v>
       </c>
@@ -3969,7 +3963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>312</v>
       </c>
@@ -3995,7 +3989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>602</v>
       </c>
@@ -4021,7 +4015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>604</v>
       </c>
@@ -4047,7 +4041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>624</v>
       </c>
@@ -4073,7 +4067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>625</v>
       </c>
@@ -4099,7 +4093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>626</v>
       </c>
@@ -4125,7 +4119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>627</v>
       </c>
@@ -4151,7 +4145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>628</v>
       </c>
@@ -4177,7 +4171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>631</v>
       </c>
@@ -4203,7 +4197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>632</v>
       </c>
@@ -4229,7 +4223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>633</v>
       </c>
@@ -4255,7 +4249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>532</v>
       </c>
@@ -4281,7 +4275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>533</v>
       </c>
@@ -4307,7 +4301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>615</v>
       </c>
@@ -4333,7 +4327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>616</v>
       </c>
@@ -4359,7 +4353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>617</v>
       </c>
@@ -4385,7 +4379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>618</v>
       </c>
@@ -4411,7 +4405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>619</v>
       </c>
@@ -4437,7 +4431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>620</v>
       </c>
@@ -4463,7 +4457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>118</v>
       </c>
@@ -4489,7 +4483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>119</v>
       </c>
@@ -4515,7 +4509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>121</v>
       </c>
@@ -4541,7 +4535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>122</v>
       </c>
@@ -4567,7 +4561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>123</v>
       </c>
@@ -4593,7 +4587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>124</v>
       </c>
@@ -4619,7 +4613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>125</v>
       </c>
@@ -4645,7 +4639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>127</v>
       </c>
@@ -4671,7 +4665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>128</v>
       </c>
@@ -4697,7 +4691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>138</v>
       </c>
@@ -4723,7 +4717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>605</v>
       </c>
@@ -4749,7 +4743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>612</v>
       </c>
@@ -4775,7 +4769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>621</v>
       </c>
@@ -4801,7 +4795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>622</v>
       </c>
@@ -4827,7 +4821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>623</v>
       </c>
@@ -4853,7 +4847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>101</v>
       </c>
@@ -4879,7 +4873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>104</v>
       </c>
@@ -4905,7 +4899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>105</v>
       </c>
@@ -4931,7 +4925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>106</v>
       </c>
@@ -4957,7 +4951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>111</v>
       </c>
@@ -4983,7 +4977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>135</v>
       </c>
@@ -5009,7 +5003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>136</v>
       </c>
@@ -5035,7 +5029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>137</v>
       </c>
@@ -5061,7 +5055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>805</v>
       </c>
@@ -5087,7 +5081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>806</v>
       </c>
@@ -5113,7 +5107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>811</v>
       </c>
@@ -5139,7 +5133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>814</v>
       </c>
@@ -5165,7 +5159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>815</v>
       </c>
@@ -5191,7 +5185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>817</v>
       </c>
@@ -5217,7 +5211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>819</v>
       </c>
@@ -5243,7 +5237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>840</v>
       </c>
@@ -5269,7 +5263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>701</v>
       </c>
@@ -5295,7 +5289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>702</v>
       </c>
@@ -5321,7 +5315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>704</v>
       </c>
@@ -5347,7 +5341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2101</v>
       </c>
@@ -5373,7 +5367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>706</v>
       </c>
@@ -5399,7 +5393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>709</v>
       </c>
@@ -5425,7 +5419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>711</v>
       </c>
@@ -5454,7 +5448,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>713</v>
       </c>
@@ -5480,7 +5474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>714</v>
       </c>
@@ -5506,7 +5500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>716</v>
       </c>
@@ -5532,7 +5526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>719</v>
       </c>
@@ -5558,7 +5552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>720</v>
       </c>
@@ -5584,7 +5578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>722</v>
       </c>
@@ -5610,7 +5604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>723</v>
       </c>
@@ -5636,7 +5630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>728</v>
       </c>
@@ -5662,7 +5656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>807</v>
       </c>
@@ -5688,7 +5682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>821</v>
       </c>
@@ -5714,7 +5708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>822</v>
       </c>
@@ -5740,7 +5734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>826</v>
       </c>
@@ -5766,7 +5760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>827</v>
       </c>
@@ -5792,7 +5786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>828</v>
       </c>
@@ -5818,7 +5812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>829</v>
       </c>
@@ -5844,7 +5838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>830</v>
       </c>
@@ -5870,7 +5864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>831</v>
       </c>
@@ -5896,7 +5890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>833</v>
       </c>
@@ -5922,7 +5916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>834</v>
       </c>
@@ -5948,7 +5942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>901</v>
       </c>
@@ -5974,7 +5968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>904</v>
       </c>
@@ -6000,7 +5994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>906</v>
       </c>
@@ -6026,7 +6020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>911</v>
       </c>
@@ -6052,7 +6046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>912</v>
       </c>
@@ -6078,7 +6072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>914</v>
       </c>
@@ -6104,7 +6098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>919</v>
       </c>
@@ -6130,7 +6124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>926</v>
       </c>
@@ -6156,7 +6150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>928</v>
       </c>
@@ -6182,7 +6176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>929</v>
       </c>
@@ -6208,7 +6202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>935</v>
       </c>
@@ -6234,7 +6228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>937</v>
       </c>
@@ -6260,7 +6254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>938</v>
       </c>
@@ -6286,7 +6280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>940</v>
       </c>
@@ -6312,7 +6306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>941</v>
       </c>
@@ -6338,7 +6332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1002</v>
       </c>
@@ -6364,7 +6358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1003</v>
       </c>
@@ -6390,7 +6384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1004</v>
       </c>
@@ -6416,7 +6410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1014</v>
       </c>
@@ -6442,7 +6436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1017</v>
       </c>
@@ -6468,7 +6462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1018</v>
       </c>
@@ -6494,7 +6488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1021</v>
       </c>
@@ -6520,7 +6514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1026</v>
       </c>
@@ -6546,7 +6540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1027</v>
       </c>
@@ -6572,7 +6566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1029</v>
       </c>
@@ -6598,7 +6592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1032</v>
       </c>
@@ -6624,7 +6618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1034</v>
       </c>
@@ -6650,7 +6644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1037</v>
       </c>
@@ -6676,7 +6670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1046</v>
       </c>
@@ -6702,7 +6696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1071</v>
       </c>
@@ -6728,7 +6722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1072</v>
       </c>
@@ -6754,7 +6748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1073</v>
       </c>
@@ -6780,7 +6774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1074</v>
       </c>
@@ -6806,7 +6800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1075</v>
       </c>
@@ -6832,7 +6826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1101</v>
       </c>
@@ -6858,7 +6852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1102</v>
       </c>
@@ -6884,7 +6878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1111</v>
       </c>
@@ -6910,7 +6904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1112</v>
       </c>
@@ -6936,7 +6930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1114</v>
       </c>
@@ -6962,7 +6956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1119</v>
       </c>
@@ -6988,7 +6982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1120</v>
       </c>
@@ -7014,7 +7008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1121</v>
       </c>
@@ -7040,7 +7034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1122</v>
       </c>
@@ -7066,7 +7060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1124</v>
       </c>
@@ -7092,7 +7086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1127</v>
       </c>
@@ -7118,7 +7112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1129</v>
       </c>
@@ -7144,7 +7138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1130</v>
       </c>
@@ -7170,7 +7164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1133</v>
       </c>
@@ -7196,7 +7190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1141</v>
       </c>
@@ -7222,7 +7216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1142</v>
       </c>
@@ -7248,7 +7242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1144</v>
       </c>
@@ -7274,7 +7268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1171</v>
       </c>
@@ -7300,7 +7294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1172</v>
       </c>
@@ -7326,7 +7320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1173</v>
       </c>
@@ -7352,7 +7346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1174</v>
       </c>
@@ -7378,7 +7372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1175</v>
       </c>
@@ -7404,7 +7398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1106</v>
       </c>
@@ -7430,7 +7424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1134</v>
       </c>
@@ -7456,7 +7450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1135</v>
       </c>
@@ -7482,7 +7476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1145</v>
       </c>
@@ -7508,7 +7502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1146</v>
       </c>
@@ -7534,7 +7528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1149</v>
       </c>
@@ -7560,7 +7554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1151</v>
       </c>
@@ -7586,7 +7580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1154</v>
       </c>
@@ -7612,7 +7606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1159</v>
       </c>
@@ -7638,7 +7632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1241</v>
       </c>
@@ -7664,7 +7658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1242</v>
       </c>
@@ -7690,7 +7684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1243</v>
       </c>
@@ -7716,7 +7710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1244</v>
       </c>
@@ -7742,7 +7736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1245</v>
       </c>
@@ -7768,7 +7762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1246</v>
       </c>
@@ -7794,7 +7788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1247</v>
       </c>
@@ -7820,7 +7814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1253</v>
       </c>
@@ -7846,7 +7840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1256</v>
       </c>
@@ -7872,7 +7866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1259</v>
       </c>
@@ -7898,7 +7892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1260</v>
       </c>
@@ -7924,7 +7918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1263</v>
       </c>
@@ -7950,7 +7944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1264</v>
       </c>
@@ -7976,7 +7970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1265</v>
       </c>
@@ -8002,7 +7996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1266</v>
       </c>
@@ -8028,7 +8022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1271</v>
       </c>
@@ -8054,7 +8048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1272</v>
       </c>
@@ -8080,7 +8074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1273</v>
       </c>
@@ -8106,7 +8100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1274</v>
       </c>
@@ -8132,7 +8126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1275</v>
       </c>
@@ -8158,7 +8152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1276</v>
       </c>
@@ -8184,7 +8178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1277</v>
       </c>
@@ -8210,7 +8204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1224</v>
       </c>
@@ -8236,7 +8230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1227</v>
       </c>
@@ -8262,7 +8256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1228</v>
       </c>
@@ -8288,7 +8282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1231</v>
       </c>
@@ -8314,7 +8308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1232</v>
       </c>
@@ -8340,7 +8334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1238</v>
       </c>
@@ -8366,7 +8360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1211</v>
       </c>
@@ -8392,7 +8386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1216</v>
       </c>
@@ -8418,7 +8412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1219</v>
       </c>
@@ -8444,7 +8438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1221</v>
       </c>
@@ -8470,7 +8464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1222</v>
       </c>
@@ -8496,7 +8490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1223</v>
       </c>
@@ -8522,7 +8516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1233</v>
       </c>
@@ -8548,7 +8542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1234</v>
       </c>
@@ -8574,7 +8568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1235</v>
       </c>
@@ -8600,7 +8594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1251</v>
       </c>
@@ -8626,7 +8620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1252</v>
       </c>
@@ -8652,7 +8646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1401</v>
       </c>
@@ -8678,7 +8672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1411</v>
       </c>
@@ -8704,7 +8698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1412</v>
       </c>
@@ -8730,7 +8724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1413</v>
       </c>
@@ -8756,7 +8750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1416</v>
       </c>
@@ -8782,7 +8776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1418</v>
       </c>
@@ -8808,7 +8802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1428</v>
       </c>
@@ -8834,7 +8828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1429</v>
       </c>
@@ -8860,7 +8854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1430</v>
       </c>
@@ -8886,7 +8880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1431</v>
       </c>
@@ -8912,7 +8906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1432</v>
       </c>
@@ -8938,7 +8932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1433</v>
       </c>
@@ -8964,7 +8958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1438</v>
       </c>
@@ -8990,7 +8984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1439</v>
       </c>
@@ -9016,7 +9010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1441</v>
       </c>
@@ -9042,7 +9036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1443</v>
       </c>
@@ -9068,7 +9062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1444</v>
       </c>
@@ -9097,7 +9091,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1445</v>
       </c>
@@ -9123,7 +9117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1449</v>
       </c>
@@ -9149,7 +9143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1417</v>
       </c>
@@ -9175,7 +9169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1419</v>
       </c>
@@ -9201,7 +9195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1420</v>
       </c>
@@ -9227,7 +9221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1421</v>
       </c>
@@ -9253,7 +9247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1422</v>
       </c>
@@ -9279,7 +9273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1424</v>
       </c>
@@ -9305,7 +9299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1426</v>
       </c>
@@ -9331,7 +9325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1503</v>
       </c>
@@ -9357,7 +9351,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1554</v>
       </c>
@@ -9383,7 +9377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1556</v>
       </c>
@@ -9409,7 +9403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1560</v>
       </c>
@@ -9435,7 +9429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1563</v>
       </c>
@@ -9461,7 +9455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1566</v>
       </c>
@@ -9487,7 +9481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1569</v>
       </c>
@@ -9513,7 +9507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1571</v>
       </c>
@@ -9542,7 +9536,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1572</v>
       </c>
@@ -9568,7 +9562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1573</v>
       </c>
@@ -9594,7 +9588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1502</v>
       </c>
@@ -9620,7 +9614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1535</v>
       </c>
@@ -9646,7 +9640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1539</v>
       </c>
@@ -9672,7 +9666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1543</v>
       </c>
@@ -9698,7 +9692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1545</v>
       </c>
@@ -9724,7 +9718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1546</v>
       </c>
@@ -9750,7 +9744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1547</v>
       </c>
@@ -9776,7 +9770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1548</v>
       </c>
@@ -9802,7 +9796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1551</v>
       </c>
@@ -9828,7 +9822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1557</v>
       </c>
@@ -9854,7 +9848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1504</v>
       </c>
@@ -9880,7 +9874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>1511</v>
       </c>
@@ -9906,7 +9900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1514</v>
       </c>
@@ -9932,7 +9926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>1515</v>
       </c>
@@ -9958,7 +9952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1516</v>
       </c>
@@ -9984,7 +9978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1517</v>
       </c>
@@ -10010,7 +10004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1519</v>
       </c>
@@ -10036,7 +10030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1520</v>
       </c>
@@ -10062,7 +10056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1523</v>
       </c>
@@ -10088,7 +10082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1524</v>
       </c>
@@ -10114,7 +10108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1525</v>
       </c>
@@ -10140,7 +10134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1526</v>
       </c>
@@ -10166,7 +10160,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1528</v>
       </c>
@@ -10192,7 +10186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1529</v>
       </c>
@@ -10218,7 +10212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>1531</v>
       </c>
@@ -10244,7 +10238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1532</v>
       </c>
@@ -10270,7 +10264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1534</v>
       </c>
@@ -10296,7 +10290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>402</v>
       </c>
@@ -10322,7 +10316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>418</v>
       </c>
@@ -10348,7 +10342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>419</v>
       </c>
@@ -10374,7 +10368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>420</v>
       </c>
@@ -10400,7 +10394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>423</v>
       </c>
@@ -10426,7 +10420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>425</v>
       </c>
@@ -10452,7 +10446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>426</v>
       </c>
@@ -10478,7 +10472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>511</v>
       </c>
@@ -10504,7 +10498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>512</v>
       </c>
@@ -10530,7 +10524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>513</v>
       </c>
@@ -10556,7 +10550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>514</v>
       </c>
@@ -10582,7 +10576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>515</v>
       </c>
@@ -10608,7 +10602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>516</v>
       </c>
@@ -10634,7 +10628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>517</v>
       </c>
@@ -10660,7 +10654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>519</v>
       </c>
@@ -10686,7 +10680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>520</v>
       </c>
@@ -10712,7 +10706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>534</v>
       </c>
@@ -10738,7 +10732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>403</v>
       </c>
@@ -10764,7 +10758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>412</v>
       </c>
@@ -10790,7 +10784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>415</v>
       </c>
@@ -10816,7 +10810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>417</v>
       </c>
@@ -10842,7 +10836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>427</v>
       </c>
@@ -10868,7 +10862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>501</v>
       </c>
@@ -10894,7 +10888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>502</v>
       </c>
@@ -10920,7 +10914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>521</v>
       </c>
@@ -10946,7 +10940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>522</v>
       </c>
@@ -10972,7 +10966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>528</v>
       </c>
@@ -10998,7 +10992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>529</v>
       </c>
@@ -11024,7 +11018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>536</v>
       </c>
@@ -11050,7 +11044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>538</v>
       </c>
@@ -11076,7 +11070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>540</v>
       </c>
@@ -11102,7 +11096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>541</v>
       </c>
@@ -11128,7 +11122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>542</v>
       </c>
@@ -11154,7 +11148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>543</v>
       </c>
@@ -11180,7 +11174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>544</v>
       </c>
@@ -11206,7 +11200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>545</v>
       </c>
@@ -11232,7 +11226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>428</v>
       </c>
@@ -11258,7 +11252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>429</v>
       </c>
@@ -11284,7 +11278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>430</v>
       </c>
@@ -11310,7 +11304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>432</v>
       </c>
@@ -11336,7 +11330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>434</v>
       </c>
@@ -11362,7 +11356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>436</v>
       </c>
@@ -11388,7 +11382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>437</v>
       </c>
@@ -11414,7 +11408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>438</v>
       </c>
@@ -11440,7 +11434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>439</v>
       </c>
@@ -11466,7 +11460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>441</v>
       </c>
@@ -11492,7 +11486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1621</v>
       </c>
@@ -11518,7 +11512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1624</v>
       </c>
@@ -11544,7 +11538,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1627</v>
       </c>
@@ -11570,7 +11564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1630</v>
       </c>
@@ -11596,7 +11590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1632</v>
       </c>
@@ -11622,7 +11616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1633</v>
       </c>
@@ -11648,7 +11642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1567</v>
       </c>
@@ -11674,7 +11668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1702</v>
       </c>
@@ -11700,7 +11694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1703</v>
       </c>
@@ -11726,7 +11720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1711</v>
       </c>
@@ -11752,7 +11746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1714</v>
       </c>
@@ -11778,7 +11772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1717</v>
       </c>
@@ -11804,7 +11798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1718</v>
       </c>
@@ -11830,7 +11824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1719</v>
       </c>
@@ -11856,7 +11850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1721</v>
       </c>
@@ -11882,7 +11876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>1723</v>
       </c>
@@ -11908,7 +11902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1724</v>
       </c>
@@ -11934,7 +11928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>1725</v>
       </c>
@@ -11960,7 +11954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>1729</v>
       </c>
@@ -11986,7 +11980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>1736</v>
       </c>
@@ -12012,7 +12006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1738</v>
       </c>
@@ -12038,7 +12032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>1739</v>
       </c>
@@ -12064,7 +12058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>1740</v>
       </c>
@@ -12090,7 +12084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1742</v>
       </c>
@@ -12116,7 +12110,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>1743</v>
       </c>
@@ -12142,7 +12136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>1744</v>
       </c>
@@ -12168,7 +12162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1748</v>
       </c>
@@ -12194,7 +12188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>1749</v>
       </c>
@@ -12220,7 +12214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1750</v>
       </c>
@@ -12246,7 +12240,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>1751</v>
       </c>
@@ -12272,7 +12266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>1755</v>
       </c>
@@ -12298,7 +12292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>1612</v>
       </c>
@@ -12324,7 +12318,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>1613</v>
       </c>
@@ -12350,7 +12344,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>1617</v>
       </c>
@@ -12376,7 +12370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>1620</v>
       </c>
@@ -12402,7 +12396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>1622</v>
       </c>
@@ -12428,7 +12422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>1634</v>
       </c>
@@ -12454,7 +12448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>1635</v>
       </c>
@@ -12480,7 +12474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>1636</v>
       </c>
@@ -12506,7 +12500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>1638</v>
       </c>
@@ -12532,7 +12526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>1640</v>
       </c>
@@ -12558,7 +12552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>1644</v>
       </c>
@@ -12584,7 +12578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>1648</v>
       </c>
@@ -12610,7 +12604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>1653</v>
       </c>
@@ -12636,7 +12630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1657</v>
       </c>
@@ -12662,7 +12656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>1662</v>
       </c>
@@ -12688,7 +12682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>1663</v>
       </c>
@@ -12714,7 +12708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>1664</v>
       </c>
@@ -12740,7 +12734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>1665</v>
       </c>
@@ -12766,7 +12760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>1671</v>
       </c>
@@ -12792,7 +12786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>1672</v>
       </c>
@@ -12818,7 +12812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>1673</v>
       </c>
@@ -12844,7 +12838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>1674</v>
       </c>
@@ -12870,7 +12864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>1675</v>
       </c>
@@ -12896,7 +12890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>1676</v>
       </c>
@@ -12922,7 +12916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>1677</v>
       </c>
@@ -12948,7 +12942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>1678</v>
       </c>
@@ -12974,7 +12968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>1811</v>
       </c>
@@ -13000,7 +12994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>1812</v>
       </c>
@@ -13026,7 +13020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>1813</v>
       </c>
@@ -13052,7 +13046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>1815</v>
       </c>
@@ -13078,7 +13072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>1816</v>
       </c>
@@ -13104,7 +13098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>1818</v>
       </c>
@@ -13130,7 +13124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>1820</v>
       </c>
@@ -13156,7 +13150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>1822</v>
       </c>
@@ -13182,7 +13176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1824</v>
       </c>
@@ -13208,7 +13202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1825</v>
       </c>
@@ -13234,7 +13228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>1826</v>
       </c>
@@ -13260,7 +13254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>1827</v>
       </c>
@@ -13286,7 +13280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>1828</v>
       </c>
@@ -13312,7 +13306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>1832</v>
       </c>
@@ -13338,7 +13332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>1833</v>
       </c>
@@ -13364,7 +13358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>1834</v>
       </c>
@@ -13390,7 +13384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>1835</v>
       </c>
@@ -13416,7 +13410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>1836</v>
       </c>
@@ -13442,7 +13436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>1880</v>
       </c>
@@ -13468,7 +13462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>1804</v>
       </c>
@@ -13494,7 +13488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>1837</v>
       </c>
@@ -13520,7 +13514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>1838</v>
       </c>
@@ -13546,7 +13540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>1839</v>
       </c>
@@ -13572,7 +13566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>1840</v>
       </c>
@@ -13598,7 +13592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>1841</v>
       </c>
@@ -13624,7 +13618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>1842</v>
       </c>
@@ -13650,7 +13644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>1845</v>
       </c>
@@ -13676,7 +13670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>1848</v>
       </c>
@@ -13702,7 +13696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>1849</v>
       </c>
@@ -13728,7 +13722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>1805</v>
       </c>
@@ -13754,7 +13748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>1850</v>
       </c>
@@ -13780,7 +13774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>1851</v>
       </c>
@@ -13806,7 +13800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>1852</v>
       </c>
@@ -13832,7 +13826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>1853</v>
       </c>
@@ -13858,7 +13852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>1854</v>
       </c>
@@ -13884,7 +13878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>1856</v>
       </c>
@@ -13910,7 +13904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>1857</v>
       </c>
@@ -13936,7 +13930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>1859</v>
       </c>
@@ -13962,7 +13956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>1860</v>
       </c>
@@ -13988,7 +13982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>1865</v>
       </c>
@@ -14014,7 +14008,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>1866</v>
       </c>
@@ -14040,7 +14034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>1867</v>
       </c>
@@ -14066,7 +14060,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>1868</v>
       </c>
@@ -14092,7 +14086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>1870</v>
       </c>
@@ -14118,7 +14112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>1871</v>
       </c>
@@ -14144,7 +14138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>1874</v>
       </c>
@@ -14170,7 +14164,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>1901</v>
       </c>
@@ -14196,7 +14190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>1911</v>
       </c>
@@ -14222,7 +14216,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>1913</v>
       </c>
@@ -14248,7 +14242,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>1915</v>
       </c>
@@ -14274,7 +14268,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>1917</v>
       </c>
@@ -14300,7 +14294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>1919</v>
       </c>
@@ -14326,7 +14320,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>1920</v>
       </c>
@@ -14352,7 +14346,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>1922</v>
       </c>
@@ -14378,7 +14372,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>1923</v>
       </c>
@@ -14404,7 +14398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>1924</v>
       </c>
@@ -14430,7 +14424,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>1925</v>
       </c>
@@ -14456,7 +14450,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>1926</v>
       </c>
@@ -14482,7 +14476,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>1927</v>
       </c>
@@ -14508,7 +14502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>1928</v>
       </c>
@@ -14534,7 +14528,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>1929</v>
       </c>
@@ -14560,7 +14554,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>1931</v>
       </c>
@@ -14586,7 +14580,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>1933</v>
       </c>
@@ -14612,7 +14606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>1936</v>
       </c>
@@ -14638,7 +14632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>1938</v>
       </c>
@@ -14664,7 +14658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>1939</v>
       </c>
@@ -14690,7 +14684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>1940</v>
       </c>
@@ -14716,7 +14710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>1941</v>
       </c>
@@ -14742,7 +14736,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>1942</v>
       </c>
@@ -14768,7 +14762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>1943</v>
       </c>
@@ -14794,7 +14788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>1971</v>
       </c>
@@ -14820,7 +14814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>1972</v>
       </c>
@@ -14846,7 +14840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>1973</v>
       </c>
@@ -14872,7 +14866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>1974</v>
       </c>
@@ -14898,7 +14892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>2004</v>
       </c>
@@ -14924,7 +14918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>2011</v>
       </c>
@@ -14950,7 +14944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>2012</v>
       </c>
@@ -14976,7 +14970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>2014</v>
       </c>
@@ -15002,7 +14996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>2015</v>
       </c>
@@ -15028,7 +15022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>2017</v>
       </c>
@@ -15054,7 +15048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>2018</v>
       </c>
@@ -15080,7 +15074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>2019</v>
       </c>
@@ -15106,7 +15100,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>2020</v>
       </c>
@@ -15132,7 +15126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>2021</v>
       </c>
@@ -15158,7 +15152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>2002</v>
       </c>
@@ -15184,7 +15178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>2003</v>
       </c>
@@ -15210,7 +15204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>2022</v>
       </c>
@@ -15236,7 +15230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>2023</v>
       </c>
@@ -15262,7 +15256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>2024</v>
       </c>
@@ -15288,7 +15282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>2025</v>
       </c>
@@ -15314,7 +15308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>2027</v>
       </c>
@@ -15340,7 +15334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>2028</v>
       </c>
@@ -15366,7 +15360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>2030</v>
       </c>
@@ -15392,7 +15386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>61</v>
       </c>
@@ -15418,7 +15412,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>62</v>
       </c>
@@ -15444,7 +15438,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>51</v>
       </c>
@@ -15470,7 +15464,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>53</v>
       </c>
@@ -15496,7 +15490,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>58</v>
       </c>
@@ -15522,7 +15516,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>52</v>
       </c>
@@ -15548,7 +15542,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>57</v>
       </c>
@@ -15574,7 +15568,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>59</v>
       </c>
@@ -15600,7 +15594,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>50</v>
       </c>
@@ -15626,7 +15620,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>54</v>
       </c>
@@ -15652,7 +15646,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>55</v>
       </c>
@@ -15678,7 +15672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>56</v>
       </c>
@@ -15704,7 +15698,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>60</v>
       </c>
@@ -15730,7 +15724,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>5800</v>
       </c>
@@ -15756,7 +15750,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>5810</v>
       </c>
@@ -15782,7 +15776,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>5820</v>
       </c>
@@ -15808,7 +15802,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>5831</v>
       </c>
@@ -15834,7 +15828,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>5835</v>
       </c>
@@ -15860,7 +15854,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>3001</v>
       </c>
@@ -15886,7 +15880,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>3002</v>
       </c>
@@ -15912,7 +15906,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>3003</v>
       </c>
@@ -15938,7 +15932,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>4001</v>
       </c>
@@ -15964,7 +15958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>4002</v>
       </c>
@@ -15990,7 +15984,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>4003</v>
       </c>
@@ -16016,7 +16010,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>4004</v>
       </c>
@@ -16042,7 +16036,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>4005</v>
       </c>
@@ -16068,7 +16062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>5101</v>
       </c>
@@ -16094,7 +16088,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>5102</v>
       </c>
@@ -16120,7 +16114,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>5103</v>
       </c>
@@ -16146,7 +16140,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>5104</v>
       </c>
@@ -16172,7 +16166,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>5105</v>
       </c>
@@ -16198,7 +16192,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>5106</v>
       </c>
@@ -16224,7 +16218,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>5201</v>
       </c>
@@ -16250,7 +16244,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>5202</v>
       </c>
@@ -16276,7 +16270,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>5203</v>
       </c>
@@ -16302,7 +16296,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>5204</v>
       </c>
@@ -16328,7 +16322,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>5302</v>
       </c>
@@ -16354,7 +16348,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>5402</v>
       </c>
@@ -16380,7 +16374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>5403</v>
       </c>
@@ -16406,7 +16400,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>5404</v>
       </c>
@@ -16432,7 +16426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>5501</v>
       </c>
@@ -16458,7 +16452,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>5502</v>
       </c>
@@ -16484,7 +16478,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>5605</v>
       </c>
@@ -16510,7 +16504,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>5606</v>
       </c>
@@ -16536,7 +16530,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>5607</v>
       </c>
@@ -16562,7 +16556,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>5700</v>
       </c>
@@ -16588,7 +16582,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>5701</v>
       </c>
@@ -16614,7 +16608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>5710</v>
       </c>
@@ -16640,7 +16634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>5720</v>
       </c>
@@ -16666,7 +16660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>5730</v>
       </c>
@@ -16692,7 +16686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>5740</v>
       </c>
@@ -16718,7 +16712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>5750</v>
       </c>
@@ -16744,7 +16738,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>5760</v>
       </c>
@@ -16770,7 +16764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>5770</v>
       </c>
@@ -16796,7 +16790,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>5780</v>
       </c>
@@ -16822,7 +16816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>5790</v>
       </c>
@@ -16848,7 +16842,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>5830</v>
       </c>
@@ -16874,7 +16868,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>5840</v>
       </c>
@@ -16900,7 +16894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>5841</v>
       </c>
@@ -16926,7 +16920,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>5842</v>
       </c>
@@ -16952,7 +16946,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>5850</v>
       </c>
@@ -16978,7 +16972,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>5860</v>
       </c>
@@ -17004,7 +16998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>5870</v>
       </c>
@@ -17030,7 +17024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>5880</v>
       </c>
@@ -17056,7 +17050,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>5881</v>
       </c>
@@ -17082,7 +17076,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>5890</v>
       </c>
@@ -17108,7 +17102,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>5900</v>
       </c>
@@ -17134,7 +17128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>5910</v>
       </c>
@@ -17160,7 +17154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>5920</v>
       </c>
@@ -17186,7 +17180,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>5930</v>
       </c>
@@ -17212,7 +17206,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>6000</v>
       </c>
@@ -17238,7 +17232,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>6010</v>
       </c>
@@ -17264,7 +17258,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>6020</v>
       </c>
@@ -17290,7 +17284,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>6030</v>
       </c>
@@ -17316,7 +17310,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>6040</v>
       </c>
@@ -17342,7 +17336,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>6050</v>
       </c>
@@ -17368,7 +17362,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>2301</v>
       </c>
@@ -17394,7 +17388,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>2302</v>
       </c>
@@ -17420,7 +17414,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>2303</v>
       </c>
@@ -17446,7 +17440,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>2304</v>
       </c>
@@ -17472,7 +17466,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>2305</v>
       </c>
@@ -17498,7 +17492,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>2306</v>
       </c>
@@ -17541,18 +17535,18 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.54296875" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.26953125" customWidth="1"/>
-    <col min="14" max="14" width="14.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.28515625" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>635</v>
       </c>
@@ -17596,7 +17590,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17637,7 +17631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -17678,7 +17672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -17719,7 +17713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -17760,7 +17754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -17801,7 +17795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -17845,7 +17839,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -17886,7 +17880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -17930,7 +17924,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -17971,7 +17965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -18012,7 +18006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -18053,7 +18047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -18094,7 +18088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -18138,7 +18132,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>21</v>
       </c>
@@ -18179,7 +18173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>22</v>
       </c>
@@ -18220,7 +18214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>23</v>
       </c>
@@ -18264,7 +18258,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24</v>
       </c>
@@ -18305,7 +18299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>25</v>
       </c>
@@ -18360,23 +18354,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A56265-210A-4263-A3EA-18E110BB8B83}">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.54296875" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="13.81640625" customWidth="1"/>
-    <col min="13" max="13" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>649</v>
       </c>
@@ -18399,7 +18393,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18425,7 +18419,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -18445,7 +18439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -18468,18 +18462,18 @@
         <v>631</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>132</v>
+        <v>219</v>
       </c>
       <c r="D5" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -18487,19 +18481,22 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G5" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>514</v>
+        <v>233</v>
       </c>
       <c r="D6" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -18508,18 +18505,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>527</v>
+        <v>126</v>
       </c>
       <c r="D7" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -18528,18 +18525,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>814</v>
+        <v>330</v>
       </c>
       <c r="D8" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -18547,19 +18544,22 @@
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G8" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>177</v>
+        <v>426</v>
       </c>
       <c r="D9" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -18567,45 +18567,45 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G9" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>219</v>
+        <v>436</v>
       </c>
       <c r="D10" t="s">
         <v>634</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C11">
-        <v>179</v>
+        <v>550</v>
       </c>
       <c r="D11" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -18613,19 +18613,22 @@
       <c r="F11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G11" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>400</v>
+        <v>729</v>
       </c>
       <c r="D12" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -18633,16 +18636,19 @@
       <c r="F12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G12" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C13">
-        <v>233</v>
+        <v>560</v>
       </c>
       <c r="D13" t="s">
         <v>634</v>
@@ -18653,48 +18659,57 @@
       <c r="F13">
         <v>1</v>
       </c>
+      <c r="G13" s="3" t="s">
+        <v>633</v>
+      </c>
       <c r="M13" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C14">
-        <v>233</v>
+        <v>300</v>
       </c>
       <c r="D14" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C15">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="D15" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>669</v>
       </c>
       <c r="L15" s="6" t="str" cm="1">
         <f t="array" ref="L15:N33">Table2[[#All],[zone_nr]:[centroid_name]]</f>
@@ -18707,18 +18722,18 @@
         <v>centroid_name</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>580</v>
+        <v>529</v>
       </c>
       <c r="D16" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -18736,18 +18751,18 @@
         <v>Oslo</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C17">
-        <v>210</v>
+        <v>650</v>
       </c>
       <c r="D17" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -18765,18 +18780,18 @@
         <v>Skien</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C18">
-        <v>250</v>
+        <v>1118</v>
       </c>
       <c r="D18" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -18794,18 +18809,18 @@
         <v>Kristiansand</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B19">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>210</v>
+        <v>132</v>
       </c>
       <c r="D19" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -18823,15 +18838,15 @@
         <v>Stavanger</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
         <v>5</v>
       </c>
-      <c r="B20">
-        <v>6</v>
-      </c>
       <c r="C20">
-        <v>175</v>
+        <v>514</v>
       </c>
       <c r="D20" t="s">
         <v>628</v>
@@ -18852,18 +18867,18 @@
         <v>Bergen</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C21">
-        <v>190</v>
+        <v>527</v>
       </c>
       <c r="D21" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -18881,18 +18896,18 @@
         <v>Førde</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C22">
-        <v>185</v>
+        <v>814</v>
       </c>
       <c r="D22" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -18910,15 +18925,15 @@
         <v>Ålesund</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>247</v>
+        <v>179</v>
       </c>
       <c r="D23" t="s">
         <v>628</v>
@@ -18939,18 +18954,18 @@
         <v>Hamar</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>195</v>
+        <v>400</v>
       </c>
       <c r="D24" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -18968,18 +18983,18 @@
         <v>Trondheim</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>126</v>
+        <v>233</v>
       </c>
       <c r="D25" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -18997,15 +19012,15 @@
         <v>Bodø</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C26">
-        <v>126</v>
+        <v>210</v>
       </c>
       <c r="D26" t="s">
         <v>628</v>
@@ -19026,27 +19041,24 @@
         <v>Narvik</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27">
-        <v>330</v>
+        <v>175</v>
       </c>
       <c r="D27" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27">
         <v>1</v>
-      </c>
-      <c r="G27" t="s">
-        <v>644</v>
       </c>
       <c r="L27" s="5">
         <v>12</v>
@@ -19058,27 +19070,24 @@
         <v>Tromsø</v>
       </c>
     </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C28">
-        <v>426</v>
+        <v>247</v>
       </c>
       <c r="D28" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28">
         <v>1</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="L28" s="5">
         <v>13</v>
@@ -19090,27 +19099,24 @@
         <v>Alta</v>
       </c>
     </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>8</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>436</v>
+        <v>126</v>
       </c>
       <c r="D29" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>1</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>359</v>
       </c>
       <c r="L29" s="5">
         <v>21</v>
@@ -19122,27 +19128,24 @@
         <v>Umeå</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>8</v>
       </c>
       <c r="B30">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C30">
-        <v>550</v>
+        <v>422</v>
       </c>
       <c r="D30" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30">
         <v>1</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>632</v>
       </c>
       <c r="L30" s="5">
         <v>22</v>
@@ -19154,15 +19157,15 @@
         <v>Stockholm</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>8</v>
       </c>
       <c r="B31">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C31">
-        <v>422</v>
+        <v>559</v>
       </c>
       <c r="D31" t="s">
         <v>628</v>
@@ -19183,15 +19186,15 @@
         <v>Hamburg</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>8</v>
       </c>
       <c r="B32">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C32">
-        <v>559</v>
+        <v>381</v>
       </c>
       <c r="D32" t="s">
         <v>628</v>
@@ -19212,15 +19215,15 @@
         <v>World</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B33">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C33">
-        <v>381</v>
+        <v>299</v>
       </c>
       <c r="D33" t="s">
         <v>628</v>
@@ -19241,7 +19244,7 @@
         <v>JohanSverdrupPlatform</v>
       </c>
     </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
@@ -19249,25 +19252,22 @@
         <v>10</v>
       </c>
       <c r="C34">
-        <v>729</v>
+        <v>701</v>
       </c>
       <c r="D34" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34">
         <v>1</v>
-      </c>
-      <c r="G34" t="s">
-        <v>645</v>
       </c>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
     </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>9</v>
       </c>
@@ -19275,33 +19275,30 @@
         <v>21</v>
       </c>
       <c r="C35">
-        <v>560</v>
+        <v>623</v>
       </c>
       <c r="D35" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35">
         <v>1</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>633</v>
       </c>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>9</v>
       </c>
       <c r="B36">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C36">
-        <v>299</v>
+        <v>776</v>
       </c>
       <c r="D36" t="s">
         <v>628</v>
@@ -19316,15 +19313,15 @@
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C37">
-        <v>701</v>
+        <v>300</v>
       </c>
       <c r="D37" t="s">
         <v>628</v>
@@ -19336,15 +19333,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B38">
         <v>21</v>
       </c>
       <c r="C38">
-        <v>623</v>
+        <v>591</v>
       </c>
       <c r="D38" t="s">
         <v>628</v>
@@ -19356,15 +19353,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B39">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C39">
-        <v>776</v>
+        <v>232</v>
       </c>
       <c r="D39" t="s">
         <v>628</v>
@@ -19376,18 +19373,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B40">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C40">
-        <v>270</v>
+        <v>769</v>
       </c>
       <c r="D40" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -19396,18 +19393,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B41">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C41">
-        <v>530</v>
+        <v>381</v>
       </c>
       <c r="D41" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -19416,38 +19413,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C42">
-        <v>300</v>
+        <v>934</v>
       </c>
       <c r="D42" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B43">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C43">
-        <v>300</v>
+        <v>637</v>
       </c>
       <c r="D43" t="s">
         <v>628</v>
@@ -19459,15 +19453,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B44">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C44">
-        <v>591</v>
+        <v>1118</v>
       </c>
       <c r="D44" t="s">
         <v>628</v>
@@ -19478,16 +19472,19 @@
       <c r="F44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G44" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B45">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="D45" t="s">
         <v>627</v>
@@ -19498,16 +19495,19 @@
       <c r="F45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B46">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C46">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="D46" t="s">
         <v>627</v>
@@ -19519,41 +19519,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B47">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C47">
-        <v>230</v>
+        <v>580</v>
       </c>
       <c r="D47" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B48">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C48">
-        <v>529</v>
+        <v>250</v>
       </c>
       <c r="D48" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -19562,18 +19559,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B49">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C49">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="D49" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -19582,18 +19579,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B50">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C50">
-        <v>769</v>
+        <v>190</v>
       </c>
       <c r="D50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -19602,18 +19599,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B51">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C51">
-        <v>381</v>
+        <v>185</v>
       </c>
       <c r="D51" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -19622,18 +19619,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B52">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C52">
-        <v>934</v>
+        <v>195</v>
       </c>
       <c r="D52" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -19642,15 +19639,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B53">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C53">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D53" t="s">
         <v>627</v>
@@ -19662,15 +19659,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B54">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C54">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="D54" t="s">
         <v>627</v>
@@ -19682,78 +19679,78 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
+        <v>10</v>
+      </c>
+      <c r="B55">
+        <v>11</v>
+      </c>
+      <c r="C55">
+        <v>205</v>
+      </c>
+      <c r="D55" t="s">
+        <v>627</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>10</v>
+      </c>
+      <c r="B56">
+        <v>12</v>
+      </c>
+      <c r="C56">
+        <v>450</v>
+      </c>
+      <c r="D56" t="s">
+        <v>627</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>12</v>
+      </c>
+      <c r="B57">
+        <v>13</v>
+      </c>
+      <c r="C57">
+        <v>265</v>
+      </c>
+      <c r="D57" t="s">
+        <v>627</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>21</v>
+      </c>
+      <c r="B58">
         <v>22</v>
       </c>
-      <c r="B55">
-        <v>21</v>
-      </c>
-      <c r="C55">
-        <v>650</v>
-      </c>
-      <c r="D55" t="s">
-        <v>634</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>22</v>
-      </c>
-      <c r="B56">
-        <v>23</v>
-      </c>
-      <c r="C56">
-        <v>1118</v>
-      </c>
-      <c r="D56" t="s">
-        <v>634</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>22</v>
-      </c>
-      <c r="B57">
-        <v>21</v>
-      </c>
-      <c r="C57">
-        <v>637</v>
-      </c>
-      <c r="D57" t="s">
-        <v>628</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>22</v>
-      </c>
-      <c r="B58">
-        <v>23</v>
-      </c>
       <c r="C58">
-        <v>1118</v>
+        <v>550</v>
       </c>
       <c r="D58" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -19761,11 +19758,8 @@
       <c r="F58">
         <v>1</v>
       </c>
-      <c r="G58" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>22</v>
       </c>
@@ -19785,7 +19779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>23</v>
       </c>
@@ -19819,6 +19813,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1d2ad661-40b4-4211-810e-9f8311f21e61" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085DB58C8134B304E8722528DF46508C9" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="80174008b946241598c9c4dc1e838b4b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1d2ad661-40b4-4211-810e-9f8311f21e61" xmlns:ns4="e3bebc04-41cd-4c9b-8948-0bf19cce4780" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="83c7d99240e58c9b66f78776c092749e" ns3:_="" ns4:_="">
     <xsd:import namespace="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
@@ -20059,38 +20070,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1d2ad661-40b4-4211-810e-9f8311f21e61" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36DD76E4-C162-4392-939E-9C4A48CBB9A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25E92F15-5C9E-4743-BBCA-DF2A8E467494}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
-    <ds:schemaRef ds:uri="e3bebc04-41cd-4c9b-8948-0bf19cce4780"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20113,9 +20096,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25E92F15-5C9E-4743-BBCA-DF2A8E467494}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36DD76E4-C162-4392-939E-9C4A48CBB9A8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
+    <ds:schemaRef ds:uri="e3bebc04-41cd-4c9b-8948-0bf19cce4780"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>